--- a/BarboursHOU/Test.xlsx
+++ b/BarboursHOU/Test.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="296">
   <si>
     <t>Equipment Number</t>
   </si>
@@ -32,438 +32,318 @@
     <t>BOLNumber</t>
   </si>
   <si>
-    <t>BEAU4333183</t>
+    <t>ACLU9704165</t>
+  </si>
+  <si>
+    <t>WASHINGTON EXPRESS</t>
+  </si>
+  <si>
+    <t>WSX3019</t>
+  </si>
+  <si>
+    <t>SA003619520101</t>
+  </si>
+  <si>
+    <t>WSX3019SA00361952</t>
+  </si>
+  <si>
+    <t>SEGU3271788</t>
+  </si>
+  <si>
+    <t>SA003666810101</t>
+  </si>
+  <si>
+    <t>WSX3019SA00366681</t>
+  </si>
+  <si>
+    <t>TRHU2310468</t>
+  </si>
+  <si>
+    <t>GENOA</t>
+  </si>
+  <si>
+    <t>0010</t>
+  </si>
+  <si>
+    <t>CHI1187256-CHI8043557</t>
+  </si>
+  <si>
+    <t>LIVV24859500</t>
+  </si>
+  <si>
+    <t>CAIU9344035</t>
   </si>
   <si>
     <t>MOL GLIDE</t>
   </si>
   <si>
-    <t>049W</t>
-  </si>
-  <si>
-    <t>9077904542-01</t>
-  </si>
-  <si>
-    <t>YMLUT936033930</t>
-  </si>
-  <si>
-    <t>HLXU5647326</t>
+    <t>0049</t>
+  </si>
+  <si>
+    <t>CHI1202738-CHI8141441</t>
+  </si>
+  <si>
+    <t>OPOV00994500</t>
+  </si>
+  <si>
+    <t>TRHU2429328</t>
+  </si>
+  <si>
+    <t>MOL GRATITUDE</t>
+  </si>
+  <si>
+    <t>0122</t>
+  </si>
+  <si>
+    <t>CHI1192702-CHI8105940</t>
+  </si>
+  <si>
+    <t>HAMV26494400</t>
+  </si>
+  <si>
+    <t>KKTU7955036</t>
+  </si>
+  <si>
+    <t>CHI1192707-CHI8106014</t>
+  </si>
+  <si>
+    <t>HAMV26565300</t>
+  </si>
+  <si>
+    <t>TGBU5199673</t>
+  </si>
+  <si>
+    <t>CHI1202846-CHI8138948</t>
+  </si>
+  <si>
+    <t>OPOV00992300</t>
+  </si>
+  <si>
+    <t>ACLU9705705</t>
+  </si>
+  <si>
+    <t>ST LOUIS EXPRESS</t>
+  </si>
+  <si>
+    <t>SLX3219</t>
+  </si>
+  <si>
+    <t>9073905659-01</t>
+  </si>
+  <si>
+    <t>ACLUSA00370806</t>
+  </si>
+  <si>
+    <t>AKLU6021133</t>
+  </si>
+  <si>
+    <t>CHI1197829-CHI8141424</t>
+  </si>
+  <si>
+    <t>LIVV17639300</t>
+  </si>
+  <si>
+    <t>TCLU8112793</t>
   </si>
   <si>
     <t>PHILADELPHIA EXPRESS</t>
   </si>
   <si>
-    <t>062W</t>
-  </si>
-  <si>
-    <t>7221231720</t>
-  </si>
-  <si>
-    <t>HLCUANR190272546</t>
-  </si>
-  <si>
-    <t>LGEU4441256</t>
-  </si>
-  <si>
-    <t>ST. LOUIS EXPRESS</t>
-  </si>
-  <si>
-    <t>SLX3019</t>
-  </si>
-  <si>
-    <t>SA003653710801</t>
-  </si>
-  <si>
-    <t>SLX3019SA00365371</t>
-  </si>
-  <si>
-    <t>LGEU4104698</t>
-  </si>
-  <si>
-    <t>SA003653710501</t>
-  </si>
-  <si>
-    <t>LCRU4398024</t>
-  </si>
-  <si>
-    <t>SA003653710601</t>
-  </si>
-  <si>
-    <t>WSCU4330711</t>
-  </si>
-  <si>
-    <t>SA003653710701</t>
-  </si>
-  <si>
-    <t>ACLU9704165</t>
-  </si>
-  <si>
-    <t>WASHINGTON EXPRESS</t>
-  </si>
-  <si>
-    <t>WSX3019</t>
-  </si>
-  <si>
-    <t>SA003619520101</t>
-  </si>
-  <si>
-    <t>WSX3019SA00361952</t>
-  </si>
-  <si>
-    <t>YMLU4951296</t>
-  </si>
-  <si>
-    <t>9075904988-01</t>
-  </si>
-  <si>
-    <t>YMLUT930013837</t>
-  </si>
-  <si>
-    <t>SEGU3271788</t>
-  </si>
-  <si>
-    <t>SA003666810101</t>
-  </si>
-  <si>
-    <t>WSX3019SA00366681</t>
-  </si>
-  <si>
-    <t>TCLU4633474</t>
-  </si>
-  <si>
-    <t>9072905288-01</t>
-  </si>
-  <si>
-    <t>HLCUHAM190296530</t>
-  </si>
-  <si>
-    <t>TRHU2310468</t>
-  </si>
-  <si>
-    <t>GENOA</t>
-  </si>
-  <si>
-    <t>0010</t>
-  </si>
-  <si>
-    <t>CHI1187256-CHI8043557</t>
-  </si>
-  <si>
-    <t>LIVV24859500</t>
-  </si>
-  <si>
-    <t>YMLU8722488</t>
-  </si>
-  <si>
-    <t>9077904543-01</t>
-  </si>
-  <si>
-    <t>TRHU2429328</t>
-  </si>
-  <si>
-    <t>MOL GRATITUDE</t>
-  </si>
-  <si>
-    <t>0122</t>
-  </si>
-  <si>
-    <t>CHI1192702-CHI8105940</t>
-  </si>
-  <si>
-    <t>HAMV26494400</t>
-  </si>
-  <si>
-    <t>KKTU7955036</t>
-  </si>
-  <si>
-    <t>0049</t>
-  </si>
-  <si>
-    <t>CHI1192707-CHI8106014</t>
-  </si>
-  <si>
-    <t>HAMV26565300</t>
-  </si>
-  <si>
-    <t>AKLU6021133</t>
-  </si>
-  <si>
-    <t>CHI1197829-CHI8141424</t>
-  </si>
-  <si>
-    <t>LIVV17639300</t>
-  </si>
-  <si>
-    <t>HLBU1065823</t>
-  </si>
-  <si>
     <t>063W</t>
   </si>
   <si>
-    <t>9072905850-01</t>
+    <t>9072905897-01</t>
+  </si>
+  <si>
+    <t>HLCUEUR190355335</t>
+  </si>
+  <si>
+    <t>TCKU3759882</t>
+  </si>
+  <si>
+    <t>CHI1193332-CHI8109639</t>
+  </si>
+  <si>
+    <t>LIVV12766600</t>
+  </si>
+  <si>
+    <t>HLXU8723862</t>
+  </si>
+  <si>
+    <t>AEGIALI</t>
+  </si>
+  <si>
+    <t>010W</t>
+  </si>
+  <si>
+    <t>9071905824-01</t>
+  </si>
+  <si>
+    <t>HLCULE1190400226</t>
+  </si>
+  <si>
+    <t>NYKU3596551</t>
+  </si>
+  <si>
+    <t>CHI1192695-CHI8105902</t>
+  </si>
+  <si>
+    <t>HAMV26464800</t>
+  </si>
+  <si>
+    <t>KKTU7743510</t>
+  </si>
+  <si>
+    <t>CHI1192695-CHI8105905</t>
+  </si>
+  <si>
+    <t>TRHU1406734</t>
+  </si>
+  <si>
+    <t>CHI1192695-CHI8105904</t>
+  </si>
+  <si>
+    <t>NYKU3568668</t>
+  </si>
+  <si>
+    <t>CHI1192702-CHI8105941</t>
+  </si>
+  <si>
+    <t>MOAU5813830</t>
+  </si>
+  <si>
+    <t>CHI1192702-CHI8105938</t>
+  </si>
+  <si>
+    <t>MOAU0554443</t>
+  </si>
+  <si>
+    <t>CHI1192702-CHI8105939</t>
+  </si>
+  <si>
+    <t>TCLU7340799</t>
+  </si>
+  <si>
+    <t>CHI1192707-CHI8106017</t>
+  </si>
+  <si>
+    <t>TEMU0615340</t>
+  </si>
+  <si>
+    <t>CHI1192707-CHI8106016</t>
+  </si>
+  <si>
+    <t>TCKU2152169</t>
+  </si>
+  <si>
+    <t>CHI1192792-CHI8106983</t>
+  </si>
+  <si>
+    <t>HAMV26477500</t>
+  </si>
+  <si>
+    <t>TCKU3187339</t>
+  </si>
+  <si>
+    <t>CHI1192792-CHI8106985</t>
+  </si>
+  <si>
+    <t>NYKU2908948</t>
+  </si>
+  <si>
+    <t>CHI1192795-CHI8106990</t>
+  </si>
+  <si>
+    <t>HAMV30498300</t>
+  </si>
+  <si>
+    <t>TTNU3584919</t>
+  </si>
+  <si>
+    <t>CHI1192795-CHI8106992</t>
+  </si>
+  <si>
+    <t>NYKU3594672</t>
+  </si>
+  <si>
+    <t>CHI1192795-CHI8106991</t>
+  </si>
+  <si>
+    <t>FCIU8040268</t>
+  </si>
+  <si>
+    <t>9072905889-01</t>
+  </si>
+  <si>
+    <t>HLCUEUR190355229</t>
+  </si>
+  <si>
+    <t>BMOU4043830</t>
+  </si>
+  <si>
+    <t>9072905890-01</t>
+  </si>
+  <si>
+    <t>CLHU9120204</t>
+  </si>
+  <si>
+    <t>9072905891-01</t>
+  </si>
+  <si>
+    <t>HLBU2018765</t>
+  </si>
+  <si>
+    <t>9072905895-01</t>
+  </si>
+  <si>
+    <t>DFSU7059025</t>
+  </si>
+  <si>
+    <t>9072905898-01</t>
+  </si>
+  <si>
+    <t>NYKU3381574</t>
+  </si>
+  <si>
+    <t>CHI1192792-CHI8106984</t>
+  </si>
+  <si>
+    <t>SEGU1163146</t>
+  </si>
+  <si>
+    <t>CHI1192792-CHI8106986</t>
+  </si>
+  <si>
+    <t>MOAU7701607</t>
+  </si>
+  <si>
+    <t>CHI1192800-CHI8107105</t>
+  </si>
+  <si>
+    <t>HAMV29356400</t>
+  </si>
+  <si>
+    <t>KKTU7710650</t>
+  </si>
+  <si>
+    <t>CHI1192800-CHI8107101</t>
+  </si>
+  <si>
+    <t>MOAU6778224</t>
+  </si>
+  <si>
+    <t>CHI1192800-CHI8107099</t>
+  </si>
+  <si>
+    <t>TCKU6557463</t>
+  </si>
+  <si>
+    <t>9072905853-01</t>
   </si>
   <si>
     <t>HLCUHAM190361760</t>
   </si>
   <si>
-    <t>TRLU7157405</t>
-  </si>
-  <si>
-    <t>9072905881-01</t>
-  </si>
-  <si>
-    <t>HLCUEUR190355240</t>
-  </si>
-  <si>
-    <t>TCLU8112793</t>
-  </si>
-  <si>
-    <t>9072905897-01</t>
-  </si>
-  <si>
-    <t>HLCUEUR190355335</t>
-  </si>
-  <si>
-    <t>TLLU5586713</t>
-  </si>
-  <si>
-    <t>CHI1196922-CHI8108254</t>
-  </si>
-  <si>
-    <t>ANRV07546300</t>
-  </si>
-  <si>
-    <t>TCKU3759882</t>
-  </si>
-  <si>
-    <t>CHI1193332-CHI8109639</t>
-  </si>
-  <si>
-    <t>LIVV12766600</t>
-  </si>
-  <si>
-    <t>HLXU8723862</t>
-  </si>
-  <si>
-    <t>AEGIALI</t>
-  </si>
-  <si>
-    <t>010W</t>
-  </si>
-  <si>
-    <t>9071905824-01</t>
-  </si>
-  <si>
-    <t>HLCULE1190400226</t>
-  </si>
-  <si>
-    <t>NYKU3920608</t>
-  </si>
-  <si>
-    <t>CHI1192991-CHI8108149</t>
-  </si>
-  <si>
-    <t>LIVV10838400</t>
-  </si>
-  <si>
-    <t>MOAU6789044</t>
-  </si>
-  <si>
-    <t>CHI1192982-CHI8108120</t>
-  </si>
-  <si>
-    <t>LIVV14811600</t>
-  </si>
-  <si>
-    <t>NYKU3596551</t>
-  </si>
-  <si>
-    <t>CHI1192695-CHI8105902</t>
-  </si>
-  <si>
-    <t>HAMV26464800</t>
-  </si>
-  <si>
-    <t>KKTU7743510</t>
-  </si>
-  <si>
-    <t>CHI1192695-CHI8105905</t>
-  </si>
-  <si>
-    <t>TRHU1406734</t>
-  </si>
-  <si>
-    <t>CHI1192695-CHI8105904</t>
-  </si>
-  <si>
-    <t>NYKU3568668</t>
-  </si>
-  <si>
-    <t>CHI1192702-CHI8105941</t>
-  </si>
-  <si>
-    <t>MOAU5813830</t>
-  </si>
-  <si>
-    <t>CHI1192702-CHI8105938</t>
-  </si>
-  <si>
-    <t>MOAU0554443</t>
-  </si>
-  <si>
-    <t>CHI1192702-CHI8105939</t>
-  </si>
-  <si>
-    <t>TCLU7340799</t>
-  </si>
-  <si>
-    <t>CHI1192707-CHI8106017</t>
-  </si>
-  <si>
-    <t>TEMU0615340</t>
-  </si>
-  <si>
-    <t>CHI1192707-CHI8106016</t>
-  </si>
-  <si>
-    <t>TCKU2152169</t>
-  </si>
-  <si>
-    <t>CHI1192792-CHI8106983</t>
-  </si>
-  <si>
-    <t>HAMV26477500</t>
-  </si>
-  <si>
-    <t>TCKU3187339</t>
-  </si>
-  <si>
-    <t>CHI1192792-CHI8106985</t>
-  </si>
-  <si>
-    <t>NYKU2908948</t>
-  </si>
-  <si>
-    <t>CHI1192795-CHI8106990</t>
-  </si>
-  <si>
-    <t>HAMV30498300</t>
-  </si>
-  <si>
-    <t>TTNU3584919</t>
-  </si>
-  <si>
-    <t>CHI1192795-CHI8106992</t>
-  </si>
-  <si>
-    <t>NYKU3594672</t>
-  </si>
-  <si>
-    <t>CHI1192795-CHI8106991</t>
-  </si>
-  <si>
-    <t>HLBU1474800</t>
-  </si>
-  <si>
-    <t>9072905849-01</t>
-  </si>
-  <si>
-    <t>TGBU6237058</t>
-  </si>
-  <si>
-    <t>9072905851-01</t>
-  </si>
-  <si>
-    <t>DFSU6223920</t>
-  </si>
-  <si>
-    <t>9072905883-01</t>
-  </si>
-  <si>
-    <t>HLCUEUR190355229</t>
-  </si>
-  <si>
-    <t>TCNU9735898</t>
-  </si>
-  <si>
-    <t>9072905867-01</t>
-  </si>
-  <si>
-    <t>FCIU8040268</t>
-  </si>
-  <si>
-    <t>9072905889-01</t>
-  </si>
-  <si>
-    <t>BMOU4043830</t>
-  </si>
-  <si>
-    <t>9072905890-01</t>
-  </si>
-  <si>
-    <t>CLHU9120204</t>
-  </si>
-  <si>
-    <t>9072905891-01</t>
-  </si>
-  <si>
-    <t>HLBU2018765</t>
-  </si>
-  <si>
-    <t>9072905895-01</t>
-  </si>
-  <si>
-    <t>DFSU7059025</t>
-  </si>
-  <si>
-    <t>9072905898-01</t>
-  </si>
-  <si>
-    <t>NYKU3381574</t>
-  </si>
-  <si>
-    <t>CHI1192792-CHI8106984</t>
-  </si>
-  <si>
-    <t>SEGU1163146</t>
-  </si>
-  <si>
-    <t>CHI1192792-CHI8106986</t>
-  </si>
-  <si>
-    <t>MOAU7701607</t>
-  </si>
-  <si>
-    <t>CHI1192800-CHI8107105</t>
-  </si>
-  <si>
-    <t>HAMV29356400</t>
-  </si>
-  <si>
-    <t>KKTU7710650</t>
-  </si>
-  <si>
-    <t>CHI1192800-CHI8107101</t>
-  </si>
-  <si>
-    <t>MOAU6778224</t>
-  </si>
-  <si>
-    <t>CHI1192800-CHI8107099</t>
-  </si>
-  <si>
-    <t>TCNU1745518</t>
-  </si>
-  <si>
-    <t>9072905852-01</t>
-  </si>
-  <si>
-    <t>TCKU6557463</t>
-  </si>
-  <si>
-    <t>9072905853-01</t>
-  </si>
-  <si>
     <t>TCKU2334013</t>
   </si>
   <si>
@@ -509,15 +389,6 @@
     <t>LIVV01639300</t>
   </si>
   <si>
-    <t>MOAU0615240</t>
-  </si>
-  <si>
-    <t>CHI1193339-CHI8109728</t>
-  </si>
-  <si>
-    <t>LIVV16667300</t>
-  </si>
-  <si>
     <t>TRLU9728123</t>
   </si>
   <si>
@@ -527,21 +398,6 @@
     <t>HAMV29361700</t>
   </si>
   <si>
-    <t>TTNU4381080</t>
-  </si>
-  <si>
-    <t>RIO BLACKWATER</t>
-  </si>
-  <si>
-    <t>0008</t>
-  </si>
-  <si>
-    <t>CHI1192474-CHI8104652</t>
-  </si>
-  <si>
-    <t>HAMV19774700</t>
-  </si>
-  <si>
     <t>TCLU3319556</t>
   </si>
   <si>
@@ -722,15 +578,6 @@
     <t>CHI1192800-CHI8107098</t>
   </si>
   <si>
-    <t>NYKU5804680</t>
-  </si>
-  <si>
-    <t>CHI1192809-CHI8107218</t>
-  </si>
-  <si>
-    <t>ANRV03568300</t>
-  </si>
-  <si>
     <t>NYKU3565015</t>
   </si>
   <si>
@@ -758,151 +605,124 @@
     <t>YMLUT936033957</t>
   </si>
   <si>
-    <t>UACU5441602</t>
-  </si>
-  <si>
-    <t>9071905391-01</t>
-  </si>
-  <si>
-    <t>HLCUEUR1902AYNX6</t>
-  </si>
-  <si>
-    <t>TCLU5997085</t>
-  </si>
-  <si>
-    <t>9071905395-01</t>
-  </si>
-  <si>
-    <t>HLCUEUR1902AYPS1</t>
-  </si>
-  <si>
-    <t>HLBU2142293</t>
-  </si>
-  <si>
-    <t>9071905393-01</t>
-  </si>
-  <si>
-    <t>CAIU8473491</t>
-  </si>
-  <si>
-    <t>9071905396-01</t>
-  </si>
-  <si>
     <t>MOAU6718919</t>
   </si>
   <si>
     <t>CHI1192800-CHI8107103</t>
   </si>
   <si>
+    <t>CICU8040768</t>
+  </si>
+  <si>
+    <t>SA003694600101</t>
+  </si>
+  <si>
+    <t>CLX3019SA00369460</t>
+  </si>
+  <si>
+    <t>TCNU2302284</t>
+  </si>
+  <si>
+    <t>SANTA VANESSA</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>9072905231-01</t>
+  </si>
+  <si>
+    <t>ZIMUIZM19997692</t>
+  </si>
+  <si>
+    <t>ACLU9699109</t>
+  </si>
+  <si>
+    <t>SA003617670102</t>
+  </si>
+  <si>
+    <t>CLX3019SA00361767</t>
+  </si>
+  <si>
+    <t>GCNU1320402</t>
+  </si>
+  <si>
+    <t>YORKTOWN EXPRESS</t>
+  </si>
+  <si>
+    <t>YTX3119</t>
+  </si>
+  <si>
+    <t>SA003722540101</t>
+  </si>
+  <si>
+    <t>YTX3119SA00372254</t>
+  </si>
+  <si>
+    <t>TGBU2221984</t>
+  </si>
+  <si>
+    <t>MAX SCHULTE</t>
+  </si>
+  <si>
+    <t>1913N</t>
+  </si>
+  <si>
+    <t>9073905946-01</t>
+  </si>
+  <si>
+    <t>HLCUSJ2190408388</t>
+  </si>
+  <si>
+    <t>FBLU0107012</t>
+  </si>
+  <si>
+    <t>9073905160-01</t>
+  </si>
+  <si>
+    <t>HLCUEUR190355094</t>
+  </si>
+  <si>
+    <t>TCLU5965072</t>
+  </si>
+  <si>
+    <t>9073905546-01</t>
+  </si>
+  <si>
+    <t>HLCUEUR190355295</t>
+  </si>
+  <si>
     <t>NYKU3716889</t>
   </si>
   <si>
-    <t>CHI1187842-CHI8039276</t>
+    <t>CHI1207071-CHI8039276</t>
   </si>
   <si>
     <t>HAMV37431400</t>
   </si>
   <si>
-    <t>CICU8040768</t>
-  </si>
-  <si>
-    <t>SA003694600101</t>
-  </si>
-  <si>
-    <t>CLX3019SA00369460</t>
-  </si>
-  <si>
-    <t>TCNU2302284</t>
-  </si>
-  <si>
-    <t>SANTA VANESSA</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>9072905231-01</t>
-  </si>
-  <si>
-    <t>ZIMUIZM19997692</t>
-  </si>
-  <si>
-    <t>TRLU9489219</t>
-  </si>
-  <si>
-    <t>CHI1187272-CHI8043468</t>
-  </si>
-  <si>
-    <t>HAMV29380800</t>
-  </si>
-  <si>
-    <t>ACLU9699109</t>
-  </si>
-  <si>
-    <t>SA003617670102</t>
-  </si>
-  <si>
-    <t>CLX3019SA00361767</t>
-  </si>
-  <si>
-    <t>GLDU9936199</t>
-  </si>
-  <si>
-    <t>9078904037-01</t>
-  </si>
-  <si>
-    <t>HLCUHAM190332657</t>
-  </si>
-  <si>
-    <t>HLXU8527622</t>
-  </si>
-  <si>
-    <t>008W</t>
-  </si>
-  <si>
-    <t>9077904712-01</t>
-  </si>
-  <si>
-    <t>HLCUHAM190207938</t>
-  </si>
-  <si>
-    <t>CAIU8871556</t>
-  </si>
-  <si>
-    <t>9078904110-01</t>
-  </si>
-  <si>
-    <t>YMLUT936033931</t>
-  </si>
-  <si>
-    <t>HLBU1292339</t>
-  </si>
-  <si>
-    <t>9071905394-01</t>
-  </si>
-  <si>
-    <t>GCNU1320402</t>
-  </si>
-  <si>
-    <t>YORKTOWN EXPRESS</t>
-  </si>
-  <si>
-    <t>YTX3119</t>
-  </si>
-  <si>
-    <t>SA003722540101</t>
-  </si>
-  <si>
-    <t>YTX3119SA00372254</t>
-  </si>
-  <si>
-    <t>FBLU0107012</t>
-  </si>
-  <si>
-    <t>9073905160-01</t>
-  </si>
-  <si>
-    <t>HLCUEUR190355094</t>
+    <t>UACU5333953</t>
+  </si>
+  <si>
+    <t>9074905209-01</t>
+  </si>
+  <si>
+    <t>HLCULE1190410182</t>
+  </si>
+  <si>
+    <t>TCLU8577661</t>
+  </si>
+  <si>
+    <t>9073905648-01</t>
+  </si>
+  <si>
+    <t>ACLUSA00370805</t>
+  </si>
+  <si>
+    <t>TCNU8845355</t>
+  </si>
+  <si>
+    <t>9073905543-01</t>
   </si>
   <si>
     <t>NYKU9755780</t>
@@ -914,15 +734,6 @@
     <t>HAMV30585700</t>
   </si>
   <si>
-    <t>NYKU5261270</t>
-  </si>
-  <si>
-    <t>CHI1199223-CHI8109621</t>
-  </si>
-  <si>
-    <t>LIVV13412900</t>
-  </si>
-  <si>
     <t>NYKU4330611</t>
   </si>
   <si>
@@ -932,6 +743,21 @@
     <t>LIVV16986700</t>
   </si>
   <si>
+    <t>GESU6357432</t>
+  </si>
+  <si>
+    <t>TMM YUCATAN</t>
+  </si>
+  <si>
+    <t>PDX3119</t>
+  </si>
+  <si>
+    <t>SA003704450101</t>
+  </si>
+  <si>
+    <t>PDX3119SA00370445</t>
+  </si>
+  <si>
     <t>NYKU3711341</t>
   </si>
   <si>
@@ -947,6 +773,18 @@
     <t>GOTV02708400</t>
   </si>
   <si>
+    <t>GCNU1301790</t>
+  </si>
+  <si>
+    <t>CP YOSEMITE</t>
+  </si>
+  <si>
+    <t>SA003739330101</t>
+  </si>
+  <si>
+    <t>PDX3119SA00373933</t>
+  </si>
+  <si>
     <t>TCLU9341897</t>
   </si>
   <si>
@@ -956,6 +794,15 @@
     <t>LEHV11181300</t>
   </si>
   <si>
+    <t>TCLU7617414</t>
+  </si>
+  <si>
+    <t>9074905199-01</t>
+  </si>
+  <si>
+    <t>YMLUT800079087</t>
+  </si>
+  <si>
     <t>UETU4112910</t>
   </si>
   <si>
@@ -965,39 +812,6 @@
     <t>LIVV15487900</t>
   </si>
   <si>
-    <t>DFSU6677498</t>
-  </si>
-  <si>
-    <t>CHI1197801-CHI8101051</t>
-  </si>
-  <si>
-    <t>LIVV18268900</t>
-  </si>
-  <si>
-    <t>NYKU4832841</t>
-  </si>
-  <si>
-    <t>SKIATHOS</t>
-  </si>
-  <si>
-    <t>0909</t>
-  </si>
-  <si>
-    <t>CHI1197845-CHI8141485</t>
-  </si>
-  <si>
-    <t>SAOV05174900</t>
-  </si>
-  <si>
-    <t>CAIU3115854</t>
-  </si>
-  <si>
-    <t>CHI1197781-CHI8140670</t>
-  </si>
-  <si>
-    <t>LEHV12291600</t>
-  </si>
-  <si>
     <t>TCLU4674405</t>
   </si>
   <si>
@@ -1025,6 +839,12 @@
     <t>HAMV30592500</t>
   </si>
   <si>
+    <t>HLXU6304091</t>
+  </si>
+  <si>
+    <t>9073905545-01</t>
+  </si>
+  <si>
     <t>NYKU3616658</t>
   </si>
   <si>
@@ -1052,9 +872,6 @@
     <t>UACU5630381</t>
   </si>
   <si>
-    <t>ST LOUIS EXPRESS</t>
-  </si>
-  <si>
     <t>121W</t>
   </si>
   <si>
@@ -1076,13 +893,13 @@
     <t>9073905161-01</t>
   </si>
   <si>
-    <t>TCLU5685451</t>
-  </si>
-  <si>
-    <t>CHI1199102-CHI8110250</t>
-  </si>
-  <si>
-    <t>LIVV15253700</t>
+    <t>GIPU4408291</t>
+  </si>
+  <si>
+    <t>CHI1211205-CHI8141497</t>
+  </si>
+  <si>
+    <t>LIVV24603600</t>
   </si>
 </sst>
 </file>
@@ -1127,7 +944,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G127"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1176,289 +993,287 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3"/>
+      <c r="F3" t="s">
         <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
         <v>16</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
         <v>17</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
       </c>
       <c r="E4"/>
       <c r="F4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
         <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
       </c>
       <c r="E5"/>
       <c r="F5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E6"/>
       <c r="F6" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E7"/>
       <c r="F7" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E8"/>
       <c r="F8" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="D9" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E9"/>
       <c r="F9" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E10"/>
       <c r="F10" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="D11" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="E11"/>
       <c r="F11" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E12"/>
       <c r="F12" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="D13" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="E13"/>
       <c r="F13" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="B14" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="E14"/>
       <c r="F14" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E15"/>
       <c r="F15" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E16"/>
       <c r="F16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B17" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E17"/>
       <c r="F17" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B18" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E18"/>
       <c r="F18" t="s">
-        <v>66</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19">
@@ -1466,413 +1281,413 @@
         <v>67</v>
       </c>
       <c r="B19" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
         <v>68</v>
       </c>
       <c r="E19"/>
       <c r="F19" t="s">
-        <v>69</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" t="s">
         <v>70</v>
-      </c>
-      <c r="B20" t="s">
-        <v>49</v>
-      </c>
-      <c r="C20" t="s">
-        <v>50</v>
-      </c>
-      <c r="D20" t="s">
-        <v>71</v>
       </c>
       <c r="E20"/>
       <c r="F20" t="s">
-        <v>72</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B21" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="D21" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E21"/>
       <c r="F21" t="s">
-        <v>75</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B22" t="s">
-        <v>77</v>
+        <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>78</v>
+        <v>21</v>
       </c>
       <c r="D22" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="E22"/>
       <c r="F22" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B23" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="C23" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="D23" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E23"/>
       <c r="F23" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B24" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E24"/>
       <c r="F24" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B25" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="D25" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="E25"/>
       <c r="F25" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B26" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="D26" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="E26"/>
       <c r="F26" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B27" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C27" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D27" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="E27"/>
       <c r="F27" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B28" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C28" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D28" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E28"/>
       <c r="F28" t="s">
-        <v>52</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B29" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C29" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D29" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E29"/>
       <c r="F29" t="s">
-        <v>52</v>
+        <v>87</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B30" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C30" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D30" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E30"/>
       <c r="F30" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="C31" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="D31" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="E31"/>
       <c r="F31" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C32" t="s">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="D32" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="E32"/>
       <c r="F32" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C33" t="s">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="D33" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E33"/>
       <c r="F33" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C34" t="s">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="D34" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="E34"/>
       <c r="F34" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B35" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="C35" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="D35" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="E35"/>
       <c r="F35" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B36" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="C36" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="D36" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="E36"/>
       <c r="F36" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B37" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C37" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D37" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="E37"/>
       <c r="F37" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B38" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="C38" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="D38" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E38"/>
       <c r="F38" t="s">
-        <v>63</v>
+        <v>112</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B39" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="C39" t="s">
-        <v>61</v>
+        <v>114</v>
       </c>
       <c r="D39" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E39"/>
       <c r="F39" t="s">
-        <v>63</v>
+        <v>116</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B40" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="C40" t="s">
-        <v>61</v>
+        <v>118</v>
       </c>
       <c r="D40" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E40"/>
       <c r="F40" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
+        <v>121</v>
+      </c>
+      <c r="B41" t="s">
+        <v>15</v>
+      </c>
+      <c r="C41" t="s">
+        <v>122</v>
+      </c>
+      <c r="D41" t="s">
         <v>123</v>
-      </c>
-      <c r="B41" t="s">
-        <v>12</v>
-      </c>
-      <c r="C41" t="s">
-        <v>61</v>
-      </c>
-      <c r="D41" t="s">
-        <v>124</v>
       </c>
       <c r="E41"/>
       <c r="F41" t="s">
-        <v>66</v>
+        <v>124</v>
       </c>
     </row>
     <row r="42">
@@ -1880,251 +1695,251 @@
         <v>125</v>
       </c>
       <c r="B42" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="C42" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="D42" t="s">
         <v>126</v>
       </c>
       <c r="E42"/>
       <c r="F42" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B43" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="C43" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="D43" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E43"/>
       <c r="F43" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B44" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="C44" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="D44" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E44"/>
       <c r="F44" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B45" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="C45" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="D45" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E45"/>
       <c r="F45" t="s">
-        <v>69</v>
+        <v>127</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B46" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="C46" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="D46" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E46"/>
       <c r="F46" t="s">
-        <v>69</v>
+        <v>127</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="C47" t="s">
-        <v>54</v>
+        <v>114</v>
       </c>
       <c r="D47" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E47"/>
       <c r="F47" t="s">
-        <v>106</v>
+        <v>139</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="C48" t="s">
-        <v>54</v>
+        <v>114</v>
       </c>
       <c r="D48" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E48"/>
       <c r="F48" t="s">
-        <v>106</v>
+        <v>139</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="C49" t="s">
-        <v>54</v>
+        <v>114</v>
       </c>
       <c r="D49" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E49"/>
       <c r="F49" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="C50" t="s">
-        <v>54</v>
+        <v>114</v>
       </c>
       <c r="D50" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="E50"/>
       <c r="F50" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="C51" t="s">
-        <v>54</v>
+        <v>114</v>
       </c>
       <c r="D51" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E51"/>
       <c r="F51" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B52" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="C52" t="s">
-        <v>61</v>
+        <v>114</v>
       </c>
       <c r="D52" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E52"/>
       <c r="F52" t="s">
-        <v>63</v>
+        <v>139</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B53" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="C53" t="s">
-        <v>61</v>
+        <v>114</v>
       </c>
       <c r="D53" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E53"/>
       <c r="F53" t="s">
-        <v>63</v>
+        <v>139</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B54" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C54" t="s">
-        <v>50</v>
+        <v>114</v>
       </c>
       <c r="D54" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E54"/>
       <c r="F54" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B55" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="C55" t="s">
-        <v>154</v>
+        <v>114</v>
       </c>
       <c r="D55" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E55"/>
       <c r="F55" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
     </row>
     <row r="56">
@@ -2132,413 +1947,413 @@
         <v>157</v>
       </c>
       <c r="B56" t="s">
-        <v>77</v>
+        <v>25</v>
       </c>
       <c r="C56" t="s">
+        <v>26</v>
+      </c>
+      <c r="D56" t="s">
         <v>158</v>
-      </c>
-      <c r="D56" t="s">
-        <v>159</v>
       </c>
       <c r="E56"/>
       <c r="F56" t="s">
-        <v>160</v>
+        <v>58</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B57" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="C57" t="s">
-        <v>162</v>
+        <v>21</v>
       </c>
       <c r="D57" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E57"/>
       <c r="F57" t="s">
-        <v>164</v>
+        <v>31</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B58" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="C58" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="D58" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E58"/>
       <c r="F58" t="s">
-        <v>167</v>
+        <v>31</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B59" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="C59" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="D59" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="E59"/>
       <c r="F59" t="s">
-        <v>170</v>
+        <v>127</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B60" t="s">
-        <v>172</v>
+        <v>25</v>
       </c>
       <c r="C60" t="s">
-        <v>173</v>
+        <v>26</v>
       </c>
       <c r="D60" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="E60"/>
       <c r="F60" t="s">
-        <v>175</v>
+        <v>127</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="B61" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="C61" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="D61" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="E61"/>
       <c r="F61" t="s">
-        <v>178</v>
+        <v>127</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="B62" t="s">
-        <v>49</v>
+        <v>170</v>
       </c>
       <c r="C62" t="s">
-        <v>50</v>
+        <v>171</v>
       </c>
       <c r="D62" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="E62"/>
       <c r="F62" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="B63" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="C63" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="D63" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="E63"/>
       <c r="F63" t="s">
-        <v>170</v>
+        <v>102</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="B64" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="C64" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="D64" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="E64"/>
       <c r="F64" t="s">
-        <v>170</v>
+        <v>102</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="B65" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="C65" t="s">
-        <v>154</v>
+        <v>26</v>
       </c>
       <c r="D65" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="E65"/>
       <c r="F65" t="s">
-        <v>187</v>
+        <v>58</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="B66" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="C66" t="s">
-        <v>154</v>
+        <v>26</v>
       </c>
       <c r="D66" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="E66"/>
       <c r="F66" t="s">
-        <v>187</v>
+        <v>28</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="B67" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="C67" t="s">
-        <v>154</v>
+        <v>114</v>
       </c>
       <c r="D67" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="E67"/>
       <c r="F67" t="s">
-        <v>192</v>
+        <v>139</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="B68" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C68" t="s">
-        <v>154</v>
+        <v>21</v>
       </c>
       <c r="D68" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="E68"/>
       <c r="F68" t="s">
-        <v>187</v>
+        <v>102</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="B69" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C69" t="s">
-        <v>154</v>
+        <v>21</v>
       </c>
       <c r="D69" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="E69"/>
       <c r="F69" t="s">
-        <v>187</v>
+        <v>102</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="B70" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="C70" t="s">
-        <v>154</v>
+        <v>26</v>
       </c>
       <c r="D70" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="E70"/>
       <c r="F70" t="s">
-        <v>187</v>
+        <v>127</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="B71" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="C71" t="s">
-        <v>154</v>
+        <v>26</v>
       </c>
       <c r="D71" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="E71"/>
       <c r="F71" t="s">
-        <v>187</v>
+        <v>127</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="B72" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="C72" t="s">
-        <v>154</v>
+        <v>114</v>
       </c>
       <c r="D72" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="E72"/>
       <c r="F72" t="s">
-        <v>187</v>
+        <v>144</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="B73" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="C73" t="s">
-        <v>154</v>
+        <v>118</v>
       </c>
       <c r="D73" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="E73"/>
       <c r="F73" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="B74" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="C74" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="D74" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="E74"/>
       <c r="F74" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>170</v>
       </c>
       <c r="C75" t="s">
-        <v>54</v>
+        <v>171</v>
       </c>
       <c r="D75" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="E75"/>
       <c r="F75" t="s">
-        <v>56</v>
+        <v>201</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>203</v>
       </c>
       <c r="C76" t="s">
-        <v>54</v>
+        <v>204</v>
       </c>
       <c r="D76" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="E76"/>
       <c r="F76" t="s">
-        <v>56</v>
+        <v>206</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B77" t="s">
-        <v>49</v>
+        <v>170</v>
       </c>
       <c r="C77" t="s">
-        <v>50</v>
+        <v>171</v>
       </c>
       <c r="D77" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="E77"/>
       <c r="F77" t="s">
-        <v>170</v>
+        <v>209</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
+        <v>210</v>
+      </c>
+      <c r="B78" t="s">
+        <v>211</v>
+      </c>
+      <c r="C78" t="s">
+        <v>212</v>
+      </c>
+      <c r="D78" t="s">
         <v>213</v>
-      </c>
-      <c r="B78" t="s">
-        <v>49</v>
-      </c>
-      <c r="C78" t="s">
-        <v>50</v>
-      </c>
-      <c r="D78" t="s">
-        <v>214</v>
       </c>
       <c r="E78"/>
       <c r="F78" t="s">
-        <v>170</v>
+        <v>214</v>
       </c>
     </row>
     <row r="79">
@@ -2546,881 +2361,467 @@
         <v>215</v>
       </c>
       <c r="B79" t="s">
-        <v>49</v>
+        <v>216</v>
       </c>
       <c r="C79" t="s">
-        <v>50</v>
+        <v>217</v>
       </c>
       <c r="D79" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E79"/>
       <c r="F79" t="s">
-        <v>170</v>
+        <v>219</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B80" t="s">
-        <v>218</v>
+        <v>52</v>
       </c>
       <c r="C80" t="s">
-        <v>219</v>
+        <v>53</v>
       </c>
       <c r="D80" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E80"/>
       <c r="F80" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="C81" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="D81" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E81"/>
       <c r="F81" t="s">
-        <v>141</v>
+        <v>225</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C82" t="s">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="D82" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E82"/>
       <c r="F82" t="s">
-        <v>141</v>
+        <v>228</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B83" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="C83" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D83" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="E83"/>
       <c r="F83" t="s">
-        <v>89</v>
+        <v>231</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="B84" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="C84" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="D84" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="E84"/>
       <c r="F84" t="s">
-        <v>52</v>
+        <v>234</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="B85" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="C85" t="s">
-        <v>154</v>
+        <v>45</v>
       </c>
       <c r="D85" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="E85"/>
       <c r="F85" t="s">
-        <v>187</v>
+        <v>225</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C86" t="s">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="D86" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="E86"/>
       <c r="F86" t="s">
-        <v>141</v>
+        <v>239</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C87" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="D87" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="E87"/>
       <c r="F87" t="s">
-        <v>141</v>
+        <v>242</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>244</v>
       </c>
       <c r="C88" t="s">
-        <v>54</v>
+        <v>245</v>
       </c>
       <c r="D88" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="E88"/>
       <c r="F88" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="B89" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="C89" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="D89" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="E89"/>
       <c r="F89" t="s">
-        <v>170</v>
+        <v>239</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="B90" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="C90" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="D90" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="E90"/>
       <c r="F90" t="s">
-        <v>170</v>
+        <v>252</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="B91" t="s">
-        <v>12</v>
+        <v>254</v>
       </c>
       <c r="C91" t="s">
-        <v>154</v>
+        <v>245</v>
       </c>
       <c r="D91" t="s">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="E91"/>
       <c r="F91" t="s">
-        <v>192</v>
+        <v>256</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="B92" t="s">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="C92" t="s">
-        <v>158</v>
+        <v>114</v>
       </c>
       <c r="D92" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="E92"/>
       <c r="F92" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="D93" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="E93"/>
       <c r="F93" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="D94" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="E94"/>
       <c r="F94" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="D95" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="E95"/>
       <c r="F95" t="s">
-        <v>250</v>
+        <v>268</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>256</v>
+        <v>269</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="D96" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="E96"/>
       <c r="F96" t="s">
-        <v>253</v>
+        <v>271</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>258</v>
+        <v>272</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C97" t="s">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="D97" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="E97"/>
       <c r="F97" t="s">
-        <v>141</v>
+        <v>274</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="C98" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="D98" t="s">
-        <v>261</v>
+        <v>276</v>
       </c>
       <c r="E98"/>
       <c r="F98" t="s">
-        <v>262</v>
+        <v>225</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="B99" t="s">
-        <v>218</v>
+        <v>278</v>
       </c>
       <c r="C99" t="s">
-        <v>219</v>
+        <v>279</v>
       </c>
       <c r="D99" t="s">
-        <v>264</v>
+        <v>280</v>
       </c>
       <c r="E99"/>
       <c r="F99" t="s">
-        <v>265</v>
+        <v>281</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>266</v>
+        <v>282</v>
       </c>
       <c r="B100" t="s">
-        <v>267</v>
+        <v>15</v>
       </c>
       <c r="C100" t="s">
-        <v>268</v>
+        <v>53</v>
       </c>
       <c r="D100" t="s">
-        <v>269</v>
+        <v>283</v>
       </c>
       <c r="E100"/>
       <c r="F100" t="s">
-        <v>270</v>
+        <v>284</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="B101" t="s">
-        <v>172</v>
+        <v>36</v>
       </c>
       <c r="C101" t="s">
-        <v>173</v>
+        <v>286</v>
       </c>
       <c r="D101" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="E101"/>
       <c r="F101" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="B102" t="s">
-        <v>218</v>
+        <v>52</v>
       </c>
       <c r="C102" t="s">
-        <v>219</v>
+        <v>53</v>
       </c>
       <c r="D102" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="E102"/>
       <c r="F102" t="s">
-        <v>276</v>
+        <v>222</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="D103" t="s">
-        <v>278</v>
+        <v>292</v>
       </c>
       <c r="E103"/>
       <c r="F103" t="s">
-        <v>279</v>
+        <v>222</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>280</v>
+        <v>293</v>
       </c>
       <c r="B104" t="s">
-        <v>172</v>
+        <v>44</v>
       </c>
       <c r="C104" t="s">
-        <v>281</v>
+        <v>114</v>
       </c>
       <c r="D104" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="E104"/>
       <c r="F104" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="s">
-        <v>284</v>
-      </c>
-      <c r="B105" t="s">
-        <v>7</v>
-      </c>
-      <c r="C105" t="s">
-        <v>8</v>
-      </c>
-      <c r="D105" t="s">
-        <v>285</v>
-      </c>
-      <c r="E105"/>
-      <c r="F105" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="s">
-        <v>287</v>
-      </c>
-      <c r="B106" t="s">
-        <v>7</v>
-      </c>
-      <c r="C106" t="s">
-        <v>8</v>
-      </c>
-      <c r="D106" t="s">
-        <v>288</v>
-      </c>
-      <c r="E106"/>
-      <c r="F106" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="s">
-        <v>289</v>
-      </c>
-      <c r="B107" t="s">
-        <v>290</v>
-      </c>
-      <c r="C107" t="s">
-        <v>291</v>
-      </c>
-      <c r="D107" t="s">
-        <v>292</v>
-      </c>
-      <c r="E107"/>
-      <c r="F107" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="s">
-        <v>294</v>
-      </c>
-      <c r="B108" t="s">
-        <v>77</v>
-      </c>
-      <c r="C108" t="s">
-        <v>78</v>
-      </c>
-      <c r="D108" t="s">
         <v>295</v>
-      </c>
-      <c r="E108"/>
-      <c r="F108" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="s">
-        <v>297</v>
-      </c>
-      <c r="B109" t="s">
-        <v>7</v>
-      </c>
-      <c r="C109" t="s">
-        <v>54</v>
-      </c>
-      <c r="D109" t="s">
-        <v>298</v>
-      </c>
-      <c r="E109"/>
-      <c r="F109" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="s">
-        <v>300</v>
-      </c>
-      <c r="B110" t="s">
-        <v>49</v>
-      </c>
-      <c r="C110" t="s">
-        <v>50</v>
-      </c>
-      <c r="D110" t="s">
-        <v>301</v>
-      </c>
-      <c r="E110"/>
-      <c r="F110" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="s">
-        <v>303</v>
-      </c>
-      <c r="B111" t="s">
-        <v>49</v>
-      </c>
-      <c r="C111" t="s">
-        <v>50</v>
-      </c>
-      <c r="D111" t="s">
-        <v>304</v>
-      </c>
-      <c r="E111"/>
-      <c r="F111" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="s">
-        <v>306</v>
-      </c>
-      <c r="B112" t="s">
-        <v>7</v>
-      </c>
-      <c r="C112" t="s">
-        <v>54</v>
-      </c>
-      <c r="D112" t="s">
-        <v>307</v>
-      </c>
-      <c r="E112"/>
-      <c r="F112" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="s">
-        <v>308</v>
-      </c>
-      <c r="B113" t="s">
-        <v>7</v>
-      </c>
-      <c r="C113" t="s">
-        <v>54</v>
-      </c>
-      <c r="D113" t="s">
-        <v>309</v>
-      </c>
-      <c r="E113"/>
-      <c r="F113" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="s">
-        <v>311</v>
-      </c>
-      <c r="B114" t="s">
-        <v>12</v>
-      </c>
-      <c r="C114" t="s">
-        <v>154</v>
-      </c>
-      <c r="D114" t="s">
-        <v>312</v>
-      </c>
-      <c r="E114"/>
-      <c r="F114" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="s">
-        <v>314</v>
-      </c>
-      <c r="B115" t="s">
-        <v>49</v>
-      </c>
-      <c r="C115" t="s">
-        <v>50</v>
-      </c>
-      <c r="D115" t="s">
-        <v>315</v>
-      </c>
-      <c r="E115"/>
-      <c r="F115" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="s">
-        <v>317</v>
-      </c>
-      <c r="B116" t="s">
-        <v>7</v>
-      </c>
-      <c r="C116" t="s">
-        <v>54</v>
-      </c>
-      <c r="D116" t="s">
-        <v>318</v>
-      </c>
-      <c r="E116"/>
-      <c r="F116" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="s">
-        <v>320</v>
-      </c>
-      <c r="B117" t="s">
-        <v>321</v>
-      </c>
-      <c r="C117" t="s">
-        <v>322</v>
-      </c>
-      <c r="D117" t="s">
-        <v>323</v>
-      </c>
-      <c r="E117"/>
-      <c r="F117" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="s">
-        <v>325</v>
-      </c>
-      <c r="B118" t="s">
-        <v>7</v>
-      </c>
-      <c r="C118" t="s">
-        <v>54</v>
-      </c>
-      <c r="D118" t="s">
-        <v>326</v>
-      </c>
-      <c r="E118"/>
-      <c r="F118" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="s">
-        <v>328</v>
-      </c>
-      <c r="B119" t="s">
-        <v>49</v>
-      </c>
-      <c r="C119" t="s">
-        <v>50</v>
-      </c>
-      <c r="D119" t="s">
-        <v>329</v>
-      </c>
-      <c r="E119"/>
-      <c r="F119" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="s">
-        <v>331</v>
-      </c>
-      <c r="B120" t="s">
-        <v>49</v>
-      </c>
-      <c r="C120" t="s">
-        <v>50</v>
-      </c>
-      <c r="D120" t="s">
-        <v>332</v>
-      </c>
-      <c r="E120"/>
-      <c r="F120" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="s">
-        <v>334</v>
-      </c>
-      <c r="B121" t="s">
-        <v>7</v>
-      </c>
-      <c r="C121" t="s">
-        <v>54</v>
-      </c>
-      <c r="D121" t="s">
-        <v>335</v>
-      </c>
-      <c r="E121"/>
-      <c r="F121" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="s">
-        <v>337</v>
-      </c>
-      <c r="B122" t="s">
-        <v>338</v>
-      </c>
-      <c r="C122" t="s">
-        <v>339</v>
-      </c>
-      <c r="D122" t="s">
-        <v>340</v>
-      </c>
-      <c r="E122"/>
-      <c r="F122" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="s">
-        <v>342</v>
-      </c>
-      <c r="B123" t="s">
-        <v>42</v>
-      </c>
-      <c r="C123" t="s">
-        <v>78</v>
-      </c>
-      <c r="D123" t="s">
-        <v>343</v>
-      </c>
-      <c r="E123"/>
-      <c r="F123" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="s">
-        <v>345</v>
-      </c>
-      <c r="B124" t="s">
-        <v>346</v>
-      </c>
-      <c r="C124" t="s">
-        <v>347</v>
-      </c>
-      <c r="D124" t="s">
-        <v>348</v>
-      </c>
-      <c r="E124"/>
-      <c r="F124" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="s">
-        <v>350</v>
-      </c>
-      <c r="B125" t="s">
-        <v>77</v>
-      </c>
-      <c r="C125" t="s">
-        <v>78</v>
-      </c>
-      <c r="D125" t="s">
-        <v>351</v>
-      </c>
-      <c r="E125"/>
-      <c r="F125" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="s">
-        <v>352</v>
-      </c>
-      <c r="B126" t="s">
-        <v>77</v>
-      </c>
-      <c r="C126" t="s">
-        <v>78</v>
-      </c>
-      <c r="D126" t="s">
-        <v>353</v>
-      </c>
-      <c r="E126"/>
-      <c r="F126" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="s">
-        <v>354</v>
-      </c>
-      <c r="B127" t="s">
-        <v>49</v>
-      </c>
-      <c r="C127" t="s">
-        <v>50</v>
-      </c>
-      <c r="D127" t="s">
-        <v>355</v>
-      </c>
-      <c r="E127"/>
-      <c r="F127" t="s">
-        <v>356</v>
       </c>
     </row>
   </sheetData>

--- a/BarboursHOU/Test.xlsx
+++ b/BarboursHOU/Test.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="329">
   <si>
     <t>Equipment Number</t>
   </si>
@@ -32,697 +32,415 @@
     <t>BOLNumber</t>
   </si>
   <si>
-    <t>ACLU9704165</t>
+    <t>TRHU2310468</t>
+  </si>
+  <si>
+    <t>GENOA</t>
+  </si>
+  <si>
+    <t>0010</t>
+  </si>
+  <si>
+    <t>CHI1187256-CHI8043557</t>
+  </si>
+  <si>
+    <t>LIVV24859500</t>
+  </si>
+  <si>
+    <t>TRHU2429328</t>
+  </si>
+  <si>
+    <t>MOL GRATITUDE</t>
+  </si>
+  <si>
+    <t>0122</t>
+  </si>
+  <si>
+    <t>CHI1192702-CHI8105940</t>
+  </si>
+  <si>
+    <t>HAMV26494400</t>
+  </si>
+  <si>
+    <t>KKTU7955036</t>
+  </si>
+  <si>
+    <t>MOL GLIDE</t>
+  </si>
+  <si>
+    <t>0049</t>
+  </si>
+  <si>
+    <t>CHI1192707-CHI8106014</t>
+  </si>
+  <si>
+    <t>HAMV26565300</t>
+  </si>
+  <si>
+    <t>AKLU6021133</t>
+  </si>
+  <si>
+    <t>CHI1197829-CHI8141424</t>
+  </si>
+  <si>
+    <t>LIVV17639300</t>
+  </si>
+  <si>
+    <t>TCLU7340799</t>
+  </si>
+  <si>
+    <t>CHI1192707-CHI8106017</t>
+  </si>
+  <si>
+    <t>TEMU0615340</t>
+  </si>
+  <si>
+    <t>CHI1192707-CHI8106016</t>
+  </si>
+  <si>
+    <t>TCKU2152169</t>
+  </si>
+  <si>
+    <t>CHI1192792-CHI8106983</t>
+  </si>
+  <si>
+    <t>HAMV26477500</t>
+  </si>
+  <si>
+    <t>TCKU3187339</t>
+  </si>
+  <si>
+    <t>CHI1192792-CHI8106985</t>
+  </si>
+  <si>
+    <t>TTNU3584919</t>
+  </si>
+  <si>
+    <t>CHI1192795-CHI8106992</t>
+  </si>
+  <si>
+    <t>HAMV30498300</t>
+  </si>
+  <si>
+    <t>NYKU3594672</t>
+  </si>
+  <si>
+    <t>CHI1192795-CHI8106991</t>
+  </si>
+  <si>
+    <t>NYKU3381574</t>
+  </si>
+  <si>
+    <t>CHI1192792-CHI8106984</t>
+  </si>
+  <si>
+    <t>TLLU6045251</t>
+  </si>
+  <si>
+    <t>PHILADELPHIA EXPRESS</t>
+  </si>
+  <si>
+    <t>0063</t>
+  </si>
+  <si>
+    <t>CHI1193240-CHI8109253</t>
+  </si>
+  <si>
+    <t>LIVV21206900</t>
+  </si>
+  <si>
+    <t>UETU4138279</t>
+  </si>
+  <si>
+    <t>0009</t>
+  </si>
+  <si>
+    <t>CHI1193088-CHI8108496</t>
+  </si>
+  <si>
+    <t>LIVV01639300</t>
+  </si>
+  <si>
+    <t>TCLU3319556</t>
+  </si>
+  <si>
+    <t>CHI1192005-CHI8101181</t>
+  </si>
+  <si>
+    <t>HAMV26816900</t>
+  </si>
+  <si>
+    <t>TRHU3895017</t>
+  </si>
+  <si>
+    <t>CHI1192061-CHI8101476</t>
+  </si>
+  <si>
+    <t>HAMV29361700</t>
+  </si>
+  <si>
+    <t>MOAU6762228</t>
+  </si>
+  <si>
+    <t>CHI1192061-CHI8101473</t>
+  </si>
+  <si>
+    <t>NYKU3804927</t>
+  </si>
+  <si>
+    <t>CHI1192707-CHI8106013</t>
+  </si>
+  <si>
+    <t>KKTU7918813</t>
+  </si>
+  <si>
+    <t>CHI1192061-CHI8101472</t>
+  </si>
+  <si>
+    <t>GCNU4761649</t>
+  </si>
+  <si>
+    <t>CHARLESTON EXPRESS</t>
+  </si>
+  <si>
+    <t>CLX3019</t>
+  </si>
+  <si>
+    <t>SA003649000101</t>
+  </si>
+  <si>
+    <t>CLX3019SA00364900</t>
+  </si>
+  <si>
+    <t>NYKU3810030</t>
+  </si>
+  <si>
+    <t>CHI1192695-CHI8105903</t>
+  </si>
+  <si>
+    <t>HAMV26464800</t>
+  </si>
+  <si>
+    <t>FCIU4026662</t>
+  </si>
+  <si>
+    <t>CHI1192800-CHI8107098</t>
+  </si>
+  <si>
+    <t>HAMV29356400</t>
+  </si>
+  <si>
+    <t>NYKU3565015</t>
+  </si>
+  <si>
+    <t>CHI1192061-CHI8101478</t>
+  </si>
+  <si>
+    <t>TCLU2382195</t>
+  </si>
+  <si>
+    <t>CHI1192061-CHI8101477</t>
+  </si>
+  <si>
+    <t>CICU8040768</t>
+  </si>
+  <si>
+    <t>SA003694600101</t>
+  </si>
+  <si>
+    <t>CLX3019SA00369460</t>
+  </si>
+  <si>
+    <t>ACLU9699109</t>
+  </si>
+  <si>
+    <t>SA003617670102</t>
+  </si>
+  <si>
+    <t>CLX3019SA00361767</t>
+  </si>
+  <si>
+    <t>GCNU1320402</t>
+  </si>
+  <si>
+    <t>YORKTOWN EXPRESS</t>
+  </si>
+  <si>
+    <t>YTX3119</t>
+  </si>
+  <si>
+    <t>SA003722540101</t>
+  </si>
+  <si>
+    <t>YTX3119SA00372254</t>
+  </si>
+  <si>
+    <t>NYKU4317857</t>
   </si>
   <si>
     <t>WASHINGTON EXPRESS</t>
   </si>
   <si>
-    <t>WSX3019</t>
-  </si>
-  <si>
-    <t>SA003619520101</t>
-  </si>
-  <si>
-    <t>WSX3019SA00361952</t>
-  </si>
-  <si>
-    <t>SEGU3271788</t>
-  </si>
-  <si>
-    <t>SA003666810101</t>
-  </si>
-  <si>
-    <t>WSX3019SA00366681</t>
-  </si>
-  <si>
-    <t>TRHU2310468</t>
-  </si>
-  <si>
-    <t>GENOA</t>
-  </si>
-  <si>
-    <t>0010</t>
-  </si>
-  <si>
-    <t>CHI1187256-CHI8043557</t>
-  </si>
-  <si>
-    <t>LIVV24859500</t>
-  </si>
-  <si>
-    <t>CAIU9344035</t>
-  </si>
-  <si>
-    <t>MOL GLIDE</t>
-  </si>
-  <si>
-    <t>0049</t>
-  </si>
-  <si>
-    <t>CHI1202738-CHI8141441</t>
-  </si>
-  <si>
-    <t>OPOV00994500</t>
-  </si>
-  <si>
-    <t>TRHU2429328</t>
-  </si>
-  <si>
-    <t>MOL GRATITUDE</t>
-  </si>
-  <si>
-    <t>0122</t>
-  </si>
-  <si>
-    <t>CHI1192702-CHI8105940</t>
-  </si>
-  <si>
-    <t>HAMV26494400</t>
-  </si>
-  <si>
-    <t>KKTU7955036</t>
-  </si>
-  <si>
-    <t>CHI1192707-CHI8106014</t>
-  </si>
-  <si>
-    <t>HAMV26565300</t>
-  </si>
-  <si>
-    <t>TGBU5199673</t>
-  </si>
-  <si>
-    <t>CHI1202846-CHI8138948</t>
-  </si>
-  <si>
-    <t>OPOV00992300</t>
-  </si>
-  <si>
-    <t>ACLU9705705</t>
-  </si>
-  <si>
-    <t>ST LOUIS EXPRESS</t>
+    <t>0119</t>
+  </si>
+  <si>
+    <t>CHI1232082-CHI8401438</t>
+  </si>
+  <si>
+    <t>LIVV22242300</t>
+  </si>
+  <si>
+    <t>TEMU5144710</t>
+  </si>
+  <si>
+    <t>AEGIALI</t>
+  </si>
+  <si>
+    <t>CHI1224131-CHI8141537</t>
+  </si>
+  <si>
+    <t>HAMV31091700</t>
+  </si>
+  <si>
+    <t>TCLU3487884</t>
+  </si>
+  <si>
+    <t>CHI1223963-CHI8141542</t>
+  </si>
+  <si>
+    <t>HAMV34983600</t>
+  </si>
+  <si>
+    <t>NYKU3716889</t>
+  </si>
+  <si>
+    <t>CHI1207071-CHI8039276</t>
+  </si>
+  <si>
+    <t>HAMV37431400</t>
+  </si>
+  <si>
+    <t>CAIU3216700</t>
+  </si>
+  <si>
+    <t>CHI1219149-CHI8141536</t>
+  </si>
+  <si>
+    <t>HAMV29625300</t>
+  </si>
+  <si>
+    <t>NYKU3857568</t>
+  </si>
+  <si>
+    <t>CHI1219149-CHI8141530</t>
+  </si>
+  <si>
+    <t>FCIU2790347</t>
+  </si>
+  <si>
+    <t>CHI1219149-CHI8141535</t>
+  </si>
+  <si>
+    <t>GCNU1289415</t>
+  </si>
+  <si>
+    <t>ST. LOUIS EXPRESS</t>
   </si>
   <si>
     <t>SLX3219</t>
   </si>
   <si>
-    <t>9073905659-01</t>
-  </si>
-  <si>
-    <t>ACLUSA00370806</t>
-  </si>
-  <si>
-    <t>AKLU6021133</t>
-  </si>
-  <si>
-    <t>CHI1197829-CHI8141424</t>
-  </si>
-  <si>
-    <t>LIVV17639300</t>
-  </si>
-  <si>
-    <t>TCLU8112793</t>
-  </si>
-  <si>
-    <t>PHILADELPHIA EXPRESS</t>
-  </si>
-  <si>
-    <t>063W</t>
-  </si>
-  <si>
-    <t>9072905897-01</t>
-  </si>
-  <si>
-    <t>HLCUEUR190355335</t>
-  </si>
-  <si>
-    <t>TCKU3759882</t>
-  </si>
-  <si>
-    <t>CHI1193332-CHI8109639</t>
-  </si>
-  <si>
-    <t>LIVV12766600</t>
-  </si>
-  <si>
-    <t>HLXU8723862</t>
-  </si>
-  <si>
-    <t>AEGIALI</t>
+    <t>SA003743230101</t>
+  </si>
+  <si>
+    <t>SLX3219SA00374323</t>
+  </si>
+  <si>
+    <t>UACU5333953</t>
   </si>
   <si>
     <t>010W</t>
   </si>
   <si>
-    <t>9071905824-01</t>
-  </si>
-  <si>
-    <t>HLCULE1190400226</t>
-  </si>
-  <si>
-    <t>NYKU3596551</t>
-  </si>
-  <si>
-    <t>CHI1192695-CHI8105902</t>
-  </si>
-  <si>
-    <t>HAMV26464800</t>
-  </si>
-  <si>
-    <t>KKTU7743510</t>
-  </si>
-  <si>
-    <t>CHI1192695-CHI8105905</t>
-  </si>
-  <si>
-    <t>TRHU1406734</t>
-  </si>
-  <si>
-    <t>CHI1192695-CHI8105904</t>
-  </si>
-  <si>
-    <t>NYKU3568668</t>
-  </si>
-  <si>
-    <t>CHI1192702-CHI8105941</t>
-  </si>
-  <si>
-    <t>MOAU5813830</t>
-  </si>
-  <si>
-    <t>CHI1192702-CHI8105938</t>
-  </si>
-  <si>
-    <t>MOAU0554443</t>
-  </si>
-  <si>
-    <t>CHI1192702-CHI8105939</t>
-  </si>
-  <si>
-    <t>TCLU7340799</t>
-  </si>
-  <si>
-    <t>CHI1192707-CHI8106017</t>
-  </si>
-  <si>
-    <t>TEMU0615340</t>
-  </si>
-  <si>
-    <t>CHI1192707-CHI8106016</t>
-  </si>
-  <si>
-    <t>TCKU2152169</t>
-  </si>
-  <si>
-    <t>CHI1192792-CHI8106983</t>
-  </si>
-  <si>
-    <t>HAMV26477500</t>
-  </si>
-  <si>
-    <t>TCKU3187339</t>
-  </si>
-  <si>
-    <t>CHI1192792-CHI8106985</t>
-  </si>
-  <si>
-    <t>NYKU2908948</t>
-  </si>
-  <si>
-    <t>CHI1192795-CHI8106990</t>
-  </si>
-  <si>
-    <t>HAMV30498300</t>
-  </si>
-  <si>
-    <t>TTNU3584919</t>
-  </si>
-  <si>
-    <t>CHI1192795-CHI8106992</t>
-  </si>
-  <si>
-    <t>NYKU3594672</t>
-  </si>
-  <si>
-    <t>CHI1192795-CHI8106991</t>
-  </si>
-  <si>
-    <t>FCIU8040268</t>
-  </si>
-  <si>
-    <t>9072905889-01</t>
-  </si>
-  <si>
-    <t>HLCUEUR190355229</t>
-  </si>
-  <si>
-    <t>BMOU4043830</t>
-  </si>
-  <si>
-    <t>9072905890-01</t>
-  </si>
-  <si>
-    <t>CLHU9120204</t>
-  </si>
-  <si>
-    <t>9072905891-01</t>
-  </si>
-  <si>
-    <t>HLBU2018765</t>
-  </si>
-  <si>
-    <t>9072905895-01</t>
-  </si>
-  <si>
-    <t>DFSU7059025</t>
-  </si>
-  <si>
-    <t>9072905898-01</t>
-  </si>
-  <si>
-    <t>NYKU3381574</t>
-  </si>
-  <si>
-    <t>CHI1192792-CHI8106984</t>
-  </si>
-  <si>
-    <t>SEGU1163146</t>
-  </si>
-  <si>
-    <t>CHI1192792-CHI8106986</t>
-  </si>
-  <si>
-    <t>MOAU7701607</t>
-  </si>
-  <si>
-    <t>CHI1192800-CHI8107105</t>
-  </si>
-  <si>
-    <t>HAMV29356400</t>
-  </si>
-  <si>
-    <t>KKTU7710650</t>
-  </si>
-  <si>
-    <t>CHI1192800-CHI8107101</t>
-  </si>
-  <si>
-    <t>MOAU6778224</t>
-  </si>
-  <si>
-    <t>CHI1192800-CHI8107099</t>
-  </si>
-  <si>
-    <t>TCKU6557463</t>
-  </si>
-  <si>
-    <t>9072905853-01</t>
-  </si>
-  <si>
-    <t>HLCUHAM190361760</t>
-  </si>
-  <si>
-    <t>TCKU2334013</t>
-  </si>
-  <si>
-    <t>CHI1192960-CHI8108062</t>
-  </si>
-  <si>
-    <t>LIVV10801800</t>
-  </si>
-  <si>
-    <t>TLLU6045251</t>
-  </si>
-  <si>
-    <t>0063</t>
-  </si>
-  <si>
-    <t>CHI1193240-CHI8109253</t>
-  </si>
-  <si>
-    <t>LIVV21206900</t>
-  </si>
-  <si>
-    <t>TGBU6176543</t>
-  </si>
-  <si>
-    <t>AL4914W</t>
-  </si>
-  <si>
-    <t>9072905705-01</t>
-  </si>
-  <si>
-    <t>YMLUT936033962</t>
-  </si>
-  <si>
-    <t>UETU4138279</t>
-  </si>
-  <si>
-    <t>0009</t>
-  </si>
-  <si>
-    <t>CHI1193088-CHI8108496</t>
-  </si>
-  <si>
-    <t>LIVV01639300</t>
-  </si>
-  <si>
-    <t>TRLU9728123</t>
-  </si>
-  <si>
-    <t>CHI1192061-CHI8101471</t>
-  </si>
-  <si>
-    <t>HAMV29361700</t>
-  </si>
-  <si>
-    <t>TCLU3319556</t>
-  </si>
-  <si>
-    <t>CHI1192005-CHI8101181</t>
-  </si>
-  <si>
-    <t>HAMV26816900</t>
-  </si>
-  <si>
-    <t>TRHU3895017</t>
-  </si>
-  <si>
-    <t>CHI1192061-CHI8101476</t>
-  </si>
-  <si>
-    <t>MOAU6762228</t>
-  </si>
-  <si>
-    <t>CHI1192061-CHI8101473</t>
-  </si>
-  <si>
-    <t>GLDU9544813</t>
-  </si>
-  <si>
-    <t>CHI1192061-CHI8101474</t>
-  </si>
-  <si>
-    <t>BEAU4439745</t>
-  </si>
-  <si>
-    <t>CHI1192215-CHI8102555</t>
-  </si>
-  <si>
-    <t>LIVV22238800</t>
-  </si>
-  <si>
-    <t>TRLU7602481</t>
-  </si>
-  <si>
-    <t>CHI1192215-CHI8102565</t>
-  </si>
-  <si>
-    <t>NYKU0853677</t>
-  </si>
-  <si>
-    <t>CHI1192215-CHI8102560</t>
-  </si>
-  <si>
-    <t>LIVV24595900</t>
-  </si>
-  <si>
-    <t>BSIU9372011</t>
-  </si>
-  <si>
-    <t>CHI1192215-CHI8102556</t>
-  </si>
-  <si>
-    <t>TGBU5296020</t>
-  </si>
-  <si>
-    <t>CHI1192215-CHI8102563</t>
-  </si>
-  <si>
-    <t>TGHU9285220</t>
-  </si>
-  <si>
-    <t>CHI1192215-CHI8102561</t>
-  </si>
-  <si>
-    <t>FSCU8618329</t>
-  </si>
-  <si>
-    <t>CHI1192215-CHI8102559</t>
-  </si>
-  <si>
-    <t>TCNU7158673</t>
-  </si>
-  <si>
-    <t>CHI1192215-CHI8102564</t>
-  </si>
-  <si>
-    <t>TGHU8385689</t>
-  </si>
-  <si>
-    <t>CHI1192215-CHI8102558</t>
-  </si>
-  <si>
-    <t>NYKU3773831</t>
-  </si>
-  <si>
-    <t>CHI1192695-CHI8105906</t>
-  </si>
-  <si>
-    <t>TRHU1924836</t>
-  </si>
-  <si>
-    <t>CHI1192707-CHI8106015</t>
-  </si>
-  <si>
-    <t>NYKU3804927</t>
-  </si>
-  <si>
-    <t>CHI1192707-CHI8106013</t>
-  </si>
-  <si>
-    <t>KKTU7918813</t>
-  </si>
-  <si>
-    <t>CHI1192061-CHI8101472</t>
-  </si>
-  <si>
-    <t>MOAU1453294</t>
-  </si>
-  <si>
-    <t>CHI1192061-CHI8101475</t>
-  </si>
-  <si>
-    <t>TRHU2745959</t>
-  </si>
-  <si>
-    <t>CHI1192061-CHI8101470</t>
-  </si>
-  <si>
-    <t>GCNU4761649</t>
-  </si>
-  <si>
-    <t>CHARLESTON EXPRESS</t>
-  </si>
-  <si>
-    <t>CLX3019</t>
-  </si>
-  <si>
-    <t>SA003649000101</t>
-  </si>
-  <si>
-    <t>CLX3019SA00364900</t>
-  </si>
-  <si>
-    <t>TEMU2402690</t>
-  </si>
-  <si>
-    <t>CHI1192800-CHI8107100</t>
-  </si>
-  <si>
-    <t>NYKU3651962</t>
-  </si>
-  <si>
-    <t>CHI1192800-CHI8107104</t>
-  </si>
-  <si>
-    <t>NYKU3810030</t>
-  </si>
-  <si>
-    <t>CHI1192695-CHI8105903</t>
-  </si>
-  <si>
-    <t>FCIU5361768</t>
-  </si>
-  <si>
-    <t>CHI1192702-CHI8105942</t>
-  </si>
-  <si>
-    <t>TLLU4606409</t>
-  </si>
-  <si>
-    <t>CHI1192215-CHI8102557</t>
-  </si>
-  <si>
-    <t>NYKU3633064</t>
-  </si>
-  <si>
-    <t>CHI1192800-CHI8107102</t>
-  </si>
-  <si>
-    <t>FCIU4026662</t>
-  </si>
-  <si>
-    <t>CHI1192800-CHI8107098</t>
-  </si>
-  <si>
-    <t>NYKU3565015</t>
-  </si>
-  <si>
-    <t>CHI1192061-CHI8101478</t>
-  </si>
-  <si>
-    <t>TCLU2382195</t>
-  </si>
-  <si>
-    <t>CHI1192061-CHI8101477</t>
-  </si>
-  <si>
-    <t>FDCU0601491</t>
-  </si>
-  <si>
-    <t>CHI1192215-CHI8102562</t>
-  </si>
-  <si>
-    <t>YMMU6229624</t>
-  </si>
-  <si>
-    <t>9072905706-01</t>
-  </si>
-  <si>
-    <t>YMLUT936033957</t>
-  </si>
-  <si>
-    <t>MOAU6718919</t>
-  </si>
-  <si>
-    <t>CHI1192800-CHI8107103</t>
-  </si>
-  <si>
-    <t>CICU8040768</t>
-  </si>
-  <si>
-    <t>SA003694600101</t>
-  </si>
-  <si>
-    <t>CLX3019SA00369460</t>
-  </si>
-  <si>
-    <t>TCNU2302284</t>
-  </si>
-  <si>
-    <t>SANTA VANESSA</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>9072905231-01</t>
-  </si>
-  <si>
-    <t>ZIMUIZM19997692</t>
-  </si>
-  <si>
-    <t>ACLU9699109</t>
-  </si>
-  <si>
-    <t>SA003617670102</t>
-  </si>
-  <si>
-    <t>CLX3019SA00361767</t>
-  </si>
-  <si>
-    <t>GCNU1320402</t>
-  </si>
-  <si>
-    <t>YORKTOWN EXPRESS</t>
-  </si>
-  <si>
-    <t>YTX3119</t>
-  </si>
-  <si>
-    <t>SA003722540101</t>
-  </si>
-  <si>
-    <t>YTX3119SA00372254</t>
-  </si>
-  <si>
-    <t>TGBU2221984</t>
-  </si>
-  <si>
-    <t>MAX SCHULTE</t>
-  </si>
-  <si>
-    <t>1913N</t>
-  </si>
-  <si>
-    <t>9073905946-01</t>
-  </si>
-  <si>
-    <t>HLCUSJ2190408388</t>
-  </si>
-  <si>
-    <t>FBLU0107012</t>
-  </si>
-  <si>
-    <t>9073905160-01</t>
-  </si>
-  <si>
-    <t>HLCUEUR190355094</t>
-  </si>
-  <si>
-    <t>TCLU5965072</t>
-  </si>
-  <si>
-    <t>9073905546-01</t>
-  </si>
-  <si>
-    <t>HLCUEUR190355295</t>
-  </si>
-  <si>
-    <t>NYKU3716889</t>
-  </si>
-  <si>
-    <t>CHI1207071-CHI8039276</t>
-  </si>
-  <si>
-    <t>HAMV37431400</t>
-  </si>
-  <si>
-    <t>UACU5333953</t>
-  </si>
-  <si>
     <t>9074905209-01</t>
   </si>
   <si>
     <t>HLCULE1190410182</t>
   </si>
   <si>
-    <t>TCLU8577661</t>
-  </si>
-  <si>
-    <t>9073905648-01</t>
-  </si>
-  <si>
-    <t>ACLUSA00370805</t>
-  </si>
-  <si>
-    <t>TCNU8845355</t>
-  </si>
-  <si>
-    <t>9073905543-01</t>
+    <t>CCLU5145138</t>
+  </si>
+  <si>
+    <t>COSCO ISTANBUL</t>
+  </si>
+  <si>
+    <t>036E</t>
+  </si>
+  <si>
+    <t>9075905677-01</t>
+  </si>
+  <si>
+    <t>COSU6180969450</t>
+  </si>
+  <si>
+    <t>NYKU5126773</t>
+  </si>
+  <si>
+    <t>CHI1232082-CHI8401440</t>
+  </si>
+  <si>
+    <t>CCLU5230055</t>
+  </si>
+  <si>
+    <t>9075905681-01</t>
+  </si>
+  <si>
+    <t>COSU6180969440</t>
+  </si>
+  <si>
+    <t>TRHU1920996</t>
+  </si>
+  <si>
+    <t>CHI1219149-CHI8141531</t>
+  </si>
+  <si>
+    <t>MOAU0788652</t>
+  </si>
+  <si>
+    <t>CHI1224131-CHI8141538</t>
+  </si>
+  <si>
+    <t>TCLU3419149</t>
+  </si>
+  <si>
+    <t>CHI1224155-CHI8141523</t>
+  </si>
+  <si>
+    <t>HAMV26561600</t>
+  </si>
+  <si>
+    <t>NYKU3337231</t>
+  </si>
+  <si>
+    <t>CHI1224155-CHI8141524</t>
+  </si>
+  <si>
+    <t>SEGU4015796</t>
+  </si>
+  <si>
+    <t>SA003680520101</t>
+  </si>
+  <si>
+    <t>SLX3219SA00368052</t>
+  </si>
+  <si>
+    <t>TCKU2358210</t>
+  </si>
+  <si>
+    <t>CHI1223950-CHI8141518</t>
+  </si>
+  <si>
+    <t>HAMV26656400</t>
   </si>
   <si>
     <t>NYKU9755780</t>
@@ -734,6 +452,48 @@
     <t>HAMV30585700</t>
   </si>
   <si>
+    <t>TCNU7084204</t>
+  </si>
+  <si>
+    <t>119W</t>
+  </si>
+  <si>
+    <t>9075905773-01</t>
+  </si>
+  <si>
+    <t>HLCUHAM190333079</t>
+  </si>
+  <si>
+    <t>TCLU7038074</t>
+  </si>
+  <si>
+    <t>9074905831-01</t>
+  </si>
+  <si>
+    <t>HLCUMA3190315260</t>
+  </si>
+  <si>
+    <t>MOAU5830565</t>
+  </si>
+  <si>
+    <t>CHI1224131-CHI8141539</t>
+  </si>
+  <si>
+    <t>BEAU4492082</t>
+  </si>
+  <si>
+    <t>9075905057-01</t>
+  </si>
+  <si>
+    <t>YMLUT710502324</t>
+  </si>
+  <si>
+    <t>TCLU7280175</t>
+  </si>
+  <si>
+    <t>CHI1223963-CHI8141544</t>
+  </si>
+  <si>
     <t>NYKU4330611</t>
   </si>
   <si>
@@ -743,6 +503,21 @@
     <t>LIVV16986700</t>
   </si>
   <si>
+    <t>TCKU1466150</t>
+  </si>
+  <si>
+    <t>CHI1215573-CHI8251297</t>
+  </si>
+  <si>
+    <t>LEHV11083400</t>
+  </si>
+  <si>
+    <t>BMOU6203898</t>
+  </si>
+  <si>
+    <t>9075905056-01</t>
+  </si>
+  <si>
     <t>GESU6357432</t>
   </si>
   <si>
@@ -758,6 +533,48 @@
     <t>PDX3119SA00370445</t>
   </si>
   <si>
+    <t>FCIU6301402</t>
+  </si>
+  <si>
+    <t>VIRGINIA TRADER</t>
+  </si>
+  <si>
+    <t>1914N</t>
+  </si>
+  <si>
+    <t>9075905487-01</t>
+  </si>
+  <si>
+    <t>HLCUSJ2190411129</t>
+  </si>
+  <si>
+    <t>NYKU3594543</t>
+  </si>
+  <si>
+    <t>CHI1215573-CHI8251298</t>
+  </si>
+  <si>
+    <t>MOAU1407154</t>
+  </si>
+  <si>
+    <t>CHI1215573-CHI8251296</t>
+  </si>
+  <si>
+    <t>TCLU2026960</t>
+  </si>
+  <si>
+    <t>CHI1215573-CHI8251299</t>
+  </si>
+  <si>
+    <t>NYKU4245377</t>
+  </si>
+  <si>
+    <t>CHI1232540-CHI8141546</t>
+  </si>
+  <si>
+    <t>LEHV09751600</t>
+  </si>
+  <si>
     <t>NYKU3711341</t>
   </si>
   <si>
@@ -773,6 +590,39 @@
     <t>GOTV02708400</t>
   </si>
   <si>
+    <t>ZCSU8837903</t>
+  </si>
+  <si>
+    <t>E.R. LONDON</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>9075905065-01</t>
+  </si>
+  <si>
+    <t>ZIMUIZM19998457.</t>
+  </si>
+  <si>
+    <t>KKTU7923229</t>
+  </si>
+  <si>
+    <t>CHI1223963-CHI8141543</t>
+  </si>
+  <si>
+    <t>TCLU1189134</t>
+  </si>
+  <si>
+    <t>MY NY</t>
+  </si>
+  <si>
+    <t>9075905483-01</t>
+  </si>
+  <si>
+    <t>HLCULE1190419260</t>
+  </si>
+  <si>
     <t>GCNU1301790</t>
   </si>
   <si>
@@ -785,6 +635,33 @@
     <t>PDX3119SA00373933</t>
   </si>
   <si>
+    <t>CAIU8480253</t>
+  </si>
+  <si>
+    <t>CHI1232082-CHI8401441</t>
+  </si>
+  <si>
+    <t>NYKU4411230</t>
+  </si>
+  <si>
+    <t>CHI1232082-CHI8401437</t>
+  </si>
+  <si>
+    <t>RFCU4046915</t>
+  </si>
+  <si>
+    <t>9074905638-01</t>
+  </si>
+  <si>
+    <t>COSU6207256870</t>
+  </si>
+  <si>
+    <t>TGHU5049248</t>
+  </si>
+  <si>
+    <t>CHI1232082-CHI8401444</t>
+  </si>
+  <si>
     <t>TCLU9341897</t>
   </si>
   <si>
@@ -794,6 +671,15 @@
     <t>LEHV11181300</t>
   </si>
   <si>
+    <t>BEAU4619958</t>
+  </si>
+  <si>
+    <t>9075905684-01</t>
+  </si>
+  <si>
+    <t>ONEYHAMV36799600</t>
+  </si>
+  <si>
     <t>TCLU7617414</t>
   </si>
   <si>
@@ -803,13 +689,85 @@
     <t>YMLUT800079087</t>
   </si>
   <si>
-    <t>UETU4112910</t>
-  </si>
-  <si>
-    <t>CHI1197083-CHI8136514</t>
-  </si>
-  <si>
-    <t>LIVV15487900</t>
+    <t>ZMOU8820465</t>
+  </si>
+  <si>
+    <t>VENETIKO</t>
+  </si>
+  <si>
+    <t>14W</t>
+  </si>
+  <si>
+    <t>9075905130-01</t>
+  </si>
+  <si>
+    <t>ZIMUGOA419101</t>
+  </si>
+  <si>
+    <t>XINU8154575</t>
+  </si>
+  <si>
+    <t>CHI1227891-CHI8373636</t>
+  </si>
+  <si>
+    <t>GOTV02836600</t>
+  </si>
+  <si>
+    <t>TCKU1709033</t>
+  </si>
+  <si>
+    <t>CHI1224131-CHI8141540</t>
+  </si>
+  <si>
+    <t>TRHU3212851</t>
+  </si>
+  <si>
+    <t>CHI1224155-CHI8141528</t>
+  </si>
+  <si>
+    <t>TRHU1932868</t>
+  </si>
+  <si>
+    <t>CHI1219149-CHI8141534</t>
+  </si>
+  <si>
+    <t>CCLU4901014</t>
+  </si>
+  <si>
+    <t>9075905679-01</t>
+  </si>
+  <si>
+    <t>MOAU0794110</t>
+  </si>
+  <si>
+    <t>CHI1223950-CHI8141519</t>
+  </si>
+  <si>
+    <t>DRYU4133684</t>
+  </si>
+  <si>
+    <t>CHI1227144-CHI8368648</t>
+  </si>
+  <si>
+    <t>LIVV28038500</t>
+  </si>
+  <si>
+    <t>TRLU9472725</t>
+  </si>
+  <si>
+    <t>CHI1232082-CHI8401445</t>
+  </si>
+  <si>
+    <t>TCNU4875351</t>
+  </si>
+  <si>
+    <t>CHI1232082-CHI8401439</t>
+  </si>
+  <si>
+    <t>OOCU4856510</t>
+  </si>
+  <si>
+    <t>9075905680-01</t>
   </si>
   <si>
     <t>TCLU4674405</t>
@@ -830,34 +788,115 @@
     <t>LIVV13106900</t>
   </si>
   <si>
-    <t>TRLU9722531</t>
-  </si>
-  <si>
-    <t>CHI1197842-CHI8141468</t>
-  </si>
-  <si>
-    <t>HAMV30592500</t>
-  </si>
-  <si>
-    <t>HLXU6304091</t>
-  </si>
-  <si>
-    <t>9073905545-01</t>
-  </si>
-  <si>
-    <t>NYKU3616658</t>
-  </si>
-  <si>
-    <t>MSC BARCELONA</t>
-  </si>
-  <si>
-    <t>0910</t>
-  </si>
-  <si>
-    <t>CHI1197856-CHI8141508</t>
-  </si>
-  <si>
-    <t>SAOV09786800</t>
+    <t>TRLU9685530</t>
+  </si>
+  <si>
+    <t>CHI1224155-CHI8141527</t>
+  </si>
+  <si>
+    <t>TRHU2365861</t>
+  </si>
+  <si>
+    <t>CHI1223950-CHI8141520</t>
+  </si>
+  <si>
+    <t>TCKU1353549</t>
+  </si>
+  <si>
+    <t>CHI1223963-CHI8141545</t>
+  </si>
+  <si>
+    <t>MOFU0777710</t>
+  </si>
+  <si>
+    <t>CHI1232082-CHI8401448</t>
+  </si>
+  <si>
+    <t>TCNU3078610</t>
+  </si>
+  <si>
+    <t>CHI1232082-CHI8401436</t>
+  </si>
+  <si>
+    <t>TRHU2663465</t>
+  </si>
+  <si>
+    <t>CHI1223950-CHI8141522</t>
+  </si>
+  <si>
+    <t>MOAU0771109</t>
+  </si>
+  <si>
+    <t>CHI1223950-CHI8141521</t>
+  </si>
+  <si>
+    <t>BMOU2150357</t>
+  </si>
+  <si>
+    <t>SA003763260101</t>
+  </si>
+  <si>
+    <t>SLX3219SA00376326</t>
+  </si>
+  <si>
+    <t>FDCU0505538</t>
+  </si>
+  <si>
+    <t>CHI1232082-CHI8401449</t>
+  </si>
+  <si>
+    <t>TCLU5244564</t>
+  </si>
+  <si>
+    <t>CHI1232082-CHI8401446</t>
+  </si>
+  <si>
+    <t>NYKU4164974</t>
+  </si>
+  <si>
+    <t>CHI1232082-CHI8401447</t>
+  </si>
+  <si>
+    <t>TCKU1546595</t>
+  </si>
+  <si>
+    <t>CHI1219149-CHI8141533</t>
+  </si>
+  <si>
+    <t>LNXU9658271</t>
+  </si>
+  <si>
+    <t>9075905484-01</t>
+  </si>
+  <si>
+    <t>TTNU4067309</t>
+  </si>
+  <si>
+    <t>CHI1232082-CHI8401443</t>
+  </si>
+  <si>
+    <t>KKTU7952340</t>
+  </si>
+  <si>
+    <t>CHI1232083-CHI8401442</t>
+  </si>
+  <si>
+    <t>LIVV29069300</t>
+  </si>
+  <si>
+    <t>TEMU7673138</t>
+  </si>
+  <si>
+    <t>9075905055-01</t>
+  </si>
+  <si>
+    <t>TCNU1889428</t>
+  </si>
+  <si>
+    <t>9074905599-01</t>
+  </si>
+  <si>
+    <t>YMLUT936034004</t>
   </si>
   <si>
     <t>UACU4755851</t>
@@ -869,28 +908,73 @@
     <t>HLCULE1190410774</t>
   </si>
   <si>
-    <t>UACU5630381</t>
-  </si>
-  <si>
-    <t>121W</t>
-  </si>
-  <si>
-    <t>9073905173-01</t>
-  </si>
-  <si>
-    <t>HLCUEUR1903BCLI5</t>
-  </si>
-  <si>
-    <t>HLBU1870587</t>
-  </si>
-  <si>
-    <t>9073905159-01</t>
-  </si>
-  <si>
-    <t>UACU5083520</t>
-  </si>
-  <si>
-    <t>9073905161-01</t>
+    <t>TGBU6455928</t>
+  </si>
+  <si>
+    <t>9074905598-01</t>
+  </si>
+  <si>
+    <t>TGBU6151479</t>
+  </si>
+  <si>
+    <t>9074905619-01</t>
+  </si>
+  <si>
+    <t>YMLUT936033979</t>
+  </si>
+  <si>
+    <t>HJMU2133319</t>
+  </si>
+  <si>
+    <t>CHI1224155-CHI8141526</t>
+  </si>
+  <si>
+    <t>TCLU4524030</t>
+  </si>
+  <si>
+    <t>CHI1232958-CHI8141547</t>
+  </si>
+  <si>
+    <t>ANRV10399300</t>
+  </si>
+  <si>
+    <t>TGBU5561972</t>
+  </si>
+  <si>
+    <t>9074905617-01</t>
+  </si>
+  <si>
+    <t>MOAU0790412</t>
+  </si>
+  <si>
+    <t>CHI1219149-CHI8141532</t>
+  </si>
+  <si>
+    <t>NYKU3430616</t>
+  </si>
+  <si>
+    <t>CHI1232883-CHI8141554</t>
+  </si>
+  <si>
+    <t>LIVV19836400</t>
+  </si>
+  <si>
+    <t>MOFU5825787</t>
+  </si>
+  <si>
+    <t>CHI1232958-CHI8141550</t>
+  </si>
+  <si>
+    <t>TCNU5240904</t>
+  </si>
+  <si>
+    <t>CHI1232960-CHI8141548</t>
+  </si>
+  <si>
+    <t>CBHU6369702</t>
+  </si>
+  <si>
+    <t>9075905678-01</t>
   </si>
   <si>
     <t>GIPU4408291</t>
@@ -900,6 +984,21 @@
   </si>
   <si>
     <t>LIVV24603600</t>
+  </si>
+  <si>
+    <t>BSIU3122714</t>
+  </si>
+  <si>
+    <t>CHI1232954-CHI8141551</t>
+  </si>
+  <si>
+    <t>GOTV02913900</t>
+  </si>
+  <si>
+    <t>NYKU9733970</t>
+  </si>
+  <si>
+    <t>CHI1224155-CHI8141525</t>
   </si>
 </sst>
 </file>
@@ -944,7 +1043,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:G117"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -993,46 +1092,46 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E3"/>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E4"/>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
@@ -1047,1781 +1146,2015 @@
         <v>24</v>
       </c>
       <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
         <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>27</v>
       </c>
       <c r="E6"/>
       <c r="F6" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E7"/>
       <c r="F7" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E8"/>
       <c r="F8" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E9"/>
       <c r="F9" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="E10"/>
       <c r="F10" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="E11"/>
       <c r="F11" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D12" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="E12"/>
       <c r="F12" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="B13" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C13" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="D13" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="E13"/>
       <c r="F13" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="D14" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="E14"/>
       <c r="F14" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D15" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E15"/>
       <c r="F15" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D16" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="E16"/>
       <c r="F16" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D17" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="E17"/>
       <c r="F17" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D18" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="E18"/>
       <c r="F18" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D19" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="E19"/>
       <c r="F19" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="C20" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="D20" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E20"/>
       <c r="F20" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B21" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C21" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D21" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E21"/>
       <c r="F21" t="s">
-        <v>31</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B22" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C22" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D22" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E22"/>
       <c r="F22" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B23" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C23" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D23" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E23"/>
       <c r="F23" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D24" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E24"/>
       <c r="F24" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="C25" t="s">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="D25" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E25"/>
       <c r="F25" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="D26" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E26"/>
       <c r="F26" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
+        <v>82</v>
+      </c>
+      <c r="B27" t="s">
+        <v>83</v>
+      </c>
+      <c r="C27" t="s">
+        <v>84</v>
+      </c>
+      <c r="D27" t="s">
         <v>85</v>
-      </c>
-      <c r="B27" t="s">
-        <v>44</v>
-      </c>
-      <c r="C27" t="s">
-        <v>45</v>
-      </c>
-      <c r="D27" t="s">
-        <v>86</v>
       </c>
       <c r="E27"/>
       <c r="F27" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>87</v>
+      </c>
+      <c r="B28" t="s">
         <v>88</v>
       </c>
-      <c r="B28" t="s">
-        <v>44</v>
-      </c>
       <c r="C28" t="s">
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="D28" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E28"/>
       <c r="F28" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B29" t="s">
-        <v>44</v>
+        <v>93</v>
       </c>
       <c r="C29" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="D29" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E29"/>
       <c r="F29" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B30" t="s">
-        <v>44</v>
+        <v>93</v>
       </c>
       <c r="C30" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="D30" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E30"/>
       <c r="F30" t="s">
-        <v>47</v>
+        <v>98</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B31" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="C31" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="D31" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="E31"/>
       <c r="F31" t="s">
-        <v>47</v>
+        <v>101</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="B32" t="s">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="C32" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="D32" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="E32"/>
       <c r="F32" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="B33" t="s">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="C33" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="D33" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="E33"/>
       <c r="F33" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="B34" t="s">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="C34" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="D34" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="E34"/>
       <c r="F34" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B35" t="s">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="C35" t="s">
-        <v>21</v>
+        <v>111</v>
       </c>
       <c r="D35" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="E35"/>
       <c r="F35" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="B36" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C36" t="s">
-        <v>21</v>
+        <v>115</v>
       </c>
       <c r="D36" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="E36"/>
       <c r="F36" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="B37" t="s">
-        <v>44</v>
+        <v>119</v>
       </c>
       <c r="C37" t="s">
-        <v>45</v>
+        <v>120</v>
       </c>
       <c r="D37" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="E37"/>
       <c r="F37" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="B38" t="s">
-        <v>25</v>
+        <v>88</v>
       </c>
       <c r="C38" t="s">
-        <v>26</v>
+        <v>89</v>
       </c>
       <c r="D38" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="E38"/>
       <c r="F38" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="B39" t="s">
-        <v>44</v>
+        <v>119</v>
       </c>
       <c r="C39" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="D39" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="E39"/>
       <c r="F39" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="B40" t="s">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="C40" t="s">
-        <v>118</v>
+        <v>8</v>
       </c>
       <c r="D40" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="E40"/>
       <c r="F40" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="B41" t="s">
-        <v>15</v>
+        <v>93</v>
       </c>
       <c r="C41" t="s">
-        <v>122</v>
+        <v>8</v>
       </c>
       <c r="D41" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="E41"/>
       <c r="F41" t="s">
-        <v>124</v>
+        <v>95</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="B42" t="s">
-        <v>25</v>
+        <v>93</v>
       </c>
       <c r="C42" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="D42" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="E42"/>
       <c r="F42" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="B43" t="s">
-        <v>25</v>
+        <v>93</v>
       </c>
       <c r="C43" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="D43" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="E43"/>
       <c r="F43" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="B44" t="s">
-        <v>25</v>
+        <v>110</v>
       </c>
       <c r="C44" t="s">
-        <v>26</v>
+        <v>111</v>
       </c>
       <c r="D44" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="E44"/>
       <c r="F44" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="B45" t="s">
-        <v>25</v>
+        <v>93</v>
       </c>
       <c r="C45" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="D45" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E45"/>
       <c r="F45" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="B46" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C46" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D46" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="E46"/>
       <c r="F46" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="B47" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="C47" t="s">
-        <v>114</v>
+        <v>147</v>
       </c>
       <c r="D47" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="E47"/>
       <c r="F47" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="B48" t="s">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="C48" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D48" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E48"/>
       <c r="F48" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="B49" t="s">
-        <v>44</v>
+        <v>93</v>
       </c>
       <c r="C49" t="s">
-        <v>114</v>
+        <v>8</v>
       </c>
       <c r="D49" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="E49"/>
       <c r="F49" t="s">
-        <v>144</v>
+        <v>95</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="B50" t="s">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="C50" t="s">
-        <v>114</v>
+        <v>42</v>
       </c>
       <c r="D50" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="E50"/>
       <c r="F50" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="B51" t="s">
-        <v>44</v>
+        <v>93</v>
       </c>
       <c r="C51" t="s">
-        <v>114</v>
+        <v>8</v>
       </c>
       <c r="D51" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="E51"/>
       <c r="F51" t="s">
-        <v>139</v>
+        <v>98</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="B52" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="C52" t="s">
-        <v>114</v>
+        <v>13</v>
       </c>
       <c r="D52" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="E52"/>
       <c r="F52" t="s">
-        <v>139</v>
+        <v>162</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="B53" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="C53" t="s">
-        <v>114</v>
+        <v>18</v>
       </c>
       <c r="D53" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="E53"/>
       <c r="F53" t="s">
-        <v>139</v>
+        <v>165</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="B54" t="s">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="C54" t="s">
-        <v>114</v>
+        <v>42</v>
       </c>
       <c r="D54" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="E54"/>
       <c r="F54" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="B55" t="s">
-        <v>44</v>
+        <v>169</v>
       </c>
       <c r="C55" t="s">
-        <v>114</v>
+        <v>170</v>
       </c>
       <c r="D55" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="E55"/>
       <c r="F55" t="s">
-        <v>139</v>
+        <v>172</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="B56" t="s">
-        <v>25</v>
+        <v>174</v>
       </c>
       <c r="C56" t="s">
-        <v>26</v>
+        <v>175</v>
       </c>
       <c r="D56" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="E56"/>
       <c r="F56" t="s">
-        <v>58</v>
+        <v>177</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="B57" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C57" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D57" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="E57"/>
       <c r="F57" t="s">
-        <v>31</v>
+        <v>165</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="B58" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C58" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D58" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="E58"/>
       <c r="F58" t="s">
-        <v>31</v>
+        <v>165</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="B59" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C59" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D59" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="E59"/>
       <c r="F59" t="s">
-        <v>127</v>
+        <v>165</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="B60" t="s">
-        <v>25</v>
+        <v>93</v>
       </c>
       <c r="C60" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="D60" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="E60"/>
       <c r="F60" t="s">
-        <v>127</v>
+        <v>186</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
       <c r="B61" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C61" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D61" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
       <c r="E61"/>
       <c r="F61" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="B62" t="s">
-        <v>170</v>
+        <v>17</v>
       </c>
       <c r="C62" t="s">
-        <v>171</v>
+        <v>18</v>
       </c>
       <c r="D62" t="s">
-        <v>172</v>
+        <v>190</v>
       </c>
       <c r="E62"/>
       <c r="F62" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="B63" t="s">
-        <v>20</v>
+        <v>193</v>
       </c>
       <c r="C63" t="s">
-        <v>21</v>
+        <v>194</v>
       </c>
       <c r="D63" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="E63"/>
       <c r="F63" t="s">
-        <v>102</v>
+        <v>196</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>176</v>
+        <v>197</v>
       </c>
       <c r="B64" t="s">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="C64" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="D64" t="s">
-        <v>177</v>
+        <v>198</v>
       </c>
       <c r="E64"/>
       <c r="F64" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>178</v>
+        <v>199</v>
       </c>
       <c r="B65" t="s">
-        <v>25</v>
+        <v>200</v>
       </c>
       <c r="C65" t="s">
-        <v>26</v>
+        <v>115</v>
       </c>
       <c r="D65" t="s">
-        <v>179</v>
+        <v>201</v>
       </c>
       <c r="E65"/>
       <c r="F65" t="s">
-        <v>58</v>
+        <v>202</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>180</v>
+        <v>203</v>
       </c>
       <c r="B66" t="s">
-        <v>25</v>
+        <v>204</v>
       </c>
       <c r="C66" t="s">
-        <v>26</v>
+        <v>170</v>
       </c>
       <c r="D66" t="s">
-        <v>181</v>
+        <v>205</v>
       </c>
       <c r="E66"/>
       <c r="F66" t="s">
-        <v>28</v>
+        <v>206</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>182</v>
+        <v>207</v>
       </c>
       <c r="B67" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="C67" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="D67" t="s">
-        <v>183</v>
+        <v>208</v>
       </c>
       <c r="E67"/>
       <c r="F67" t="s">
-        <v>139</v>
+        <v>91</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>184</v>
+        <v>209</v>
       </c>
       <c r="B68" t="s">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="C68" t="s">
-        <v>21</v>
+        <v>89</v>
       </c>
       <c r="D68" t="s">
-        <v>185</v>
+        <v>210</v>
       </c>
       <c r="E68"/>
       <c r="F68" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="B69" t="s">
-        <v>20</v>
+        <v>119</v>
       </c>
       <c r="C69" t="s">
-        <v>21</v>
+        <v>120</v>
       </c>
       <c r="D69" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="E69"/>
       <c r="F69" t="s">
-        <v>102</v>
+        <v>213</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>188</v>
+        <v>214</v>
       </c>
       <c r="B70" t="s">
-        <v>25</v>
+        <v>88</v>
       </c>
       <c r="C70" t="s">
-        <v>26</v>
+        <v>89</v>
       </c>
       <c r="D70" t="s">
-        <v>189</v>
+        <v>215</v>
       </c>
       <c r="E70"/>
       <c r="F70" t="s">
-        <v>127</v>
+        <v>91</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>190</v>
+        <v>216</v>
       </c>
       <c r="B71" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="C71" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="D71" t="s">
-        <v>191</v>
+        <v>217</v>
       </c>
       <c r="E71"/>
       <c r="F71" t="s">
-        <v>127</v>
+        <v>218</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>192</v>
+        <v>219</v>
       </c>
       <c r="B72" t="s">
-        <v>44</v>
+        <v>93</v>
       </c>
       <c r="C72" t="s">
-        <v>114</v>
+        <v>8</v>
       </c>
       <c r="D72" t="s">
-        <v>193</v>
+        <v>220</v>
       </c>
       <c r="E72"/>
       <c r="F72" t="s">
-        <v>144</v>
+        <v>221</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>194</v>
+        <v>222</v>
       </c>
       <c r="B73" t="s">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="C73" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D73" t="s">
-        <v>195</v>
+        <v>223</v>
       </c>
       <c r="E73"/>
       <c r="F73" t="s">
-        <v>196</v>
+        <v>224</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>197</v>
+        <v>225</v>
       </c>
       <c r="B74" t="s">
-        <v>20</v>
+        <v>226</v>
       </c>
       <c r="C74" t="s">
-        <v>21</v>
+        <v>227</v>
       </c>
       <c r="D74" t="s">
-        <v>198</v>
+        <v>228</v>
       </c>
       <c r="E74"/>
       <c r="F74" t="s">
-        <v>102</v>
+        <v>229</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>199</v>
+        <v>230</v>
       </c>
       <c r="B75" t="s">
-        <v>170</v>
+        <v>93</v>
       </c>
       <c r="C75" t="s">
-        <v>171</v>
+        <v>8</v>
       </c>
       <c r="D75" t="s">
-        <v>200</v>
+        <v>231</v>
       </c>
       <c r="E75"/>
       <c r="F75" t="s">
-        <v>201</v>
+        <v>232</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>202</v>
+        <v>233</v>
       </c>
       <c r="B76" t="s">
-        <v>203</v>
+        <v>93</v>
       </c>
       <c r="C76" t="s">
-        <v>204</v>
+        <v>8</v>
       </c>
       <c r="D76" t="s">
-        <v>205</v>
+        <v>234</v>
       </c>
       <c r="E76"/>
       <c r="F76" t="s">
-        <v>206</v>
+        <v>95</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>207</v>
+        <v>235</v>
       </c>
       <c r="B77" t="s">
-        <v>170</v>
+        <v>93</v>
       </c>
       <c r="C77" t="s">
-        <v>171</v>
+        <v>8</v>
       </c>
       <c r="D77" t="s">
-        <v>208</v>
+        <v>236</v>
       </c>
       <c r="E77"/>
       <c r="F77" t="s">
-        <v>209</v>
+        <v>134</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>210</v>
+        <v>237</v>
       </c>
       <c r="B78" t="s">
-        <v>211</v>
+        <v>93</v>
       </c>
       <c r="C78" t="s">
-        <v>212</v>
+        <v>8</v>
       </c>
       <c r="D78" t="s">
-        <v>213</v>
+        <v>238</v>
       </c>
       <c r="E78"/>
       <c r="F78" t="s">
-        <v>214</v>
+        <v>104</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>215</v>
+        <v>239</v>
       </c>
       <c r="B79" t="s">
-        <v>216</v>
+        <v>119</v>
       </c>
       <c r="C79" t="s">
-        <v>217</v>
+        <v>120</v>
       </c>
       <c r="D79" t="s">
-        <v>218</v>
+        <v>240</v>
       </c>
       <c r="E79"/>
       <c r="F79" t="s">
-        <v>219</v>
+        <v>122</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c r="B80" t="s">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="C80" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="D80" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="E80"/>
       <c r="F80" t="s">
-        <v>222</v>
+        <v>142</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>223</v>
+        <v>243</v>
       </c>
       <c r="B81" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="C81" t="s">
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="D81" t="s">
-        <v>224</v>
+        <v>244</v>
       </c>
       <c r="E81"/>
       <c r="F81" t="s">
-        <v>225</v>
+        <v>245</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>226</v>
+        <v>246</v>
       </c>
       <c r="B82" t="s">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="C82" t="s">
-        <v>21</v>
+        <v>89</v>
       </c>
       <c r="D82" t="s">
-        <v>227</v>
+        <v>247</v>
       </c>
       <c r="E82"/>
       <c r="F82" t="s">
-        <v>228</v>
+        <v>91</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="B83" t="s">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="C83" t="s">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="D83" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="E83"/>
       <c r="F83" t="s">
-        <v>231</v>
+        <v>91</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>232</v>
+        <v>250</v>
       </c>
       <c r="B84" t="s">
-        <v>36</v>
+        <v>119</v>
       </c>
       <c r="C84" t="s">
-        <v>37</v>
+        <v>120</v>
       </c>
       <c r="D84" t="s">
-        <v>233</v>
+        <v>251</v>
       </c>
       <c r="E84"/>
       <c r="F84" t="s">
-        <v>234</v>
+        <v>127</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>235</v>
+        <v>252</v>
       </c>
       <c r="B85" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="C85" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="D85" t="s">
-        <v>236</v>
+        <v>253</v>
       </c>
       <c r="E85"/>
       <c r="F85" t="s">
-        <v>225</v>
+        <v>254</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>237</v>
+        <v>255</v>
       </c>
       <c r="B86" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C86" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D86" t="s">
-        <v>238</v>
+        <v>256</v>
       </c>
       <c r="E86"/>
       <c r="F86" t="s">
-        <v>239</v>
+        <v>257</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>240</v>
+        <v>258</v>
       </c>
       <c r="B87" t="s">
-        <v>25</v>
+        <v>93</v>
       </c>
       <c r="C87" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="D87" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="E87"/>
       <c r="F87" t="s">
-        <v>242</v>
+        <v>134</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="B88" t="s">
-        <v>244</v>
+        <v>93</v>
       </c>
       <c r="C88" t="s">
-        <v>245</v>
+        <v>8</v>
       </c>
       <c r="D88" t="s">
-        <v>246</v>
+        <v>261</v>
       </c>
       <c r="E88"/>
       <c r="F88" t="s">
-        <v>247</v>
+        <v>142</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>248</v>
+        <v>262</v>
       </c>
       <c r="B89" t="s">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="C89" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="D89" t="s">
-        <v>249</v>
+        <v>263</v>
       </c>
       <c r="E89"/>
       <c r="F89" t="s">
-        <v>239</v>
+        <v>98</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="B90" t="s">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="C90" t="s">
-        <v>21</v>
+        <v>89</v>
       </c>
       <c r="D90" t="s">
-        <v>251</v>
+        <v>265</v>
       </c>
       <c r="E90"/>
       <c r="F90" t="s">
-        <v>252</v>
+        <v>91</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="B91" t="s">
-        <v>254</v>
+        <v>88</v>
       </c>
       <c r="C91" t="s">
-        <v>245</v>
+        <v>89</v>
       </c>
       <c r="D91" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="E91"/>
       <c r="F91" t="s">
-        <v>256</v>
+        <v>91</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="B92" t="s">
-        <v>44</v>
+        <v>93</v>
       </c>
       <c r="C92" t="s">
-        <v>114</v>
+        <v>8</v>
       </c>
       <c r="D92" t="s">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="E92"/>
       <c r="F92" t="s">
-        <v>259</v>
+        <v>142</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="B93" t="s">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="C93" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="D93" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="E93"/>
       <c r="F93" t="s">
-        <v>262</v>
+        <v>142</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="B94" t="s">
-        <v>25</v>
+        <v>110</v>
       </c>
       <c r="C94" t="s">
-        <v>26</v>
+        <v>111</v>
       </c>
       <c r="D94" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="E94"/>
       <c r="F94" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="B95" t="s">
-        <v>25</v>
+        <v>88</v>
       </c>
       <c r="C95" t="s">
-        <v>26</v>
+        <v>89</v>
       </c>
       <c r="D95" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="E95"/>
       <c r="F95" t="s">
-        <v>268</v>
+        <v>91</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="B96" t="s">
-        <v>25</v>
+        <v>88</v>
       </c>
       <c r="C96" t="s">
-        <v>26</v>
+        <v>89</v>
       </c>
       <c r="D96" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="E96"/>
       <c r="F96" t="s">
-        <v>271</v>
+        <v>91</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="B97" t="s">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="C97" t="s">
-        <v>21</v>
+        <v>89</v>
       </c>
       <c r="D97" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="E97"/>
       <c r="F97" t="s">
-        <v>274</v>
+        <v>91</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="B98" t="s">
-        <v>44</v>
+        <v>93</v>
       </c>
       <c r="C98" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="D98" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="E98"/>
       <c r="F98" t="s">
-        <v>225</v>
+        <v>104</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="B99" t="s">
-        <v>278</v>
+        <v>200</v>
       </c>
       <c r="C99" t="s">
-        <v>279</v>
+        <v>115</v>
       </c>
       <c r="D99" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="E99"/>
       <c r="F99" t="s">
-        <v>281</v>
+        <v>202</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="B100" t="s">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="C100" t="s">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="D100" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="E100"/>
       <c r="F100" t="s">
-        <v>284</v>
+        <v>91</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B101" t="s">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="C101" t="s">
-        <v>286</v>
+        <v>89</v>
       </c>
       <c r="D101" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E101"/>
       <c r="F101" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B102" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="C102" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="D102" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E102"/>
       <c r="F102" t="s">
-        <v>222</v>
+        <v>157</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B103" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="C103" t="s">
-        <v>53</v>
+        <v>115</v>
       </c>
       <c r="D103" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E103"/>
       <c r="F103" t="s">
-        <v>222</v>
+        <v>294</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B104" t="s">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="C104" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D104" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="E104"/>
       <c r="F104" t="s">
-        <v>295</v>
+        <v>297</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>298</v>
+      </c>
+      <c r="B105" t="s">
+        <v>7</v>
+      </c>
+      <c r="C105" t="s">
+        <v>115</v>
+      </c>
+      <c r="D105" t="s">
+        <v>299</v>
+      </c>
+      <c r="E105"/>
+      <c r="F105" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>300</v>
+      </c>
+      <c r="B106" t="s">
+        <v>7</v>
+      </c>
+      <c r="C106" t="s">
+        <v>115</v>
+      </c>
+      <c r="D106" t="s">
+        <v>301</v>
+      </c>
+      <c r="E106"/>
+      <c r="F106" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>303</v>
+      </c>
+      <c r="B107" t="s">
+        <v>93</v>
+      </c>
+      <c r="C107" t="s">
+        <v>8</v>
+      </c>
+      <c r="D107" t="s">
+        <v>304</v>
+      </c>
+      <c r="E107"/>
+      <c r="F107" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>305</v>
+      </c>
+      <c r="B108" t="s">
+        <v>93</v>
+      </c>
+      <c r="C108" t="s">
+        <v>8</v>
+      </c>
+      <c r="D108" t="s">
+        <v>306</v>
+      </c>
+      <c r="E108"/>
+      <c r="F108" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>308</v>
+      </c>
+      <c r="B109" t="s">
+        <v>7</v>
+      </c>
+      <c r="C109" t="s">
+        <v>115</v>
+      </c>
+      <c r="D109" t="s">
+        <v>309</v>
+      </c>
+      <c r="E109"/>
+      <c r="F109" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>310</v>
+      </c>
+      <c r="B110" t="s">
+        <v>93</v>
+      </c>
+      <c r="C110" t="s">
+        <v>8</v>
+      </c>
+      <c r="D110" t="s">
+        <v>311</v>
+      </c>
+      <c r="E110"/>
+      <c r="F110" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>312</v>
+      </c>
+      <c r="B111" t="s">
+        <v>93</v>
+      </c>
+      <c r="C111" t="s">
+        <v>8</v>
+      </c>
+      <c r="D111" t="s">
+        <v>313</v>
+      </c>
+      <c r="E111"/>
+      <c r="F111" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>315</v>
+      </c>
+      <c r="B112" t="s">
+        <v>93</v>
+      </c>
+      <c r="C112" t="s">
+        <v>8</v>
+      </c>
+      <c r="D112" t="s">
+        <v>316</v>
+      </c>
+      <c r="E112"/>
+      <c r="F112" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>317</v>
+      </c>
+      <c r="B113" t="s">
+        <v>93</v>
+      </c>
+      <c r="C113" t="s">
+        <v>8</v>
+      </c>
+      <c r="D113" t="s">
+        <v>318</v>
+      </c>
+      <c r="E113"/>
+      <c r="F113" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>319</v>
+      </c>
+      <c r="B114" t="s">
+        <v>119</v>
+      </c>
+      <c r="C114" t="s">
+        <v>120</v>
+      </c>
+      <c r="D114" t="s">
+        <v>320</v>
+      </c>
+      <c r="E114"/>
+      <c r="F114" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>321</v>
+      </c>
+      <c r="B115" t="s">
+        <v>41</v>
+      </c>
+      <c r="C115" t="s">
+        <v>42</v>
+      </c>
+      <c r="D115" t="s">
+        <v>322</v>
+      </c>
+      <c r="E115"/>
+      <c r="F115" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>324</v>
+      </c>
+      <c r="B116" t="s">
+        <v>93</v>
+      </c>
+      <c r="C116" t="s">
+        <v>8</v>
+      </c>
+      <c r="D116" t="s">
+        <v>325</v>
+      </c>
+      <c r="E116"/>
+      <c r="F116" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>327</v>
+      </c>
+      <c r="B117" t="s">
+        <v>93</v>
+      </c>
+      <c r="C117" t="s">
+        <v>8</v>
+      </c>
+      <c r="D117" t="s">
+        <v>328</v>
+      </c>
+      <c r="E117"/>
+      <c r="F117" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>

--- a/BarboursHOU/Test.xlsx
+++ b/BarboursHOU/Test.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="356">
   <si>
     <t>Equipment Number</t>
   </si>
@@ -67,6 +67,1026 @@
   </si>
   <si>
     <t>COSU6180969440</t>
+  </si>
+  <si>
+    <t>GOTV02836600</t>
+  </si>
+  <si>
+    <t>CHI1227891-CHI8373636</t>
+  </si>
+  <si>
+    <t>0010</t>
+  </si>
+  <si>
+    <t>AEGIALI</t>
+  </si>
+  <si>
+    <t>XINU8154575</t>
+  </si>
+  <si>
+    <t>LIVV28038500</t>
+  </si>
+  <si>
+    <t>CHI1227144-CHI8368648</t>
+  </si>
+  <si>
+    <t>0119</t>
+  </si>
+  <si>
+    <t>WASHINGTON EXPRESS</t>
+  </si>
+  <si>
+    <t>DRYU4133684</t>
+  </si>
+  <si>
+    <t>HAMV29625300</t>
+  </si>
+  <si>
+    <t>CHI1219149-CHI8141532</t>
+  </si>
+  <si>
+    <t>MOAU0790412</t>
+  </si>
+  <si>
+    <t>9075905681-01</t>
+  </si>
+  <si>
+    <t>CCLU5230055</t>
+  </si>
+  <si>
+    <t>YMLUT936033979</t>
+  </si>
+  <si>
+    <t>9074905619-01</t>
+  </si>
+  <si>
+    <t>010W</t>
+  </si>
+  <si>
+    <t>GENOA</t>
+  </si>
+  <si>
+    <t>TGBU6151479</t>
+  </si>
+  <si>
+    <t>YMLUT936034004</t>
+  </si>
+  <si>
+    <t>9074905598-01</t>
+  </si>
+  <si>
+    <t>TGBU6455928</t>
+  </si>
+  <si>
+    <t>SLX3219SA00368052</t>
+  </si>
+  <si>
+    <t>SA003680520101</t>
+  </si>
+  <si>
+    <t>SEGU4015796</t>
+  </si>
+  <si>
+    <t>COSU6207256870</t>
+  </si>
+  <si>
+    <t>9074905638-01</t>
+  </si>
+  <si>
+    <t>RFCU4046915</t>
+  </si>
+  <si>
+    <t>HAMV33154900</t>
+  </si>
+  <si>
+    <t>CHI1235746-CHI8431309</t>
+  </si>
+  <si>
+    <t>TRHU3899223</t>
+  </si>
+  <si>
+    <t>LIVV24603600</t>
+  </si>
+  <si>
+    <t>CHI1211205-CHI8141497</t>
+  </si>
+  <si>
+    <t>0063</t>
+  </si>
+  <si>
+    <t>PHILADELPHIA EXPRESS</t>
+  </si>
+  <si>
+    <t>GIPU4408291</t>
+  </si>
+  <si>
+    <t>HAMV31091700</t>
+  </si>
+  <si>
+    <t>CHI1224131-CHI8141540</t>
+  </si>
+  <si>
+    <t>TCKU1709033</t>
+  </si>
+  <si>
+    <t>HLCULE1190419260</t>
+  </si>
+  <si>
+    <t>9075905483-01</t>
+  </si>
+  <si>
+    <t>MY NY</t>
+  </si>
+  <si>
+    <t>TCLU1189134</t>
+  </si>
+  <si>
+    <t>HAMV35968300</t>
+  </si>
+  <si>
+    <t>CHI1244566-CHI8141578</t>
+  </si>
+  <si>
+    <t>TCLU3792105</t>
+  </si>
+  <si>
+    <t>CHI1244566-CHI8141580</t>
+  </si>
+  <si>
+    <t>NYKU3265194</t>
+  </si>
+  <si>
+    <t>COSU6180969450</t>
+  </si>
+  <si>
+    <t>9075905678-01</t>
+  </si>
+  <si>
+    <t>CBHU6369702</t>
+  </si>
+  <si>
+    <t>HAMV26561600</t>
+  </si>
+  <si>
+    <t>CHI1224155-CHI8141525</t>
+  </si>
+  <si>
+    <t>NYKU9733970</t>
+  </si>
+  <si>
+    <t>HAMV29361700</t>
+  </si>
+  <si>
+    <t>CHI1192061-CHI8101476</t>
+  </si>
+  <si>
+    <t>0122</t>
+  </si>
+  <si>
+    <t>MOL GRATITUDE</t>
+  </si>
+  <si>
+    <t>TRHU3895017</t>
+  </si>
+  <si>
+    <t>HAMV26748600</t>
+  </si>
+  <si>
+    <t>CHI1244479-CHI8141565</t>
+  </si>
+  <si>
+    <t>CAIU2080814</t>
+  </si>
+  <si>
+    <t>YMLUT710502324</t>
+  </si>
+  <si>
+    <t>9075905055-01</t>
+  </si>
+  <si>
+    <t>TEMU7673138</t>
+  </si>
+  <si>
+    <t>CHI1219149-CHI8141533</t>
+  </si>
+  <si>
+    <t>TCKU1546595</t>
+  </si>
+  <si>
+    <t>LEHV11187900</t>
+  </si>
+  <si>
+    <t>CHI1240747-CHI8141556</t>
+  </si>
+  <si>
+    <t>TCNU4904212</t>
+  </si>
+  <si>
+    <t>CHI1224131-CHI8141539</t>
+  </si>
+  <si>
+    <t>MOAU5830565</t>
+  </si>
+  <si>
+    <t>SLX3219SA00374323</t>
+  </si>
+  <si>
+    <t>SA003743230101</t>
+  </si>
+  <si>
+    <t>GCNU1289415</t>
+  </si>
+  <si>
+    <t>HAMV26656400</t>
+  </si>
+  <si>
+    <t>CHI1223950-CHI8141519</t>
+  </si>
+  <si>
+    <t>MOAU0794110</t>
+  </si>
+  <si>
+    <t>CHI1223950-CHI8141521</t>
+  </si>
+  <si>
+    <t>MOAU0771109</t>
+  </si>
+  <si>
+    <t>CHI1223950-CHI8141522</t>
+  </si>
+  <si>
+    <t>TRHU2663465</t>
+  </si>
+  <si>
+    <t>CHI1224155-CHI8141527</t>
+  </si>
+  <si>
+    <t>TRLU9685530</t>
+  </si>
+  <si>
+    <t>HAMV26816900</t>
+  </si>
+  <si>
+    <t>CHI1192005-CHI8101181</t>
+  </si>
+  <si>
+    <t>TCLU3319556</t>
+  </si>
+  <si>
+    <t>COSU6199213870</t>
+  </si>
+  <si>
+    <t>9076905956-01</t>
+  </si>
+  <si>
+    <t>UETU5195777</t>
+  </si>
+  <si>
+    <t>LEHV11083400</t>
+  </si>
+  <si>
+    <t>CHI1215573-CHI8251297</t>
+  </si>
+  <si>
+    <t>0049</t>
+  </si>
+  <si>
+    <t>MOL GLIDE</t>
+  </si>
+  <si>
+    <t>TCKU1466150</t>
+  </si>
+  <si>
+    <t>HLCULE1190410774</t>
+  </si>
+  <si>
+    <t>9073905235-01</t>
+  </si>
+  <si>
+    <t>UACU4755851</t>
+  </si>
+  <si>
+    <t>HAMV34983600</t>
+  </si>
+  <si>
+    <t>CHI1223963-CHI8141544</t>
+  </si>
+  <si>
+    <t>TCLU7280175</t>
+  </si>
+  <si>
+    <t>LEHV09751600</t>
+  </si>
+  <si>
+    <t>CHI1232540-CHI8141546</t>
+  </si>
+  <si>
+    <t>NYKU4245377</t>
+  </si>
+  <si>
+    <t>ANRV10925500</t>
+  </si>
+  <si>
+    <t>CHI1236219-CHI8433195</t>
+  </si>
+  <si>
+    <t>NYKU4830432</t>
+  </si>
+  <si>
+    <t>ZIMUGOA419101</t>
+  </si>
+  <si>
+    <t>9075905130-01</t>
+  </si>
+  <si>
+    <t>14W</t>
+  </si>
+  <si>
+    <t>VENETIKO</t>
+  </si>
+  <si>
+    <t>ZMOU8820465</t>
+  </si>
+  <si>
+    <t>CHI1219149-CHI8141531</t>
+  </si>
+  <si>
+    <t>TRHU1920996</t>
+  </si>
+  <si>
+    <t>CHI1224131-CHI8141537</t>
+  </si>
+  <si>
+    <t>TEMU5144710</t>
+  </si>
+  <si>
+    <t>LIVV27021300</t>
+  </si>
+  <si>
+    <t>CHI1236199-CHI8432790</t>
+  </si>
+  <si>
+    <t>MOAU0673099</t>
+  </si>
+  <si>
+    <t>LIVV24859500</t>
+  </si>
+  <si>
+    <t>CHI1187256-CHI8043557</t>
+  </si>
+  <si>
+    <t>TRHU2310468</t>
+  </si>
+  <si>
+    <t>9075905679-01</t>
+  </si>
+  <si>
+    <t>CCLU4901014</t>
+  </si>
+  <si>
+    <t>CHI1244479-CHI8141564</t>
+  </si>
+  <si>
+    <t>TRHU3127913</t>
+  </si>
+  <si>
+    <t>HAMV26704500</t>
+  </si>
+  <si>
+    <t>CHI1244474-CHI8141574</t>
+  </si>
+  <si>
+    <t>NYKU9802665</t>
+  </si>
+  <si>
+    <t>9075905484-01</t>
+  </si>
+  <si>
+    <t>LNXU9658271</t>
+  </si>
+  <si>
+    <t>LIVV21206900</t>
+  </si>
+  <si>
+    <t>CHI1193240-CHI8109253</t>
+  </si>
+  <si>
+    <t>TLLU6045251</t>
+  </si>
+  <si>
+    <t>YTX3119SA00372254</t>
+  </si>
+  <si>
+    <t>SA003722540101</t>
+  </si>
+  <si>
+    <t>YTX3119</t>
+  </si>
+  <si>
+    <t>YORKTOWN EXPRESS</t>
+  </si>
+  <si>
+    <t>GCNU1320402</t>
+  </si>
+  <si>
+    <t>9075905057-01</t>
+  </si>
+  <si>
+    <t>BEAU4492082</t>
+  </si>
+  <si>
+    <t>HLCULE1190410182</t>
+  </si>
+  <si>
+    <t>9074905209-01</t>
+  </si>
+  <si>
+    <t>UACU5333953</t>
+  </si>
+  <si>
+    <t>HAMV39034500</t>
+  </si>
+  <si>
+    <t>CHI1244602-CHI8141569</t>
+  </si>
+  <si>
+    <t>KKTU8039784</t>
+  </si>
+  <si>
+    <t>HAMV36726300</t>
+  </si>
+  <si>
+    <t>CHI1244598-CHI8141584</t>
+  </si>
+  <si>
+    <t>TRHU3783470</t>
+  </si>
+  <si>
+    <t>HAMV26765500</t>
+  </si>
+  <si>
+    <t>CHI1244554-CHI8141561</t>
+  </si>
+  <si>
+    <t>NYKU3380726</t>
+  </si>
+  <si>
+    <t>HLCUHAM190333079</t>
+  </si>
+  <si>
+    <t>9075905773-01</t>
+  </si>
+  <si>
+    <t>119W</t>
+  </si>
+  <si>
+    <t>TCNU7084204</t>
+  </si>
+  <si>
+    <t>ONEYLIVV23629600</t>
+  </si>
+  <si>
+    <t>711096138</t>
+  </si>
+  <si>
+    <t>DJLRDA4146706</t>
+  </si>
+  <si>
+    <t>00010</t>
+  </si>
+  <si>
+    <t>SEGU5077004</t>
+  </si>
+  <si>
+    <t>HAMV35341900</t>
+  </si>
+  <si>
+    <t>CHI1236200-CHI8432996</t>
+  </si>
+  <si>
+    <t>KKTU7884380</t>
+  </si>
+  <si>
+    <t>ANRV10399300</t>
+  </si>
+  <si>
+    <t>CHI1232960-CHI8141548</t>
+  </si>
+  <si>
+    <t>TCNU5240904</t>
+  </si>
+  <si>
+    <t>CHI1232958-CHI8141550</t>
+  </si>
+  <si>
+    <t>MOFU5825787</t>
+  </si>
+  <si>
+    <t>HAMV30585700</t>
+  </si>
+  <si>
+    <t>CHI1197827-CHI8141422</t>
+  </si>
+  <si>
+    <t>NYKU9755780</t>
+  </si>
+  <si>
+    <t>CHI1223963-CHI8141543</t>
+  </si>
+  <si>
+    <t>KKTU7923229</t>
+  </si>
+  <si>
+    <t>PDX3119SA00373933</t>
+  </si>
+  <si>
+    <t>SA003739330101</t>
+  </si>
+  <si>
+    <t>PDX3119</t>
+  </si>
+  <si>
+    <t>CP YOSEMITE</t>
+  </si>
+  <si>
+    <t>GCNU1301790</t>
+  </si>
+  <si>
+    <t>HAMV27781400</t>
+  </si>
+  <si>
+    <t>CHI1244610-CHI8141590</t>
+  </si>
+  <si>
+    <t>DFSU1024778</t>
+  </si>
+  <si>
+    <t>CHI1244602-CHI8141570</t>
+  </si>
+  <si>
+    <t>KKTU7986042</t>
+  </si>
+  <si>
+    <t>PDX3119SA00370445</t>
+  </si>
+  <si>
+    <t>SA003704450101</t>
+  </si>
+  <si>
+    <t>TMM YUCATAN</t>
+  </si>
+  <si>
+    <t>GESU6357432</t>
+  </si>
+  <si>
+    <t>CHI1244566-CHI8141579</t>
+  </si>
+  <si>
+    <t>SEGU2313929</t>
+  </si>
+  <si>
+    <t>HLCUVIE190414287</t>
+  </si>
+  <si>
+    <t>9076905861-01</t>
+  </si>
+  <si>
+    <t>009W</t>
+  </si>
+  <si>
+    <t>RIO BLACKWATER</t>
+  </si>
+  <si>
+    <t>TCKU2251500</t>
+  </si>
+  <si>
+    <t>CHI1240768-CHI8141549</t>
+  </si>
+  <si>
+    <t>NYKU8412744</t>
+  </si>
+  <si>
+    <t>CHI1224155-CHI8141528</t>
+  </si>
+  <si>
+    <t>TRHU3212851</t>
+  </si>
+  <si>
+    <t>CHI1244566-CHI8141577</t>
+  </si>
+  <si>
+    <t>KKTU7753056</t>
+  </si>
+  <si>
+    <t>CHI1223963-CHI8141542</t>
+  </si>
+  <si>
+    <t>TCLU3487884</t>
+  </si>
+  <si>
+    <t>CHI1235746-CHI8431308</t>
+  </si>
+  <si>
+    <t>TCLU6956141</t>
+  </si>
+  <si>
+    <t>CHI1192061-CHI8101477</t>
+  </si>
+  <si>
+    <t>TCLU2382195</t>
+  </si>
+  <si>
+    <t>CHI1244610-CHI8141592</t>
+  </si>
+  <si>
+    <t>TCKU3465379</t>
+  </si>
+  <si>
+    <t>CHI1244610-CHI8141591</t>
+  </si>
+  <si>
+    <t>NYKU3746796</t>
+  </si>
+  <si>
+    <t>WSX3219SA00375716</t>
+  </si>
+  <si>
+    <t>SA003757160101</t>
+  </si>
+  <si>
+    <t>WSX3219</t>
+  </si>
+  <si>
+    <t>DRYU9620052</t>
+  </si>
+  <si>
+    <t>WSX3219SA00378016</t>
+  </si>
+  <si>
+    <t>SA003780160101</t>
+  </si>
+  <si>
+    <t>GCNU4768622</t>
+  </si>
+  <si>
+    <t>CLX3019SA00369460</t>
+  </si>
+  <si>
+    <t>SA003694600101</t>
+  </si>
+  <si>
+    <t>CLX3019</t>
+  </si>
+  <si>
+    <t>CHARLESTON EXPRESS</t>
+  </si>
+  <si>
+    <t>CICU8040768</t>
+  </si>
+  <si>
+    <t>CLX3019SA00364900</t>
+  </si>
+  <si>
+    <t>SA003649000101</t>
+  </si>
+  <si>
+    <t>GCNU4761649</t>
+  </si>
+  <si>
+    <t>HAMV37431400</t>
+  </si>
+  <si>
+    <t>CHI1207071-CHI8039276</t>
+  </si>
+  <si>
+    <t>NYKU3716889</t>
+  </si>
+  <si>
+    <t>9075905056-01</t>
+  </si>
+  <si>
+    <t>BMOU6203898</t>
+  </si>
+  <si>
+    <t>CHI1215573-CHI8251298</t>
+  </si>
+  <si>
+    <t>NYKU3594543</t>
+  </si>
+  <si>
+    <t>CLX3019SA00361767</t>
+  </si>
+  <si>
+    <t>SA003617670102</t>
+  </si>
+  <si>
+    <t>ACLU9699109</t>
+  </si>
+  <si>
+    <t>CHI1244602-CHI8141568</t>
+  </si>
+  <si>
+    <t>BSIU2468981</t>
+  </si>
+  <si>
+    <t>CHI1244598-CHI8141582</t>
+  </si>
+  <si>
+    <t>SEGU1917014</t>
+  </si>
+  <si>
+    <t>CHI1244598-CHI8141583</t>
+  </si>
+  <si>
+    <t>BMOU2696179</t>
+  </si>
+  <si>
+    <t>CHI1224155-CHI8141524</t>
+  </si>
+  <si>
+    <t>NYKU3337231</t>
+  </si>
+  <si>
+    <t>CHI1224155-CHI8141523</t>
+  </si>
+  <si>
+    <t>TCLU3419149</t>
+  </si>
+  <si>
+    <t>CHI1224131-CHI8141538</t>
+  </si>
+  <si>
+    <t>MOAU0788652</t>
+  </si>
+  <si>
+    <t>CHI1223963-CHI8141545</t>
+  </si>
+  <si>
+    <t>TCKU1353549</t>
+  </si>
+  <si>
+    <t>CHI1223950-CHI8141520</t>
+  </si>
+  <si>
+    <t>TRHU2365861</t>
+  </si>
+  <si>
+    <t>CHI1215573-CHI8251299</t>
+  </si>
+  <si>
+    <t>TCLU2026960</t>
+  </si>
+  <si>
+    <t>CHI1215573-CHI8251296</t>
+  </si>
+  <si>
+    <t>MOAU1407154</t>
+  </si>
+  <si>
+    <t>CHI1244554-CHI8141559</t>
+  </si>
+  <si>
+    <t>TCKU3963746</t>
+  </si>
+  <si>
+    <t>CHI1244474-CHI8141576</t>
+  </si>
+  <si>
+    <t>AKLU6021982</t>
+  </si>
+  <si>
+    <t>CHI1244474-CHI8141573</t>
+  </si>
+  <si>
+    <t>DFSU1054936</t>
+  </si>
+  <si>
+    <t>CHI1244554-CHI8141560</t>
+  </si>
+  <si>
+    <t>TEMU4823229</t>
+  </si>
+  <si>
+    <t>CHI1244479-CHI8141567</t>
+  </si>
+  <si>
+    <t>TRHU3130727</t>
+  </si>
+  <si>
+    <t>CHI1244474-CHI8141572</t>
+  </si>
+  <si>
+    <t>MOAU0632274</t>
+  </si>
+  <si>
+    <t>CHI1244474-CHI8141575</t>
+  </si>
+  <si>
+    <t>NYKU3880418</t>
+  </si>
+  <si>
+    <t>LIVV19830500</t>
+  </si>
+  <si>
+    <t>CHI1236091-CHI8432759</t>
+  </si>
+  <si>
+    <t>NYKU9800390</t>
+  </si>
+  <si>
+    <t>CHI1232958-CHI8141547</t>
+  </si>
+  <si>
+    <t>TCLU4524030</t>
+  </si>
+  <si>
+    <t>HLCUSJ2190411129</t>
+  </si>
+  <si>
+    <t>9075905487-01</t>
+  </si>
+  <si>
+    <t>1914N</t>
+  </si>
+  <si>
+    <t>VIRGINIA TRADER</t>
+  </si>
+  <si>
+    <t>FCIU6301402</t>
+  </si>
+  <si>
+    <t>CHI1219149-CHI8141535</t>
+  </si>
+  <si>
+    <t>FCIU2790347</t>
+  </si>
+  <si>
+    <t>CHI1219149-CHI8141530</t>
+  </si>
+  <si>
+    <t>NYKU3857568</t>
+  </si>
+  <si>
+    <t>CHI1219149-CHI8141536</t>
+  </si>
+  <si>
+    <t>CAIU3216700</t>
+  </si>
+  <si>
+    <t>CHI1224155-CHI8141526</t>
+  </si>
+  <si>
+    <t>HJMU2133319</t>
+  </si>
+  <si>
+    <t>CHI1223950-CHI8141518</t>
+  </si>
+  <si>
+    <t>TCKU2358210</t>
+  </si>
+  <si>
+    <t>9074905617-01</t>
+  </si>
+  <si>
+    <t>TGBU5561972</t>
+  </si>
+  <si>
+    <t>HAMV30498300</t>
+  </si>
+  <si>
+    <t>CHI1192795-CHI8106992</t>
+  </si>
+  <si>
+    <t>TTNU3584919</t>
+  </si>
+  <si>
+    <t>CHI1244554-CHI8141558</t>
+  </si>
+  <si>
+    <t>TCLU3534923</t>
+  </si>
+  <si>
+    <t>CHI1244479-CHI8141566</t>
+  </si>
+  <si>
+    <t>FCIU3947209</t>
+  </si>
+  <si>
+    <t>HLCUMA3190315260</t>
+  </si>
+  <si>
+    <t>9074905831-01</t>
+  </si>
+  <si>
+    <t>TCLU7038074</t>
+  </si>
+  <si>
+    <t>CHI1244610-CHI8141593</t>
+  </si>
+  <si>
+    <t>MOAU5812108</t>
+  </si>
+  <si>
+    <t>CHI1244610-CHI8141589</t>
+  </si>
+  <si>
+    <t>NYKU3724734</t>
+  </si>
+  <si>
+    <t>CHI1244602-CHI8141571</t>
+  </si>
+  <si>
+    <t>NYKU3630928</t>
+  </si>
+  <si>
+    <t>CHI1244598-CHI8141581</t>
+  </si>
+  <si>
+    <t>GLDU9381090</t>
+  </si>
+  <si>
+    <t>WSX3219SA00379404</t>
+  </si>
+  <si>
+    <t>SA003794040101</t>
+  </si>
+  <si>
+    <t>ACLU2779619</t>
+  </si>
+  <si>
+    <t>CHI1197827-CHI8141421</t>
+  </si>
+  <si>
+    <t>NYKU3711341</t>
+  </si>
+  <si>
+    <t>9074905599-01</t>
+  </si>
+  <si>
+    <t>TCNU1889428</t>
+  </si>
+  <si>
+    <t>9075905677-01</t>
+  </si>
+  <si>
+    <t>CCLU5145138</t>
+  </si>
+  <si>
+    <t>LEHV11181300</t>
+  </si>
+  <si>
+    <t>CHI1199794-CHI8141496</t>
+  </si>
+  <si>
+    <t>TCLU9341897</t>
+  </si>
+  <si>
+    <t>CHI1244554-CHI8141562</t>
+  </si>
+  <si>
+    <t>BSIU2620841</t>
+  </si>
+  <si>
+    <t>DJLRDA4146699</t>
+  </si>
+  <si>
+    <t>NYKU8053670</t>
+  </si>
+  <si>
+    <t>CHI1244479-CHI8141563</t>
+  </si>
+  <si>
+    <t>TCKU3974967</t>
+  </si>
+  <si>
+    <t>CHI1192061-CHI8101472</t>
+  </si>
+  <si>
+    <t>KKTU7918813</t>
+  </si>
+  <si>
+    <t>CHI1219149-CHI8141534</t>
+  </si>
+  <si>
+    <t>TRHU1932868</t>
+  </si>
+  <si>
+    <t>HAMV26494400</t>
+  </si>
+  <si>
+    <t>CHI1192702-CHI8105940</t>
+  </si>
+  <si>
+    <t>TRHU2429328</t>
+  </si>
+  <si>
+    <t>HAMV29356400</t>
+  </si>
+  <si>
+    <t>CHI1192800-CHI8107098</t>
+  </si>
+  <si>
+    <t>FCIU4026662</t>
   </si>
 </sst>
 </file>
@@ -384,7 +1404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F128"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A4" sqref="A4:G128"/>
@@ -446,6 +1466,2137 @@
         <v>15</v>
       </c>
     </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>355</v>
+      </c>
+      <c r="B4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D4" t="s">
+        <v>354</v>
+      </c>
+      <c r="F4" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>352</v>
+      </c>
+      <c r="B5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" t="s">
+        <v>351</v>
+      </c>
+      <c r="F5" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>349</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>348</v>
+      </c>
+      <c r="F6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>347</v>
+      </c>
+      <c r="B7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>345</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" t="s">
+        <v>344</v>
+      </c>
+      <c r="F8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>343</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" t="s">
+        <v>177</v>
+      </c>
+      <c r="D9" t="s">
+        <v>342</v>
+      </c>
+      <c r="E9" t="s">
+        <v>175</v>
+      </c>
+      <c r="F9" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>341</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" t="s">
+        <v>340</v>
+      </c>
+      <c r="F10" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>339</v>
+      </c>
+      <c r="B11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" t="s">
+        <v>338</v>
+      </c>
+      <c r="F11" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>336</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" t="s">
+        <v>335</v>
+      </c>
+      <c r="F12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>334</v>
+      </c>
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" t="s">
+        <v>333</v>
+      </c>
+      <c r="F13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>332</v>
+      </c>
+      <c r="B14" t="s">
+        <v>110</v>
+      </c>
+      <c r="C14" t="s">
+        <v>109</v>
+      </c>
+      <c r="D14" t="s">
+        <v>331</v>
+      </c>
+      <c r="F14" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>330</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>231</v>
+      </c>
+      <c r="D15" t="s">
+        <v>329</v>
+      </c>
+      <c r="F15" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>327</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" t="s">
+        <v>326</v>
+      </c>
+      <c r="F16" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>325</v>
+      </c>
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" t="s">
+        <v>324</v>
+      </c>
+      <c r="F17" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>323</v>
+      </c>
+      <c r="B18" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" t="s">
+        <v>322</v>
+      </c>
+      <c r="F18" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>321</v>
+      </c>
+      <c r="B19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" t="s">
+        <v>320</v>
+      </c>
+      <c r="F19" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>319</v>
+      </c>
+      <c r="B20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" t="s">
+        <v>318</v>
+      </c>
+      <c r="F20" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>316</v>
+      </c>
+      <c r="B21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" t="s">
+        <v>315</v>
+      </c>
+      <c r="F21" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>314</v>
+      </c>
+      <c r="B22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" t="s">
+        <v>313</v>
+      </c>
+      <c r="F22" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>312</v>
+      </c>
+      <c r="B23" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" t="s">
+        <v>73</v>
+      </c>
+      <c r="D23" t="s">
+        <v>311</v>
+      </c>
+      <c r="F23" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>309</v>
+      </c>
+      <c r="B24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" t="s">
+        <v>308</v>
+      </c>
+      <c r="F24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>307</v>
+      </c>
+      <c r="B25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" t="s">
+        <v>306</v>
+      </c>
+      <c r="F25" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>305</v>
+      </c>
+      <c r="B26" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" t="s">
+        <v>304</v>
+      </c>
+      <c r="F26" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>303</v>
+      </c>
+      <c r="B27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" t="s">
+        <v>302</v>
+      </c>
+      <c r="F27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>301</v>
+      </c>
+      <c r="B28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" t="s">
+        <v>300</v>
+      </c>
+      <c r="F28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>299</v>
+      </c>
+      <c r="B29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" t="s">
+        <v>298</v>
+      </c>
+      <c r="F29" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>297</v>
+      </c>
+      <c r="B30" t="s">
+        <v>296</v>
+      </c>
+      <c r="C30" t="s">
+        <v>295</v>
+      </c>
+      <c r="D30" t="s">
+        <v>294</v>
+      </c>
+      <c r="F30" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>292</v>
+      </c>
+      <c r="B31" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" t="s">
+        <v>291</v>
+      </c>
+      <c r="F31" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>290</v>
+      </c>
+      <c r="B32" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32" t="s">
+        <v>23</v>
+      </c>
+      <c r="D32" t="s">
+        <v>289</v>
+      </c>
+      <c r="F32" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>287</v>
+      </c>
+      <c r="B33" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" t="s">
+        <v>18</v>
+      </c>
+      <c r="D33" t="s">
+        <v>286</v>
+      </c>
+      <c r="F33" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>285</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" t="s">
+        <v>18</v>
+      </c>
+      <c r="D34" t="s">
+        <v>284</v>
+      </c>
+      <c r="F34" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>283</v>
+      </c>
+      <c r="B35" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" t="s">
+        <v>18</v>
+      </c>
+      <c r="D35" t="s">
+        <v>282</v>
+      </c>
+      <c r="F35" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>281</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36" t="s">
+        <v>18</v>
+      </c>
+      <c r="D36" t="s">
+        <v>280</v>
+      </c>
+      <c r="F36" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>279</v>
+      </c>
+      <c r="B37" t="s">
+        <v>34</v>
+      </c>
+      <c r="C37" t="s">
+        <v>18</v>
+      </c>
+      <c r="D37" t="s">
+        <v>278</v>
+      </c>
+      <c r="F37" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>277</v>
+      </c>
+      <c r="B38" t="s">
+        <v>34</v>
+      </c>
+      <c r="C38" t="s">
+        <v>18</v>
+      </c>
+      <c r="D38" t="s">
+        <v>276</v>
+      </c>
+      <c r="F38" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>275</v>
+      </c>
+      <c r="B39" t="s">
+        <v>34</v>
+      </c>
+      <c r="C39" t="s">
+        <v>18</v>
+      </c>
+      <c r="D39" t="s">
+        <v>274</v>
+      </c>
+      <c r="F39" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>273</v>
+      </c>
+      <c r="B40" t="s">
+        <v>110</v>
+      </c>
+      <c r="C40" t="s">
+        <v>109</v>
+      </c>
+      <c r="D40" t="s">
+        <v>272</v>
+      </c>
+      <c r="F40" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>271</v>
+      </c>
+      <c r="B41" t="s">
+        <v>110</v>
+      </c>
+      <c r="C41" t="s">
+        <v>109</v>
+      </c>
+      <c r="D41" t="s">
+        <v>270</v>
+      </c>
+      <c r="F41" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>269</v>
+      </c>
+      <c r="B42" t="s">
+        <v>19</v>
+      </c>
+      <c r="C42" t="s">
+        <v>18</v>
+      </c>
+      <c r="D42" t="s">
+        <v>268</v>
+      </c>
+      <c r="F42" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>267</v>
+      </c>
+      <c r="B43" t="s">
+        <v>19</v>
+      </c>
+      <c r="C43" t="s">
+        <v>18</v>
+      </c>
+      <c r="D43" t="s">
+        <v>266</v>
+      </c>
+      <c r="F43" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>265</v>
+      </c>
+      <c r="B44" t="s">
+        <v>19</v>
+      </c>
+      <c r="C44" t="s">
+        <v>18</v>
+      </c>
+      <c r="D44" t="s">
+        <v>264</v>
+      </c>
+      <c r="F44" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>263</v>
+      </c>
+      <c r="B45" t="s">
+        <v>19</v>
+      </c>
+      <c r="C45" t="s">
+        <v>18</v>
+      </c>
+      <c r="D45" t="s">
+        <v>262</v>
+      </c>
+      <c r="F45" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>261</v>
+      </c>
+      <c r="B46" t="s">
+        <v>19</v>
+      </c>
+      <c r="C46" t="s">
+        <v>18</v>
+      </c>
+      <c r="D46" t="s">
+        <v>260</v>
+      </c>
+      <c r="F46" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>259</v>
+      </c>
+      <c r="B47" t="s">
+        <v>34</v>
+      </c>
+      <c r="C47" t="s">
+        <v>18</v>
+      </c>
+      <c r="D47" t="s">
+        <v>258</v>
+      </c>
+      <c r="F47" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>257</v>
+      </c>
+      <c r="B48" t="s">
+        <v>34</v>
+      </c>
+      <c r="C48" t="s">
+        <v>18</v>
+      </c>
+      <c r="D48" t="s">
+        <v>256</v>
+      </c>
+      <c r="F48" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>255</v>
+      </c>
+      <c r="B49" t="s">
+        <v>34</v>
+      </c>
+      <c r="C49" t="s">
+        <v>18</v>
+      </c>
+      <c r="D49" t="s">
+        <v>254</v>
+      </c>
+      <c r="F49" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>253</v>
+      </c>
+      <c r="B50" t="s">
+        <v>239</v>
+      </c>
+      <c r="C50" t="s">
+        <v>238</v>
+      </c>
+      <c r="D50" t="s">
+        <v>252</v>
+      </c>
+      <c r="F50" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>250</v>
+      </c>
+      <c r="B51" t="s">
+        <v>110</v>
+      </c>
+      <c r="C51" t="s">
+        <v>109</v>
+      </c>
+      <c r="D51" t="s">
+        <v>249</v>
+      </c>
+      <c r="F51" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>248</v>
+      </c>
+      <c r="B52" t="s">
+        <v>34</v>
+      </c>
+      <c r="C52" t="s">
+        <v>50</v>
+      </c>
+      <c r="D52" t="s">
+        <v>247</v>
+      </c>
+      <c r="F52" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>246</v>
+      </c>
+      <c r="B53" t="s">
+        <v>110</v>
+      </c>
+      <c r="C53" t="s">
+        <v>109</v>
+      </c>
+      <c r="D53" t="s">
+        <v>245</v>
+      </c>
+      <c r="F53" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>243</v>
+      </c>
+      <c r="B54" t="s">
+        <v>239</v>
+      </c>
+      <c r="C54" t="s">
+        <v>238</v>
+      </c>
+      <c r="D54" t="s">
+        <v>242</v>
+      </c>
+      <c r="F54" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>240</v>
+      </c>
+      <c r="B55" t="s">
+        <v>239</v>
+      </c>
+      <c r="C55" t="s">
+        <v>238</v>
+      </c>
+      <c r="D55" t="s">
+        <v>237</v>
+      </c>
+      <c r="F55" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>235</v>
+      </c>
+      <c r="B56" t="s">
+        <v>24</v>
+      </c>
+      <c r="C56" t="s">
+        <v>231</v>
+      </c>
+      <c r="D56" t="s">
+        <v>234</v>
+      </c>
+      <c r="F56" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>232</v>
+      </c>
+      <c r="B57" t="s">
+        <v>24</v>
+      </c>
+      <c r="C57" t="s">
+        <v>231</v>
+      </c>
+      <c r="D57" t="s">
+        <v>230</v>
+      </c>
+      <c r="F57" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>228</v>
+      </c>
+      <c r="B58" t="s">
+        <v>58</v>
+      </c>
+      <c r="C58" t="s">
+        <v>18</v>
+      </c>
+      <c r="D58" t="s">
+        <v>227</v>
+      </c>
+      <c r="F58" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>226</v>
+      </c>
+      <c r="B59" t="s">
+        <v>58</v>
+      </c>
+      <c r="C59" t="s">
+        <v>18</v>
+      </c>
+      <c r="D59" t="s">
+        <v>225</v>
+      </c>
+      <c r="F59" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>224</v>
+      </c>
+      <c r="B60" t="s">
+        <v>74</v>
+      </c>
+      <c r="C60" t="s">
+        <v>73</v>
+      </c>
+      <c r="D60" t="s">
+        <v>223</v>
+      </c>
+      <c r="F60" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>222</v>
+      </c>
+      <c r="B61" t="s">
+        <v>34</v>
+      </c>
+      <c r="C61" t="s">
+        <v>18</v>
+      </c>
+      <c r="D61" t="s">
+        <v>221</v>
+      </c>
+      <c r="F61" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>220</v>
+      </c>
+      <c r="B62" t="s">
+        <v>19</v>
+      </c>
+      <c r="C62" t="s">
+        <v>18</v>
+      </c>
+      <c r="D62" t="s">
+        <v>219</v>
+      </c>
+      <c r="F62" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>218</v>
+      </c>
+      <c r="B63" t="s">
+        <v>34</v>
+      </c>
+      <c r="C63" t="s">
+        <v>18</v>
+      </c>
+      <c r="D63" t="s">
+        <v>217</v>
+      </c>
+      <c r="F63" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>216</v>
+      </c>
+      <c r="B64" t="s">
+        <v>19</v>
+      </c>
+      <c r="C64" t="s">
+        <v>18</v>
+      </c>
+      <c r="D64" t="s">
+        <v>215</v>
+      </c>
+      <c r="F64" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>214</v>
+      </c>
+      <c r="B65" t="s">
+        <v>19</v>
+      </c>
+      <c r="C65" t="s">
+        <v>18</v>
+      </c>
+      <c r="D65" t="s">
+        <v>213</v>
+      </c>
+      <c r="F65" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>212</v>
+      </c>
+      <c r="B66" t="s">
+        <v>211</v>
+      </c>
+      <c r="C66" t="s">
+        <v>210</v>
+      </c>
+      <c r="D66" t="s">
+        <v>209</v>
+      </c>
+      <c r="F66" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>207</v>
+      </c>
+      <c r="B67" t="s">
+        <v>34</v>
+      </c>
+      <c r="C67" t="s">
+        <v>18</v>
+      </c>
+      <c r="D67" t="s">
+        <v>206</v>
+      </c>
+      <c r="F67" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>205</v>
+      </c>
+      <c r="B68" t="s">
+        <v>204</v>
+      </c>
+      <c r="C68" t="s">
+        <v>194</v>
+      </c>
+      <c r="D68" t="s">
+        <v>203</v>
+      </c>
+      <c r="F68" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>201</v>
+      </c>
+      <c r="B69" t="s">
+        <v>34</v>
+      </c>
+      <c r="C69" t="s">
+        <v>18</v>
+      </c>
+      <c r="D69" t="s">
+        <v>200</v>
+      </c>
+      <c r="F69" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>199</v>
+      </c>
+      <c r="B70" t="s">
+        <v>58</v>
+      </c>
+      <c r="C70" t="s">
+        <v>18</v>
+      </c>
+      <c r="D70" t="s">
+        <v>198</v>
+      </c>
+      <c r="F70" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>196</v>
+      </c>
+      <c r="B71" t="s">
+        <v>195</v>
+      </c>
+      <c r="C71" t="s">
+        <v>194</v>
+      </c>
+      <c r="D71" t="s">
+        <v>193</v>
+      </c>
+      <c r="F71" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>191</v>
+      </c>
+      <c r="B72" t="s">
+        <v>19</v>
+      </c>
+      <c r="C72" t="s">
+        <v>18</v>
+      </c>
+      <c r="D72" t="s">
+        <v>190</v>
+      </c>
+      <c r="F72" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>189</v>
+      </c>
+      <c r="B73" t="s">
+        <v>110</v>
+      </c>
+      <c r="C73" t="s">
+        <v>109</v>
+      </c>
+      <c r="D73" t="s">
+        <v>188</v>
+      </c>
+      <c r="F73" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>186</v>
+      </c>
+      <c r="B74" t="s">
+        <v>19</v>
+      </c>
+      <c r="C74" t="s">
+        <v>18</v>
+      </c>
+      <c r="D74" t="s">
+        <v>185</v>
+      </c>
+      <c r="F74" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>184</v>
+      </c>
+      <c r="B75" t="s">
+        <v>19</v>
+      </c>
+      <c r="C75" t="s">
+        <v>18</v>
+      </c>
+      <c r="D75" t="s">
+        <v>183</v>
+      </c>
+      <c r="F75" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>181</v>
+      </c>
+      <c r="B76" t="s">
+        <v>34</v>
+      </c>
+      <c r="C76" t="s">
+        <v>18</v>
+      </c>
+      <c r="D76" t="s">
+        <v>180</v>
+      </c>
+      <c r="F76" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>178</v>
+      </c>
+      <c r="B77" t="s">
+        <v>34</v>
+      </c>
+      <c r="C77" t="s">
+        <v>177</v>
+      </c>
+      <c r="D77" t="s">
+        <v>176</v>
+      </c>
+      <c r="E77" t="s">
+        <v>175</v>
+      </c>
+      <c r="F77" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>173</v>
+      </c>
+      <c r="B78" t="s">
+        <v>24</v>
+      </c>
+      <c r="C78" t="s">
+        <v>172</v>
+      </c>
+      <c r="D78" t="s">
+        <v>171</v>
+      </c>
+      <c r="F78" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>169</v>
+      </c>
+      <c r="B79" t="s">
+        <v>34</v>
+      </c>
+      <c r="C79" t="s">
+        <v>18</v>
+      </c>
+      <c r="D79" t="s">
+        <v>168</v>
+      </c>
+      <c r="F79" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>166</v>
+      </c>
+      <c r="B80" t="s">
+        <v>34</v>
+      </c>
+      <c r="C80" t="s">
+        <v>18</v>
+      </c>
+      <c r="D80" t="s">
+        <v>165</v>
+      </c>
+      <c r="F80" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>163</v>
+      </c>
+      <c r="B81" t="s">
+        <v>34</v>
+      </c>
+      <c r="C81" t="s">
+        <v>18</v>
+      </c>
+      <c r="D81" t="s">
+        <v>162</v>
+      </c>
+      <c r="F81" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>160</v>
+      </c>
+      <c r="B82" t="s">
+        <v>34</v>
+      </c>
+      <c r="C82" t="s">
+        <v>33</v>
+      </c>
+      <c r="D82" t="s">
+        <v>159</v>
+      </c>
+      <c r="F82" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>157</v>
+      </c>
+      <c r="B83" t="s">
+        <v>34</v>
+      </c>
+      <c r="C83" t="s">
+        <v>50</v>
+      </c>
+      <c r="D83" t="s">
+        <v>156</v>
+      </c>
+      <c r="F83" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>155</v>
+      </c>
+      <c r="B84" t="s">
+        <v>154</v>
+      </c>
+      <c r="C84" t="s">
+        <v>153</v>
+      </c>
+      <c r="D84" t="s">
+        <v>152</v>
+      </c>
+      <c r="F84" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>150</v>
+      </c>
+      <c r="B85" t="s">
+        <v>51</v>
+      </c>
+      <c r="C85" t="s">
+        <v>50</v>
+      </c>
+      <c r="D85" t="s">
+        <v>149</v>
+      </c>
+      <c r="F85" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>147</v>
+      </c>
+      <c r="B86" t="s">
+        <v>58</v>
+      </c>
+      <c r="C86" t="s">
+        <v>33</v>
+      </c>
+      <c r="D86" t="s">
+        <v>146</v>
+      </c>
+      <c r="F86" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>145</v>
+      </c>
+      <c r="B87" t="s">
+        <v>34</v>
+      </c>
+      <c r="C87" t="s">
+        <v>18</v>
+      </c>
+      <c r="D87" t="s">
+        <v>144</v>
+      </c>
+      <c r="F87" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>142</v>
+      </c>
+      <c r="B88" t="s">
+        <v>34</v>
+      </c>
+      <c r="C88" t="s">
+        <v>18</v>
+      </c>
+      <c r="D88" t="s">
+        <v>141</v>
+      </c>
+      <c r="F88" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>140</v>
+      </c>
+      <c r="B89" t="s">
+        <v>12</v>
+      </c>
+      <c r="C89" t="s">
+        <v>13</v>
+      </c>
+      <c r="D89" t="s">
+        <v>139</v>
+      </c>
+      <c r="F89" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>138</v>
+      </c>
+      <c r="B90" t="s">
+        <v>34</v>
+      </c>
+      <c r="C90" t="s">
+        <v>18</v>
+      </c>
+      <c r="D90" t="s">
+        <v>137</v>
+      </c>
+      <c r="F90" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>135</v>
+      </c>
+      <c r="B91" t="s">
+        <v>24</v>
+      </c>
+      <c r="C91" t="s">
+        <v>23</v>
+      </c>
+      <c r="D91" t="s">
+        <v>134</v>
+      </c>
+      <c r="F91" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>132</v>
+      </c>
+      <c r="B92" t="s">
+        <v>19</v>
+      </c>
+      <c r="C92" t="s">
+        <v>18</v>
+      </c>
+      <c r="D92" t="s">
+        <v>131</v>
+      </c>
+      <c r="F92" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>130</v>
+      </c>
+      <c r="B93" t="s">
+        <v>19</v>
+      </c>
+      <c r="C93" t="s">
+        <v>18</v>
+      </c>
+      <c r="D93" t="s">
+        <v>129</v>
+      </c>
+      <c r="F93" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>128</v>
+      </c>
+      <c r="B94" t="s">
+        <v>127</v>
+      </c>
+      <c r="C94" t="s">
+        <v>126</v>
+      </c>
+      <c r="D94" t="s">
+        <v>125</v>
+      </c>
+      <c r="F94" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>123</v>
+      </c>
+      <c r="B95" t="s">
+        <v>34</v>
+      </c>
+      <c r="C95" t="s">
+        <v>18</v>
+      </c>
+      <c r="D95" t="s">
+        <v>122</v>
+      </c>
+      <c r="F95" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>120</v>
+      </c>
+      <c r="B96" t="s">
+        <v>19</v>
+      </c>
+      <c r="C96" t="s">
+        <v>18</v>
+      </c>
+      <c r="D96" t="s">
+        <v>119</v>
+      </c>
+      <c r="F96" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>117</v>
+      </c>
+      <c r="B97" t="s">
+        <v>19</v>
+      </c>
+      <c r="C97" t="s">
+        <v>18</v>
+      </c>
+      <c r="D97" t="s">
+        <v>116</v>
+      </c>
+      <c r="F97" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>114</v>
+      </c>
+      <c r="B98" t="s">
+        <v>34</v>
+      </c>
+      <c r="C98" t="s">
+        <v>33</v>
+      </c>
+      <c r="D98" t="s">
+        <v>113</v>
+      </c>
+      <c r="F98" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>111</v>
+      </c>
+      <c r="B99" t="s">
+        <v>110</v>
+      </c>
+      <c r="C99" t="s">
+        <v>109</v>
+      </c>
+      <c r="D99" t="s">
+        <v>108</v>
+      </c>
+      <c r="F99" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>106</v>
+      </c>
+      <c r="B100" t="s">
+        <v>12</v>
+      </c>
+      <c r="C100" t="s">
+        <v>13</v>
+      </c>
+      <c r="D100" t="s">
+        <v>105</v>
+      </c>
+      <c r="F100" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>103</v>
+      </c>
+      <c r="B101" t="s">
+        <v>74</v>
+      </c>
+      <c r="C101" t="s">
+        <v>73</v>
+      </c>
+      <c r="D101" t="s">
+        <v>102</v>
+      </c>
+      <c r="F101" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>100</v>
+      </c>
+      <c r="B102" t="s">
+        <v>19</v>
+      </c>
+      <c r="C102" t="s">
+        <v>18</v>
+      </c>
+      <c r="D102" t="s">
+        <v>99</v>
+      </c>
+      <c r="F102" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>98</v>
+      </c>
+      <c r="B103" t="s">
+        <v>19</v>
+      </c>
+      <c r="C103" t="s">
+        <v>18</v>
+      </c>
+      <c r="D103" t="s">
+        <v>97</v>
+      </c>
+      <c r="F103" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>96</v>
+      </c>
+      <c r="B104" t="s">
+        <v>19</v>
+      </c>
+      <c r="C104" t="s">
+        <v>18</v>
+      </c>
+      <c r="D104" t="s">
+        <v>95</v>
+      </c>
+      <c r="F104" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>94</v>
+      </c>
+      <c r="B105" t="s">
+        <v>19</v>
+      </c>
+      <c r="C105" t="s">
+        <v>18</v>
+      </c>
+      <c r="D105" t="s">
+        <v>93</v>
+      </c>
+      <c r="F105" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>91</v>
+      </c>
+      <c r="B106" t="s">
+        <v>7</v>
+      </c>
+      <c r="C106" t="s">
+        <v>8</v>
+      </c>
+      <c r="D106" t="s">
+        <v>90</v>
+      </c>
+      <c r="F106" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>88</v>
+      </c>
+      <c r="B107" t="s">
+        <v>19</v>
+      </c>
+      <c r="C107" t="s">
+        <v>18</v>
+      </c>
+      <c r="D107" t="s">
+        <v>87</v>
+      </c>
+      <c r="F107" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>86</v>
+      </c>
+      <c r="B108" t="s">
+        <v>34</v>
+      </c>
+      <c r="C108" t="s">
+        <v>18</v>
+      </c>
+      <c r="D108" t="s">
+        <v>85</v>
+      </c>
+      <c r="F108" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>83</v>
+      </c>
+      <c r="B109" t="s">
+        <v>19</v>
+      </c>
+      <c r="C109" t="s">
+        <v>18</v>
+      </c>
+      <c r="D109" t="s">
+        <v>82</v>
+      </c>
+      <c r="F109" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>81</v>
+      </c>
+      <c r="B110" t="s">
+        <v>34</v>
+      </c>
+      <c r="C110" t="s">
+        <v>50</v>
+      </c>
+      <c r="D110" t="s">
+        <v>80</v>
+      </c>
+      <c r="F110" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>78</v>
+      </c>
+      <c r="B111" t="s">
+        <v>34</v>
+      </c>
+      <c r="C111" t="s">
+        <v>18</v>
+      </c>
+      <c r="D111" t="s">
+        <v>77</v>
+      </c>
+      <c r="F111" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>75</v>
+      </c>
+      <c r="B112" t="s">
+        <v>74</v>
+      </c>
+      <c r="C112" t="s">
+        <v>73</v>
+      </c>
+      <c r="D112" t="s">
+        <v>72</v>
+      </c>
+      <c r="F112" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>70</v>
+      </c>
+      <c r="B113" t="s">
+        <v>19</v>
+      </c>
+      <c r="C113" t="s">
+        <v>18</v>
+      </c>
+      <c r="D113" t="s">
+        <v>69</v>
+      </c>
+      <c r="F113" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>67</v>
+      </c>
+      <c r="B114" t="s">
+        <v>12</v>
+      </c>
+      <c r="C114" t="s">
+        <v>13</v>
+      </c>
+      <c r="D114" t="s">
+        <v>66</v>
+      </c>
+      <c r="F114" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>64</v>
+      </c>
+      <c r="B115" t="s">
+        <v>34</v>
+      </c>
+      <c r="C115" t="s">
+        <v>18</v>
+      </c>
+      <c r="D115" t="s">
+        <v>63</v>
+      </c>
+      <c r="F115" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>62</v>
+      </c>
+      <c r="B116" t="s">
+        <v>34</v>
+      </c>
+      <c r="C116" t="s">
+        <v>18</v>
+      </c>
+      <c r="D116" t="s">
+        <v>61</v>
+      </c>
+      <c r="F116" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>59</v>
+      </c>
+      <c r="B117" t="s">
+        <v>58</v>
+      </c>
+      <c r="C117" t="s">
+        <v>33</v>
+      </c>
+      <c r="D117" t="s">
+        <v>57</v>
+      </c>
+      <c r="F117" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>55</v>
+      </c>
+      <c r="B118" t="s">
+        <v>19</v>
+      </c>
+      <c r="C118" t="s">
+        <v>18</v>
+      </c>
+      <c r="D118" t="s">
+        <v>54</v>
+      </c>
+      <c r="F118" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>52</v>
+      </c>
+      <c r="B119" t="s">
+        <v>51</v>
+      </c>
+      <c r="C119" t="s">
+        <v>50</v>
+      </c>
+      <c r="D119" t="s">
+        <v>49</v>
+      </c>
+      <c r="F119" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>47</v>
+      </c>
+      <c r="B120" t="s">
+        <v>34</v>
+      </c>
+      <c r="C120" t="s">
+        <v>18</v>
+      </c>
+      <c r="D120" t="s">
+        <v>46</v>
+      </c>
+      <c r="F120" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>44</v>
+      </c>
+      <c r="B121" t="s">
+        <v>12</v>
+      </c>
+      <c r="C121" t="s">
+        <v>13</v>
+      </c>
+      <c r="D121" t="s">
+        <v>43</v>
+      </c>
+      <c r="F121" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>41</v>
+      </c>
+      <c r="B122" t="s">
+        <v>7</v>
+      </c>
+      <c r="C122" t="s">
+        <v>8</v>
+      </c>
+      <c r="D122" t="s">
+        <v>40</v>
+      </c>
+      <c r="F122" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>38</v>
+      </c>
+      <c r="B123" t="s">
+        <v>34</v>
+      </c>
+      <c r="C123" t="s">
+        <v>33</v>
+      </c>
+      <c r="D123" t="s">
+        <v>37</v>
+      </c>
+      <c r="F123" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>35</v>
+      </c>
+      <c r="B124" t="s">
+        <v>34</v>
+      </c>
+      <c r="C124" t="s">
+        <v>33</v>
+      </c>
+      <c r="D124" t="s">
+        <v>32</v>
+      </c>
+      <c r="F124" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>30</v>
+      </c>
+      <c r="B125" t="s">
+        <v>12</v>
+      </c>
+      <c r="C125" t="s">
+        <v>13</v>
+      </c>
+      <c r="D125" t="s">
+        <v>29</v>
+      </c>
+      <c r="F125" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>28</v>
+      </c>
+      <c r="B126" t="s">
+        <v>19</v>
+      </c>
+      <c r="C126" t="s">
+        <v>18</v>
+      </c>
+      <c r="D126" t="s">
+        <v>27</v>
+      </c>
+      <c r="F126" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>25</v>
+      </c>
+      <c r="B127" t="s">
+        <v>24</v>
+      </c>
+      <c r="C127" t="s">
+        <v>23</v>
+      </c>
+      <c r="D127" t="s">
+        <v>22</v>
+      </c>
+      <c r="F127" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>20</v>
+      </c>
+      <c r="B128" t="s">
+        <v>19</v>
+      </c>
+      <c r="C128" t="s">
+        <v>18</v>
+      </c>
+      <c r="D128" t="s">
+        <v>17</v>
+      </c>
+      <c r="F128" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/BarboursHOU/Test.xlsx
+++ b/BarboursHOU/Test.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="355">
   <si>
     <t>Equipment Number</t>
   </si>
@@ -296,15 +296,6 @@
     <t>CHI1224131-CHI8141539</t>
   </si>
   <si>
-    <t>BEAU4492082</t>
-  </si>
-  <si>
-    <t>9075905057-01</t>
-  </si>
-  <si>
-    <t>YMLUT710502324</t>
-  </si>
-  <si>
     <t>TCLU7280175</t>
   </si>
   <si>
@@ -320,12 +311,6 @@
     <t>LEHV11083400</t>
   </si>
   <si>
-    <t>BMOU6203898</t>
-  </si>
-  <si>
-    <t>9075905056-01</t>
-  </si>
-  <si>
     <t>GESU6357432</t>
   </si>
   <si>
@@ -527,12 +512,6 @@
     <t>9075905484-01</t>
   </si>
   <si>
-    <t>TEMU7673138</t>
-  </si>
-  <si>
-    <t>9075905055-01</t>
-  </si>
-  <si>
     <t>TCNU1889428</t>
   </si>
   <si>
@@ -731,12 +710,39 @@
     <t>CHI1244479-CHI8141566</t>
   </si>
   <si>
+    <t>GCNU4685364</t>
+  </si>
+  <si>
+    <t>CLX3219</t>
+  </si>
+  <si>
+    <t>SA003729540102</t>
+  </si>
+  <si>
+    <t>CLX3219SA00372954</t>
+  </si>
+  <si>
     <t>SEGU5077004</t>
   </si>
   <si>
     <t>DJLRDA4146706</t>
   </si>
   <si>
+    <t>MAGU5516951</t>
+  </si>
+  <si>
+    <t>COSCO SANTOS</t>
+  </si>
+  <si>
+    <t>048E</t>
+  </si>
+  <si>
+    <t>9077905746-01</t>
+  </si>
+  <si>
+    <t>COSU6178994460</t>
+  </si>
+  <si>
     <t>TCLU4689004</t>
   </si>
   <si>
@@ -761,12 +767,6 @@
     <t>CBHU9008529</t>
   </si>
   <si>
-    <t>COSCO SANTOS</t>
-  </si>
-  <si>
-    <t>048E</t>
-  </si>
-  <si>
     <t>9077905130-01</t>
   </si>
   <si>
@@ -845,15 +845,6 @@
     <t>CHI1244479-CHI8141567</t>
   </si>
   <si>
-    <t>UETU5195777</t>
-  </si>
-  <si>
-    <t>9076905956-01</t>
-  </si>
-  <si>
-    <t>COSU6199213870</t>
-  </si>
-  <si>
     <t>CSLU6042182</t>
   </si>
   <si>
@@ -881,6 +872,15 @@
     <t>CHI1244474-CHI8141572</t>
   </si>
   <si>
+    <t>GESU6370590</t>
+  </si>
+  <si>
+    <t>SA003840460101</t>
+  </si>
+  <si>
+    <t>CLX3219SA00384046</t>
+  </si>
+  <si>
     <t>DFSU4377280</t>
   </si>
   <si>
@@ -936,21 +936,6 @@
   </si>
   <si>
     <t>CHI1244602-CHI8141568</t>
-  </si>
-  <si>
-    <t>FESU2064097</t>
-  </si>
-  <si>
-    <t>E.R. CANADA</t>
-  </si>
-  <si>
-    <t>912N</t>
-  </si>
-  <si>
-    <t>9077905457-01</t>
-  </si>
-  <si>
-    <t>SEAU581560076</t>
   </si>
   <si>
     <t>KKTU7753056</t>
@@ -1136,7 +1121,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G131"/>
+  <dimension ref="A1:G129"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1653,35 +1638,35 @@
         <v>94</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="C29" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="D29" t="s">
         <v>95</v>
       </c>
       <c r="E29"/>
       <c r="F29" t="s">
-        <v>96</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
+        <v>96</v>
+      </c>
+      <c r="B30" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" t="s">
+        <v>34</v>
+      </c>
+      <c r="D30" t="s">
         <v>97</v>
-      </c>
-      <c r="B30" t="s">
-        <v>45</v>
-      </c>
-      <c r="C30" t="s">
-        <v>8</v>
-      </c>
-      <c r="D30" t="s">
-        <v>98</v>
       </c>
       <c r="E30"/>
       <c r="F30" t="s">
-        <v>50</v>
+        <v>98</v>
       </c>
     </row>
     <row r="31">
@@ -1689,71 +1674,71 @@
         <v>99</v>
       </c>
       <c r="B31" t="s">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="C31" t="s">
-        <v>34</v>
+        <v>101</v>
       </c>
       <c r="D31" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E31"/>
       <c r="F31" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="C32" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="D32" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E32"/>
       <c r="F32" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B33" t="s">
-        <v>105</v>
+        <v>33</v>
       </c>
       <c r="C33" t="s">
-        <v>106</v>
+        <v>34</v>
       </c>
       <c r="D33" t="s">
         <v>107</v>
       </c>
       <c r="E33"/>
       <c r="F33" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
+        <v>108</v>
+      </c>
+      <c r="B34" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" t="s">
         <v>109</v>
-      </c>
-      <c r="B34" t="s">
-        <v>33</v>
-      </c>
-      <c r="C34" t="s">
-        <v>34</v>
-      </c>
-      <c r="D34" t="s">
-        <v>110</v>
       </c>
       <c r="E34"/>
       <c r="F34" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
     </row>
     <row r="35">
@@ -1771,7 +1756,7 @@
       </c>
       <c r="E35"/>
       <c r="F35" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
     </row>
     <row r="36">
@@ -1789,115 +1774,115 @@
       </c>
       <c r="E36"/>
       <c r="F36" t="s">
-        <v>115</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
+        <v>115</v>
+      </c>
+      <c r="B37" t="s">
         <v>116</v>
       </c>
-      <c r="B37" t="s">
-        <v>33</v>
-      </c>
       <c r="C37" t="s">
-        <v>34</v>
+        <v>117</v>
       </c>
       <c r="D37" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E37"/>
       <c r="F37" t="s">
-        <v>86</v>
+        <v>119</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B38" t="s">
-        <v>45</v>
+        <v>121</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>101</v>
       </c>
       <c r="D38" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E38"/>
       <c r="F38" t="s">
-        <v>50</v>
+        <v>123</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B39" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C39" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D39" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E39"/>
       <c r="F39" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B40" t="s">
-        <v>126</v>
+        <v>20</v>
       </c>
       <c r="C40" t="s">
-        <v>106</v>
+        <v>21</v>
       </c>
       <c r="D40" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E40"/>
       <c r="F40" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B41" t="s">
-        <v>130</v>
+        <v>45</v>
       </c>
       <c r="C41" t="s">
-        <v>131</v>
+        <v>8</v>
       </c>
       <c r="D41" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E41"/>
       <c r="F41" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B42" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="C42" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="D42" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E42"/>
       <c r="F42" t="s">
-        <v>136</v>
+        <v>47</v>
       </c>
     </row>
     <row r="43">
@@ -1915,12 +1900,12 @@
       </c>
       <c r="E43"/>
       <c r="F43" t="s">
-        <v>139</v>
+        <v>75</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B44" t="s">
         <v>45</v>
@@ -1929,16 +1914,16 @@
         <v>8</v>
       </c>
       <c r="D44" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E44"/>
       <c r="F44" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B45" t="s">
         <v>45</v>
@@ -1947,34 +1932,34 @@
         <v>8</v>
       </c>
       <c r="D45" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E45"/>
       <c r="F45" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
+        <v>143</v>
+      </c>
+      <c r="B46" t="s">
+        <v>88</v>
+      </c>
+      <c r="C46" t="s">
         <v>144</v>
-      </c>
-      <c r="B46" t="s">
-        <v>45</v>
-      </c>
-      <c r="C46" t="s">
-        <v>8</v>
       </c>
       <c r="D46" t="s">
         <v>145</v>
       </c>
       <c r="E46"/>
       <c r="F46" t="s">
-        <v>56</v>
+        <v>146</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B47" t="s">
         <v>45</v>
@@ -1983,34 +1968,34 @@
         <v>8</v>
       </c>
       <c r="D47" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E47"/>
       <c r="F47" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B48" t="s">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="C48" t="s">
-        <v>149</v>
+        <v>8</v>
       </c>
       <c r="D48" t="s">
         <v>150</v>
       </c>
       <c r="E48"/>
       <c r="F48" t="s">
-        <v>151</v>
+        <v>83</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B49" t="s">
         <v>45</v>
@@ -2019,16 +2004,16 @@
         <v>8</v>
       </c>
       <c r="D49" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E49"/>
       <c r="F49" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B50" t="s">
         <v>45</v>
@@ -2037,7 +2022,7 @@
         <v>8</v>
       </c>
       <c r="D50" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E50"/>
       <c r="F50" t="s">
@@ -2046,7 +2031,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B51" t="s">
         <v>45</v>
@@ -2055,47 +2040,47 @@
         <v>8</v>
       </c>
       <c r="D51" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E51"/>
       <c r="F51" t="s">
-        <v>50</v>
+        <v>83</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
+        <v>157</v>
+      </c>
+      <c r="B52" t="s">
+        <v>7</v>
+      </c>
+      <c r="C52" t="s">
+        <v>8</v>
+      </c>
+      <c r="D52" t="s">
         <v>158</v>
-      </c>
-      <c r="B52" t="s">
-        <v>45</v>
-      </c>
-      <c r="C52" t="s">
-        <v>8</v>
-      </c>
-      <c r="D52" t="s">
-        <v>159</v>
       </c>
       <c r="E52"/>
       <c r="F52" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
+        <v>159</v>
+      </c>
+      <c r="B53" t="s">
+        <v>62</v>
+      </c>
+      <c r="C53" t="s">
+        <v>63</v>
+      </c>
+      <c r="D53" t="s">
         <v>160</v>
-      </c>
-      <c r="B53" t="s">
-        <v>45</v>
-      </c>
-      <c r="C53" t="s">
-        <v>8</v>
-      </c>
-      <c r="D53" t="s">
-        <v>161</v>
       </c>
       <c r="E53"/>
       <c r="F53" t="s">
-        <v>83</v>
+        <v>161</v>
       </c>
     </row>
     <row r="54">
@@ -2103,7 +2088,7 @@
         <v>162</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="C54" t="s">
         <v>8</v>
@@ -2113,7 +2098,7 @@
       </c>
       <c r="E54"/>
       <c r="F54" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
     </row>
     <row r="55">
@@ -2121,35 +2106,35 @@
         <v>164</v>
       </c>
       <c r="B55" t="s">
-        <v>62</v>
+        <v>116</v>
       </c>
       <c r="C55" t="s">
-        <v>63</v>
+        <v>117</v>
       </c>
       <c r="D55" t="s">
         <v>165</v>
       </c>
       <c r="E55"/>
       <c r="F55" t="s">
-        <v>166</v>
+        <v>119</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
+        <v>166</v>
+      </c>
+      <c r="B56" t="s">
+        <v>7</v>
+      </c>
+      <c r="C56" t="s">
+        <v>117</v>
+      </c>
+      <c r="D56" t="s">
         <v>167</v>
-      </c>
-      <c r="B56" t="s">
-        <v>45</v>
-      </c>
-      <c r="C56" t="s">
-        <v>8</v>
-      </c>
-      <c r="D56" t="s">
-        <v>168</v>
       </c>
       <c r="E56"/>
       <c r="F56" t="s">
-        <v>56</v>
+        <v>168</v>
       </c>
     </row>
     <row r="57">
@@ -2157,17 +2142,17 @@
         <v>169</v>
       </c>
       <c r="B57" t="s">
-        <v>121</v>
+        <v>7</v>
       </c>
       <c r="C57" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D57" t="s">
         <v>170</v>
       </c>
       <c r="E57"/>
       <c r="F57" t="s">
-        <v>124</v>
+        <v>168</v>
       </c>
     </row>
     <row r="58">
@@ -2178,32 +2163,32 @@
         <v>7</v>
       </c>
       <c r="C58" t="s">
-        <v>21</v>
+        <v>117</v>
       </c>
       <c r="D58" t="s">
         <v>172</v>
       </c>
       <c r="E58"/>
       <c r="F58" t="s">
-        <v>96</v>
+        <v>173</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="C59" t="s">
-        <v>122</v>
+        <v>8</v>
       </c>
       <c r="D59" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E59"/>
       <c r="F59" t="s">
-        <v>175</v>
+        <v>75</v>
       </c>
     </row>
     <row r="60">
@@ -2211,35 +2196,35 @@
         <v>176</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="C60" t="s">
-        <v>122</v>
+        <v>8</v>
       </c>
       <c r="D60" t="s">
         <v>177</v>
       </c>
       <c r="E60"/>
       <c r="F60" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B61" t="s">
         <v>7</v>
       </c>
       <c r="C61" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D61" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E61"/>
       <c r="F61" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="62">
@@ -2257,7 +2242,7 @@
       </c>
       <c r="E62"/>
       <c r="F62" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
     </row>
     <row r="63">
@@ -2275,25 +2260,25 @@
       </c>
       <c r="E63"/>
       <c r="F63" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
+        <v>185</v>
+      </c>
+      <c r="B64" t="s">
+        <v>20</v>
+      </c>
+      <c r="C64" t="s">
+        <v>21</v>
+      </c>
+      <c r="D64" t="s">
         <v>186</v>
-      </c>
-      <c r="B64" t="s">
-        <v>7</v>
-      </c>
-      <c r="C64" t="s">
-        <v>122</v>
-      </c>
-      <c r="D64" t="s">
-        <v>187</v>
       </c>
       <c r="E64"/>
       <c r="F64" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
     </row>
     <row r="65">
@@ -2311,7 +2296,7 @@
       </c>
       <c r="E65"/>
       <c r="F65" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
     </row>
     <row r="66">
@@ -2319,7 +2304,7 @@
         <v>190</v>
       </c>
       <c r="B66" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="C66" t="s">
         <v>8</v>
@@ -2329,66 +2314,68 @@
       </c>
       <c r="E66"/>
       <c r="F66" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B67" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C67" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="D67" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E67"/>
       <c r="F67" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B68" t="s">
-        <v>45</v>
+        <v>116</v>
       </c>
       <c r="C68" t="s">
         <v>8</v>
       </c>
       <c r="D68" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E68"/>
       <c r="F68" t="s">
-        <v>75</v>
+        <v>198</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B69" t="s">
         <v>7</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>200</v>
       </c>
       <c r="D69" t="s">
-        <v>198</v>
-      </c>
-      <c r="E69"/>
+        <v>201</v>
+      </c>
+      <c r="E69" t="s">
+        <v>202</v>
+      </c>
       <c r="F69" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="B70" t="s">
         <v>7</v>
@@ -2397,90 +2384,88 @@
         <v>8</v>
       </c>
       <c r="D70" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="E70"/>
       <c r="F70" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="B71" t="s">
-        <v>121</v>
+        <v>7</v>
       </c>
       <c r="C71" t="s">
         <v>8</v>
       </c>
       <c r="D71" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="E71"/>
       <c r="F71" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="B72" t="s">
         <v>7</v>
       </c>
       <c r="C72" t="s">
-        <v>207</v>
+        <v>8</v>
       </c>
       <c r="D72" t="s">
-        <v>208</v>
-      </c>
-      <c r="E72" t="s">
-        <v>209</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="E72"/>
       <c r="F72" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>88</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>213</v>
       </c>
       <c r="D73" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E73"/>
       <c r="F73" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>217</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>218</v>
       </c>
       <c r="D74" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="E74"/>
       <c r="F74" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="B75" t="s">
         <v>7</v>
@@ -2489,40 +2474,40 @@
         <v>8</v>
       </c>
       <c r="D75" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="E75"/>
       <c r="F75" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="B76" t="s">
-        <v>88</v>
+        <v>7</v>
       </c>
       <c r="C76" t="s">
-        <v>220</v>
+        <v>8</v>
       </c>
       <c r="D76" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="E76"/>
       <c r="F76" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B77" t="s">
-        <v>224</v>
+        <v>116</v>
       </c>
       <c r="C77" t="s">
-        <v>225</v>
+        <v>8</v>
       </c>
       <c r="D77" t="s">
         <v>226</v>
@@ -2537,7 +2522,7 @@
         <v>228</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>116</v>
       </c>
       <c r="C78" t="s">
         <v>8</v>
@@ -2547,7 +2532,7 @@
       </c>
       <c r="E78"/>
       <c r="F78" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
     </row>
     <row r="79">
@@ -2565,7 +2550,7 @@
       </c>
       <c r="E79"/>
       <c r="F79" t="s">
-        <v>218</v>
+        <v>195</v>
       </c>
     </row>
     <row r="80">
@@ -2573,168 +2558,168 @@
         <v>232</v>
       </c>
       <c r="B80" t="s">
-        <v>121</v>
+        <v>217</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>233</v>
       </c>
       <c r="D80" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E80"/>
       <c r="F80" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B81" t="s">
-        <v>121</v>
+        <v>7</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>200</v>
       </c>
       <c r="D81" t="s">
-        <v>236</v>
-      </c>
-      <c r="E81"/>
+        <v>237</v>
+      </c>
+      <c r="E81" t="s">
+        <v>202</v>
+      </c>
       <c r="F81" t="s">
-        <v>234</v>
+        <v>203</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>239</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>240</v>
       </c>
       <c r="D82" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="E82"/>
       <c r="F82" t="s">
-        <v>202</v>
+        <v>242</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>217</v>
       </c>
       <c r="C83" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="D83" t="s">
-        <v>240</v>
-      </c>
-      <c r="E83" t="s">
-        <v>209</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="E83"/>
       <c r="F83" t="s">
-        <v>210</v>
+        <v>245</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="B84" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="C84" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="D84" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="E84"/>
       <c r="F84" t="s">
-        <v>243</v>
+        <v>220</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="B85" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="C85" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="D85" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="E85"/>
       <c r="F85" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="B86" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
       <c r="C86" t="s">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="D86" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="E86"/>
       <c r="F86" t="s">
-        <v>227</v>
+        <v>252</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="B87" t="s">
-        <v>249</v>
+        <v>88</v>
       </c>
       <c r="C87" t="s">
-        <v>250</v>
+        <v>144</v>
       </c>
       <c r="D87" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="E87"/>
       <c r="F87" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="B88" t="s">
-        <v>88</v>
+        <v>7</v>
       </c>
       <c r="C88" t="s">
-        <v>149</v>
+        <v>8</v>
       </c>
       <c r="D88" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="E88"/>
       <c r="F88" t="s">
-        <v>255</v>
+        <v>192</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B89" t="s">
         <v>7</v>
@@ -2743,16 +2728,16 @@
         <v>8</v>
       </c>
       <c r="D89" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E89"/>
       <c r="F89" t="s">
-        <v>199</v>
+        <v>260</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="B90" t="s">
         <v>7</v>
@@ -2761,178 +2746,178 @@
         <v>8</v>
       </c>
       <c r="D90" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="E90"/>
       <c r="F90" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>217</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>218</v>
       </c>
       <c r="D91" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="E91"/>
       <c r="F91" t="s">
-        <v>263</v>
+        <v>220</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B92" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="C92" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="D92" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E92"/>
       <c r="F92" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B93" t="s">
-        <v>224</v>
+        <v>88</v>
       </c>
       <c r="C93" t="s">
-        <v>225</v>
+        <v>144</v>
       </c>
       <c r="D93" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="E93"/>
       <c r="F93" t="s">
-        <v>227</v>
+        <v>270</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="B94" t="s">
-        <v>88</v>
+        <v>7</v>
       </c>
       <c r="C94" t="s">
-        <v>149</v>
+        <v>8</v>
       </c>
       <c r="D94" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="E94"/>
       <c r="F94" t="s">
-        <v>270</v>
+        <v>195</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>116</v>
       </c>
       <c r="C95" t="s">
         <v>8</v>
       </c>
       <c r="D95" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E95"/>
       <c r="F95" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B96" t="s">
-        <v>121</v>
+        <v>7</v>
       </c>
       <c r="C96" t="s">
         <v>8</v>
       </c>
       <c r="D96" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="E96"/>
       <c r="F96" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>239</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>240</v>
       </c>
       <c r="D97" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="E97"/>
       <c r="F97" t="s">
-        <v>202</v>
+        <v>279</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="B98" t="s">
-        <v>130</v>
+        <v>7</v>
       </c>
       <c r="C98" t="s">
-        <v>131</v>
+        <v>8</v>
       </c>
       <c r="D98" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="E98"/>
       <c r="F98" t="s">
-        <v>279</v>
+        <v>192</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B99" t="s">
-        <v>249</v>
+        <v>7</v>
       </c>
       <c r="C99" t="s">
-        <v>250</v>
+        <v>8</v>
       </c>
       <c r="D99" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="E99"/>
       <c r="F99" t="s">
-        <v>282</v>
+        <v>263</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B100" t="s">
         <v>7</v>
@@ -2941,70 +2926,70 @@
         <v>8</v>
       </c>
       <c r="D100" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E100"/>
       <c r="F100" t="s">
-        <v>199</v>
+        <v>263</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>217</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>233</v>
       </c>
       <c r="D101" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E101"/>
       <c r="F101" t="s">
-        <v>263</v>
+        <v>288</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>116</v>
       </c>
       <c r="C102" t="s">
         <v>8</v>
       </c>
       <c r="D102" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="E102"/>
       <c r="F102" t="s">
-        <v>263</v>
+        <v>198</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B103" t="s">
-        <v>121</v>
+        <v>7</v>
       </c>
       <c r="C103" t="s">
         <v>8</v>
       </c>
       <c r="D103" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="E103"/>
       <c r="F103" t="s">
-        <v>205</v>
+        <v>263</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B104" t="s">
         <v>7</v>
@@ -3013,7 +2998,7 @@
         <v>8</v>
       </c>
       <c r="D104" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="E104"/>
       <c r="F104" t="s">
@@ -3022,7 +3007,7 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B105" t="s">
         <v>7</v>
@@ -3031,16 +3016,16 @@
         <v>8</v>
       </c>
       <c r="D105" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="E105"/>
       <c r="F105" t="s">
-        <v>263</v>
+        <v>208</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B106" t="s">
         <v>7</v>
@@ -3049,16 +3034,16 @@
         <v>8</v>
       </c>
       <c r="D106" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E106"/>
       <c r="F106" t="s">
-        <v>215</v>
+        <v>192</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B107" t="s">
         <v>7</v>
@@ -3067,16 +3052,16 @@
         <v>8</v>
       </c>
       <c r="D107" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="E107"/>
       <c r="F107" t="s">
-        <v>199</v>
+        <v>301</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="B108" t="s">
         <v>7</v>
@@ -3085,16 +3070,16 @@
         <v>8</v>
       </c>
       <c r="D108" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="E108"/>
       <c r="F108" t="s">
-        <v>301</v>
+        <v>195</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B109" t="s">
         <v>7</v>
@@ -3103,16 +3088,16 @@
         <v>8</v>
       </c>
       <c r="D109" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="E109"/>
       <c r="F109" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B110" t="s">
         <v>7</v>
@@ -3121,16 +3106,16 @@
         <v>8</v>
       </c>
       <c r="D110" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="E110"/>
       <c r="F110" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B111" t="s">
         <v>7</v>
@@ -3139,34 +3124,34 @@
         <v>8</v>
       </c>
       <c r="D111" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="E111"/>
       <c r="F111" t="s">
-        <v>218</v>
+        <v>310</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="B112" t="s">
-        <v>309</v>
+        <v>7</v>
       </c>
       <c r="C112" t="s">
-        <v>310</v>
+        <v>8</v>
       </c>
       <c r="D112" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E112"/>
       <c r="F112" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B113" t="s">
         <v>7</v>
@@ -3175,11 +3160,11 @@
         <v>8</v>
       </c>
       <c r="D113" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E113"/>
       <c r="F113" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
     </row>
     <row r="114">
@@ -3197,133 +3182,133 @@
       </c>
       <c r="E114"/>
       <c r="F114" t="s">
-        <v>318</v>
+        <v>211</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
+        <v>318</v>
+      </c>
+      <c r="B115" t="s">
+        <v>116</v>
+      </c>
+      <c r="C115" t="s">
+        <v>8</v>
+      </c>
+      <c r="D115" t="s">
         <v>319</v>
-      </c>
-      <c r="B115" t="s">
-        <v>7</v>
-      </c>
-      <c r="C115" t="s">
-        <v>8</v>
-      </c>
-      <c r="D115" t="s">
-        <v>320</v>
       </c>
       <c r="E115"/>
       <c r="F115" t="s">
-        <v>315</v>
+        <v>227</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
+        <v>320</v>
+      </c>
+      <c r="B116" t="s">
+        <v>7</v>
+      </c>
+      <c r="C116" t="s">
+        <v>8</v>
+      </c>
+      <c r="D116" t="s">
         <v>321</v>
-      </c>
-      <c r="B116" t="s">
-        <v>7</v>
-      </c>
-      <c r="C116" t="s">
-        <v>8</v>
-      </c>
-      <c r="D116" t="s">
-        <v>322</v>
       </c>
       <c r="E116"/>
       <c r="F116" t="s">
-        <v>218</v>
+        <v>310</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
+        <v>322</v>
+      </c>
+      <c r="B117" t="s">
+        <v>7</v>
+      </c>
+      <c r="C117" t="s">
+        <v>8</v>
+      </c>
+      <c r="D117" t="s">
         <v>323</v>
-      </c>
-      <c r="B117" t="s">
-        <v>121</v>
-      </c>
-      <c r="C117" t="s">
-        <v>8</v>
-      </c>
-      <c r="D117" t="s">
-        <v>324</v>
       </c>
       <c r="E117"/>
       <c r="F117" t="s">
-        <v>234</v>
+        <v>310</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
+        <v>324</v>
+      </c>
+      <c r="B118" t="s">
+        <v>116</v>
+      </c>
+      <c r="C118" t="s">
+        <v>8</v>
+      </c>
+      <c r="D118" t="s">
         <v>325</v>
-      </c>
-      <c r="B118" t="s">
-        <v>7</v>
-      </c>
-      <c r="C118" t="s">
-        <v>8</v>
-      </c>
-      <c r="D118" t="s">
-        <v>326</v>
       </c>
       <c r="E118"/>
       <c r="F118" t="s">
-        <v>315</v>
+        <v>227</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
+        <v>326</v>
+      </c>
+      <c r="B119" t="s">
+        <v>116</v>
+      </c>
+      <c r="C119" t="s">
+        <v>8</v>
+      </c>
+      <c r="D119" t="s">
         <v>327</v>
-      </c>
-      <c r="B119" t="s">
-        <v>7</v>
-      </c>
-      <c r="C119" t="s">
-        <v>8</v>
-      </c>
-      <c r="D119" t="s">
-        <v>328</v>
       </c>
       <c r="E119"/>
       <c r="F119" t="s">
-        <v>315</v>
+        <v>227</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
+        <v>328</v>
+      </c>
+      <c r="B120" t="s">
+        <v>45</v>
+      </c>
+      <c r="C120" t="s">
+        <v>8</v>
+      </c>
+      <c r="D120" t="s">
         <v>329</v>
-      </c>
-      <c r="B120" t="s">
-        <v>121</v>
-      </c>
-      <c r="C120" t="s">
-        <v>8</v>
-      </c>
-      <c r="D120" t="s">
-        <v>330</v>
       </c>
       <c r="E120"/>
       <c r="F120" t="s">
-        <v>234</v>
+        <v>178</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
+        <v>330</v>
+      </c>
+      <c r="B121" t="s">
+        <v>88</v>
+      </c>
+      <c r="C121" t="s">
+        <v>213</v>
+      </c>
+      <c r="D121" t="s">
         <v>331</v>
-      </c>
-      <c r="B121" t="s">
-        <v>121</v>
-      </c>
-      <c r="C121" t="s">
-        <v>8</v>
-      </c>
-      <c r="D121" t="s">
-        <v>332</v>
       </c>
       <c r="E121"/>
       <c r="F121" t="s">
-        <v>234</v>
+        <v>332</v>
       </c>
     </row>
     <row r="122">
@@ -3331,17 +3316,17 @@
         <v>333</v>
       </c>
       <c r="B122" t="s">
-        <v>45</v>
+        <v>217</v>
       </c>
       <c r="C122" t="s">
-        <v>8</v>
+        <v>218</v>
       </c>
       <c r="D122" t="s">
         <v>334</v>
       </c>
       <c r="E122"/>
       <c r="F122" t="s">
-        <v>185</v>
+        <v>220</v>
       </c>
     </row>
     <row r="123">
@@ -3349,35 +3334,35 @@
         <v>335</v>
       </c>
       <c r="B123" t="s">
-        <v>88</v>
+        <v>217</v>
       </c>
       <c r="C123" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D123" t="s">
         <v>336</v>
       </c>
       <c r="E123"/>
       <c r="F123" t="s">
-        <v>337</v>
+        <v>220</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
+        <v>337</v>
+      </c>
+      <c r="B124" t="s">
+        <v>88</v>
+      </c>
+      <c r="C124" t="s">
+        <v>213</v>
+      </c>
+      <c r="D124" t="s">
         <v>338</v>
-      </c>
-      <c r="B124" t="s">
-        <v>224</v>
-      </c>
-      <c r="C124" t="s">
-        <v>225</v>
-      </c>
-      <c r="D124" t="s">
-        <v>339</v>
       </c>
       <c r="E124"/>
       <c r="F124" t="s">
-        <v>227</v>
+        <v>339</v>
       </c>
     </row>
     <row r="125">
@@ -3385,17 +3370,17 @@
         <v>340</v>
       </c>
       <c r="B125" t="s">
-        <v>224</v>
+        <v>116</v>
       </c>
       <c r="C125" t="s">
-        <v>225</v>
+        <v>8</v>
       </c>
       <c r="D125" t="s">
         <v>341</v>
       </c>
       <c r="E125"/>
       <c r="F125" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
     </row>
     <row r="126">
@@ -3403,107 +3388,71 @@
         <v>342</v>
       </c>
       <c r="B126" t="s">
-        <v>88</v>
+        <v>239</v>
       </c>
       <c r="C126" t="s">
-        <v>220</v>
+        <v>343</v>
       </c>
       <c r="D126" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E126"/>
       <c r="F126" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B127" t="s">
-        <v>121</v>
+        <v>347</v>
       </c>
       <c r="C127" t="s">
-        <v>8</v>
+        <v>348</v>
       </c>
       <c r="D127" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="E127"/>
       <c r="F127" t="s">
-        <v>205</v>
+        <v>350</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="B128" t="s">
-        <v>249</v>
+        <v>217</v>
       </c>
       <c r="C128" t="s">
-        <v>348</v>
+        <v>218</v>
       </c>
       <c r="D128" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="E128"/>
       <c r="F128" t="s">
-        <v>350</v>
+        <v>220</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B129" t="s">
-        <v>352</v>
+        <v>217</v>
       </c>
       <c r="C129" t="s">
-        <v>353</v>
+        <v>218</v>
       </c>
       <c r="D129" t="s">
         <v>354</v>
       </c>
       <c r="E129"/>
       <c r="F129" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="s">
-        <v>356</v>
-      </c>
-      <c r="B130" t="s">
-        <v>224</v>
-      </c>
-      <c r="C130" t="s">
-        <v>225</v>
-      </c>
-      <c r="D130" t="s">
-        <v>357</v>
-      </c>
-      <c r="E130"/>
-      <c r="F130" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="s">
-        <v>358</v>
-      </c>
-      <c r="B131" t="s">
-        <v>224</v>
-      </c>
-      <c r="C131" t="s">
-        <v>225</v>
-      </c>
-      <c r="D131" t="s">
-        <v>359</v>
-      </c>
-      <c r="E131"/>
-      <c r="F131" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>

--- a/BarboursHOU/Test.xlsx
+++ b/BarboursHOU/Test.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="366">
   <si>
     <t>Equipment Number</t>
   </si>
@@ -32,978 +32,993 @@
     <t>BOLNumber</t>
   </si>
   <si>
-    <t>TRHU2310468</t>
+    <t>TTNU3584919</t>
+  </si>
+  <si>
+    <t>MOL GRATITUDE</t>
+  </si>
+  <si>
+    <t>0122</t>
+  </si>
+  <si>
+    <t>CHI1192795-CHI8106992</t>
+  </si>
+  <si>
+    <t>HAMV30498300</t>
+  </si>
+  <si>
+    <t>TLLU6045251</t>
+  </si>
+  <si>
+    <t>PHILADELPHIA EXPRESS</t>
+  </si>
+  <si>
+    <t>0063</t>
+  </si>
+  <si>
+    <t>CHI1193240-CHI8109253</t>
+  </si>
+  <si>
+    <t>LIVV21206900</t>
+  </si>
+  <si>
+    <t>TCLU3319556</t>
+  </si>
+  <si>
+    <t>CHI1192005-CHI8101181</t>
+  </si>
+  <si>
+    <t>HAMV26816900</t>
+  </si>
+  <si>
+    <t>NYKU3716889</t>
+  </si>
+  <si>
+    <t>MOL GLIDE</t>
+  </si>
+  <si>
+    <t>0049</t>
+  </si>
+  <si>
+    <t>CHI1207071-CHI8039276</t>
+  </si>
+  <si>
+    <t>HAMV37431400</t>
+  </si>
+  <si>
+    <t>NYKU3857568</t>
+  </si>
+  <si>
+    <t>AEGIALI</t>
+  </si>
+  <si>
+    <t>0010</t>
+  </si>
+  <si>
+    <t>CHI1219149-CHI8141530</t>
+  </si>
+  <si>
+    <t>HAMV29625300</t>
+  </si>
+  <si>
+    <t>GCNU1289415</t>
+  </si>
+  <si>
+    <t>ST. LOUIS EXPRESS</t>
+  </si>
+  <si>
+    <t>SLX3219</t>
+  </si>
+  <si>
+    <t>SA003743230101</t>
+  </si>
+  <si>
+    <t>SLX3219SA00374323</t>
+  </si>
+  <si>
+    <t>NYKU3337231</t>
+  </si>
+  <si>
+    <t>CHI1224155-CHI8141524</t>
+  </si>
+  <si>
+    <t>HAMV26561600</t>
+  </si>
+  <si>
+    <t>SEGU4015796</t>
+  </si>
+  <si>
+    <t>SA003680520101</t>
+  </si>
+  <si>
+    <t>SLX3219SA00368052</t>
+  </si>
+  <si>
+    <t>TCKU2358210</t>
+  </si>
+  <si>
+    <t>CHI1223950-CHI8141518</t>
+  </si>
+  <si>
+    <t>HAMV26656400</t>
+  </si>
+  <si>
+    <t>NYKU9755780</t>
+  </si>
+  <si>
+    <t>CHI1197827-CHI8141422</t>
+  </si>
+  <si>
+    <t>HAMV30585700</t>
+  </si>
+  <si>
+    <t>GESU6357432</t>
+  </si>
+  <si>
+    <t>TMM YUCATAN</t>
+  </si>
+  <si>
+    <t>PDX3119</t>
+  </si>
+  <si>
+    <t>SA003704450101</t>
+  </si>
+  <si>
+    <t>PDX3119SA00370445</t>
+  </si>
+  <si>
+    <t>NYKU4245377</t>
+  </si>
+  <si>
+    <t>CHI1232540-CHI8141546</t>
+  </si>
+  <si>
+    <t>LEHV09751600</t>
+  </si>
+  <si>
+    <t>NYKU3711341</t>
+  </si>
+  <si>
+    <t>CHI1197827-CHI8141421</t>
+  </si>
+  <si>
+    <t>GCNU1301790</t>
+  </si>
+  <si>
+    <t>CP YOSEMITE</t>
+  </si>
+  <si>
+    <t>SA003739330101</t>
+  </si>
+  <si>
+    <t>PDX3119SA00373933</t>
+  </si>
+  <si>
+    <t>TRHU3212851</t>
+  </si>
+  <si>
+    <t>CHI1224155-CHI8141528</t>
+  </si>
+  <si>
+    <t>MOAU0794110</t>
+  </si>
+  <si>
+    <t>CHI1223950-CHI8141519</t>
+  </si>
+  <si>
+    <t>DRYU4133684</t>
+  </si>
+  <si>
+    <t>WASHINGTON EXPRESS</t>
+  </si>
+  <si>
+    <t>0119</t>
+  </si>
+  <si>
+    <t>CHI1227144-CHI8368648</t>
+  </si>
+  <si>
+    <t>LIVV28038500</t>
+  </si>
+  <si>
+    <t>TRLU9685530</t>
+  </si>
+  <si>
+    <t>CHI1224155-CHI8141527</t>
+  </si>
+  <si>
+    <t>TRHU2365861</t>
+  </si>
+  <si>
+    <t>CHI1223950-CHI8141520</t>
+  </si>
+  <si>
+    <t>TRHU2663465</t>
+  </si>
+  <si>
+    <t>CHI1223950-CHI8141522</t>
+  </si>
+  <si>
+    <t>MOAU0771109</t>
+  </si>
+  <si>
+    <t>CHI1223950-CHI8141521</t>
+  </si>
+  <si>
+    <t>BMOU2150357</t>
+  </si>
+  <si>
+    <t>SA003763260101</t>
+  </si>
+  <si>
+    <t>SLX3219SA00376326</t>
+  </si>
+  <si>
+    <t>HJMU2133319</t>
+  </si>
+  <si>
+    <t>CHI1224155-CHI8141526</t>
+  </si>
+  <si>
+    <t>MOAU0790412</t>
+  </si>
+  <si>
+    <t>CHI1219149-CHI8141532</t>
+  </si>
+  <si>
+    <t>GIPU4408291</t>
+  </si>
+  <si>
+    <t>CHI1211205-CHI8141497</t>
+  </si>
+  <si>
+    <t>LIVV24603600</t>
+  </si>
+  <si>
+    <t>NYKU9733970</t>
+  </si>
+  <si>
+    <t>CHI1224155-CHI8141525</t>
+  </si>
+  <si>
+    <t>NYKU2951230</t>
+  </si>
+  <si>
+    <t>RIO BLACKWATER</t>
+  </si>
+  <si>
+    <t>0009</t>
+  </si>
+  <si>
+    <t>CHI1268653-CHI8659560</t>
+  </si>
+  <si>
+    <t>HAMV41557800</t>
+  </si>
+  <si>
+    <t>BSIU2620841</t>
   </si>
   <si>
     <t>GENOA</t>
   </si>
   <si>
-    <t>0010</t>
-  </si>
-  <si>
-    <t>CHI1187256-CHI8043557</t>
-  </si>
-  <si>
-    <t>LIVV24859500</t>
-  </si>
-  <si>
-    <t>TRHU2429328</t>
-  </si>
-  <si>
-    <t>MOL GRATITUDE</t>
-  </si>
-  <si>
-    <t>0122</t>
-  </si>
-  <si>
-    <t>CHI1192702-CHI8105940</t>
-  </si>
-  <si>
-    <t>HAMV26494400</t>
-  </si>
-  <si>
-    <t>TTNU3584919</t>
-  </si>
-  <si>
-    <t>CHI1192795-CHI8106992</t>
-  </si>
-  <si>
-    <t>HAMV30498300</t>
-  </si>
-  <si>
-    <t>TLLU6045251</t>
-  </si>
-  <si>
-    <t>PHILADELPHIA EXPRESS</t>
-  </si>
-  <si>
-    <t>0063</t>
-  </si>
-  <si>
-    <t>CHI1193240-CHI8109253</t>
-  </si>
-  <si>
-    <t>LIVV21206900</t>
-  </si>
-  <si>
-    <t>TCLU3319556</t>
-  </si>
-  <si>
-    <t>CHI1192005-CHI8101181</t>
-  </si>
-  <si>
-    <t>HAMV26816900</t>
-  </si>
-  <si>
-    <t>TRHU3895017</t>
-  </si>
-  <si>
-    <t>CHI1192061-CHI8101476</t>
-  </si>
-  <si>
-    <t>HAMV29361700</t>
-  </si>
-  <si>
-    <t>KKTU7918813</t>
-  </si>
-  <si>
-    <t>CHI1192061-CHI8101472</t>
-  </si>
-  <si>
-    <t>FCIU4026662</t>
-  </si>
-  <si>
-    <t>MOL GLIDE</t>
-  </si>
-  <si>
-    <t>0049</t>
-  </si>
-  <si>
-    <t>CHI1192800-CHI8107098</t>
-  </si>
-  <si>
-    <t>HAMV29356400</t>
-  </si>
-  <si>
-    <t>TCLU2382195</t>
-  </si>
-  <si>
-    <t>CHI1192061-CHI8101477</t>
-  </si>
-  <si>
-    <t>GCNU1320402</t>
+    <t>CHI1244554-CHI8141562</t>
+  </si>
+  <si>
+    <t>HAMV26765500</t>
+  </si>
+  <si>
+    <t>KKTU7918069</t>
+  </si>
+  <si>
+    <t>CHI1268660-CHI8659587</t>
+  </si>
+  <si>
+    <t>HAMV39977700</t>
+  </si>
+  <si>
+    <t>BSIU3100280</t>
+  </si>
+  <si>
+    <t>CHI1268663-CHI8659607</t>
+  </si>
+  <si>
+    <t>HAMV38502400</t>
+  </si>
+  <si>
+    <t>FCIU3901722</t>
+  </si>
+  <si>
+    <t>CHI1268672-CHI8659641</t>
+  </si>
+  <si>
+    <t>HAMV39225700</t>
+  </si>
+  <si>
+    <t>TCKU3974967</t>
+  </si>
+  <si>
+    <t>CHI1244479-CHI8141563</t>
+  </si>
+  <si>
+    <t>HAMV26748600</t>
+  </si>
+  <si>
+    <t>TEMU5263406</t>
+  </si>
+  <si>
+    <t>CHI1268660-CHI8659588</t>
+  </si>
+  <si>
+    <t>NYKU3380726</t>
+  </si>
+  <si>
+    <t>CHI1244554-CHI8141561</t>
+  </si>
+  <si>
+    <t>TRHU3783470</t>
+  </si>
+  <si>
+    <t>CHI1244598-CHI8141584</t>
+  </si>
+  <si>
+    <t>HAMV36726300</t>
+  </si>
+  <si>
+    <t>KKTU8039784</t>
+  </si>
+  <si>
+    <t>CHI1244602-CHI8141569</t>
+  </si>
+  <si>
+    <t>HAMV39034500</t>
+  </si>
+  <si>
+    <t>GESU6249356</t>
   </si>
   <si>
     <t>YORKTOWN EXPRESS</t>
   </si>
   <si>
-    <t>YTX3119</t>
-  </si>
-  <si>
-    <t>SA003722540101</t>
-  </si>
-  <si>
-    <t>YTX3119SA00372254</t>
-  </si>
-  <si>
-    <t>TEMU5144710</t>
-  </si>
-  <si>
-    <t>AEGIALI</t>
-  </si>
-  <si>
-    <t>CHI1224131-CHI8141537</t>
-  </si>
-  <si>
-    <t>HAMV31091700</t>
-  </si>
-  <si>
-    <t>TCLU3487884</t>
-  </si>
-  <si>
-    <t>CHI1223963-CHI8141542</t>
-  </si>
-  <si>
-    <t>HAMV34983600</t>
-  </si>
-  <si>
-    <t>NYKU3716889</t>
-  </si>
-  <si>
-    <t>CHI1207071-CHI8039276</t>
-  </si>
-  <si>
-    <t>HAMV37431400</t>
-  </si>
-  <si>
-    <t>CAIU3216700</t>
-  </si>
-  <si>
-    <t>CHI1219149-CHI8141536</t>
-  </si>
-  <si>
-    <t>HAMV29625300</t>
-  </si>
-  <si>
-    <t>NYKU3857568</t>
-  </si>
-  <si>
-    <t>CHI1219149-CHI8141530</t>
-  </si>
-  <si>
-    <t>FCIU2790347</t>
-  </si>
-  <si>
-    <t>CHI1219149-CHI8141535</t>
-  </si>
-  <si>
-    <t>GCNU1289415</t>
-  </si>
-  <si>
-    <t>ST. LOUIS EXPRESS</t>
-  </si>
-  <si>
-    <t>SLX3219</t>
-  </si>
-  <si>
-    <t>SA003743230101</t>
-  </si>
-  <si>
-    <t>SLX3219SA00374323</t>
-  </si>
-  <si>
-    <t>TRHU3899223</t>
-  </si>
-  <si>
-    <t>CHI1235746-CHI8431309</t>
-  </si>
-  <si>
-    <t>HAMV33154900</t>
-  </si>
-  <si>
-    <t>TRHU1920996</t>
-  </si>
-  <si>
-    <t>CHI1219149-CHI8141531</t>
-  </si>
-  <si>
-    <t>MOAU0788652</t>
-  </si>
-  <si>
-    <t>CHI1224131-CHI8141538</t>
-  </si>
-  <si>
-    <t>TCLU3419149</t>
-  </si>
-  <si>
-    <t>CHI1224155-CHI8141523</t>
-  </si>
-  <si>
-    <t>HAMV26561600</t>
-  </si>
-  <si>
-    <t>NYKU3337231</t>
-  </si>
-  <si>
-    <t>CHI1224155-CHI8141524</t>
-  </si>
-  <si>
-    <t>SEGU4015796</t>
-  </si>
-  <si>
-    <t>SA003680520101</t>
-  </si>
-  <si>
-    <t>SLX3219SA00368052</t>
-  </si>
-  <si>
-    <t>TCKU2358210</t>
-  </si>
-  <si>
-    <t>CHI1223950-CHI8141518</t>
-  </si>
-  <si>
-    <t>HAMV26656400</t>
-  </si>
-  <si>
-    <t>NYKU9755780</t>
-  </si>
-  <si>
-    <t>CHI1197827-CHI8141422</t>
-  </si>
-  <si>
-    <t>HAMV30585700</t>
-  </si>
-  <si>
-    <t>TCNU7084204</t>
-  </si>
-  <si>
-    <t>WASHINGTON EXPRESS</t>
-  </si>
-  <si>
-    <t>119W</t>
-  </si>
-  <si>
-    <t>9075905773-01</t>
-  </si>
-  <si>
-    <t>HLCUHAM190333079</t>
-  </si>
-  <si>
-    <t>MOAU5830565</t>
-  </si>
-  <si>
-    <t>CHI1224131-CHI8141539</t>
-  </si>
-  <si>
-    <t>TCLU7280175</t>
-  </si>
-  <si>
-    <t>CHI1223963-CHI8141544</t>
-  </si>
-  <si>
-    <t>TCKU1466150</t>
-  </si>
-  <si>
-    <t>CHI1215573-CHI8251297</t>
-  </si>
-  <si>
-    <t>LEHV11083400</t>
-  </si>
-  <si>
-    <t>GESU6357432</t>
-  </si>
-  <si>
-    <t>TMM YUCATAN</t>
-  </si>
-  <si>
-    <t>PDX3119</t>
-  </si>
-  <si>
-    <t>SA003704450101</t>
-  </si>
-  <si>
-    <t>PDX3119SA00370445</t>
-  </si>
-  <si>
-    <t>NYKU3594543</t>
-  </si>
-  <si>
-    <t>CHI1215573-CHI8251298</t>
-  </si>
-  <si>
-    <t>MOAU1407154</t>
-  </si>
-  <si>
-    <t>CHI1215573-CHI8251296</t>
-  </si>
-  <si>
-    <t>NYKU4245377</t>
-  </si>
-  <si>
-    <t>CHI1232540-CHI8141546</t>
-  </si>
-  <si>
-    <t>LEHV09751600</t>
-  </si>
-  <si>
-    <t>NYKU3711341</t>
-  </si>
-  <si>
-    <t>CHI1197827-CHI8141421</t>
-  </si>
-  <si>
-    <t>KKTU7923229</t>
-  </si>
-  <si>
-    <t>CHI1223963-CHI8141543</t>
-  </si>
-  <si>
-    <t>TCLU1189134</t>
+    <t>YTX3319</t>
+  </si>
+  <si>
+    <t>SA003867570101</t>
+  </si>
+  <si>
+    <t>YTX3319SA00386757</t>
+  </si>
+  <si>
+    <t>ACLU9718425</t>
+  </si>
+  <si>
+    <t>SA003868050101</t>
+  </si>
+  <si>
+    <t>YTX3319SA00386805</t>
+  </si>
+  <si>
+    <t>KKFU7771287</t>
+  </si>
+  <si>
+    <t>0066</t>
+  </si>
+  <si>
+    <t>CHI1267241-CHI8647928</t>
+  </si>
+  <si>
+    <t>LIVV28298600</t>
+  </si>
+  <si>
+    <t>ACLU2779619</t>
+  </si>
+  <si>
+    <t>WSX3219</t>
+  </si>
+  <si>
+    <t>SA003794040101</t>
+  </si>
+  <si>
+    <t>WSX3219SA00379404</t>
+  </si>
+  <si>
+    <t>TRHU3936570</t>
+  </si>
+  <si>
+    <t>CHI1268653-CHI8659558</t>
+  </si>
+  <si>
+    <t>NYKU9907521</t>
+  </si>
+  <si>
+    <t>CHI1268660-CHI8659589</t>
+  </si>
+  <si>
+    <t>TCKU2947735</t>
+  </si>
+  <si>
+    <t>CHI1268557-CHI8658509</t>
+  </si>
+  <si>
+    <t>HAMV37982800</t>
+  </si>
+  <si>
+    <t>MOAU1421949</t>
+  </si>
+  <si>
+    <t>CHI1268663-CHI8659608</t>
+  </si>
+  <si>
+    <t>FCIU4539520</t>
+  </si>
+  <si>
+    <t>CHI1268669-CHI8659617</t>
+  </si>
+  <si>
+    <t>HAMV41562400</t>
+  </si>
+  <si>
+    <t>TEMU0842621</t>
+  </si>
+  <si>
+    <t>CHI1268672-CHI8659642</t>
+  </si>
+  <si>
+    <t>MOAU0690774</t>
+  </si>
+  <si>
+    <t>CHI1268557-CHI8658508</t>
+  </si>
+  <si>
+    <t>MOAU6754372</t>
+  </si>
+  <si>
+    <t>CHI1268557-CHI8658511</t>
+  </si>
+  <si>
+    <t>BSIU2850280</t>
+  </si>
+  <si>
+    <t>JPO SCORPIUS</t>
+  </si>
+  <si>
+    <t>1916N</t>
+  </si>
+  <si>
+    <t>9072906048-01</t>
+  </si>
+  <si>
+    <t>HLCUSJ2190502134</t>
+  </si>
+  <si>
+    <t>BSIU3086670</t>
+  </si>
+  <si>
+    <t>CHI1268672-CHI8659644</t>
+  </si>
+  <si>
+    <t>KKFU1786171</t>
+  </si>
+  <si>
+    <t>CHI1268686-CHI8659661</t>
+  </si>
+  <si>
+    <t>LIVV29392900</t>
+  </si>
+  <si>
+    <t>TCNU6880676</t>
+  </si>
+  <si>
+    <t>CHI1267241-CHI8647924</t>
+  </si>
+  <si>
+    <t>MOTU0614106</t>
+  </si>
+  <si>
+    <t>CHI1267241-CHI8647926</t>
+  </si>
+  <si>
+    <t>ZMOU8827290</t>
+  </si>
+  <si>
+    <t>CHACABUCO</t>
+  </si>
+  <si>
+    <t>26W</t>
+  </si>
+  <si>
+    <t>9071906469-01</t>
+  </si>
+  <si>
+    <t>ZIMUGOA420128</t>
+  </si>
+  <si>
+    <t>TLLU6121541</t>
+  </si>
+  <si>
+    <t>CHI1267241-CHI8647929</t>
+  </si>
+  <si>
+    <t>NYKU3773235</t>
+  </si>
+  <si>
+    <t>CHI1275232-CHI8708682</t>
+  </si>
+  <si>
+    <t>HAMV37195400</t>
+  </si>
+  <si>
+    <t>NYKU9789537</t>
+  </si>
+  <si>
+    <t>CHI1275245-CHI8708746</t>
+  </si>
+  <si>
+    <t>HAMV38524800</t>
+  </si>
+  <si>
+    <t>TRHU3938994</t>
+  </si>
+  <si>
+    <t>CHI1268663-CHI8659609</t>
+  </si>
+  <si>
+    <t>MOAU0611902</t>
+  </si>
+  <si>
+    <t>CHI1268669-CHI8659619</t>
+  </si>
+  <si>
+    <t>TCLU6106826</t>
+  </si>
+  <si>
+    <t>0050</t>
+  </si>
+  <si>
+    <t>CHI1275888-CHI8712552</t>
+  </si>
+  <si>
+    <t>ANRV14822500</t>
+  </si>
+  <si>
+    <t>GLDU9381090</t>
+  </si>
+  <si>
+    <t>CHI1244598-CHI8141581</t>
+  </si>
+  <si>
+    <t>NYKU3630928</t>
+  </si>
+  <si>
+    <t>CHI1244602-CHI8141571</t>
+  </si>
+  <si>
+    <t>NYKU3724734</t>
   </si>
   <si>
     <t>MY NY</t>
   </si>
   <si>
-    <t>010W</t>
-  </si>
-  <si>
-    <t>9075905483-01</t>
-  </si>
-  <si>
-    <t>HLCULE1190419260</t>
-  </si>
-  <si>
-    <t>GCNU1301790</t>
-  </si>
-  <si>
-    <t>CP YOSEMITE</t>
-  </si>
-  <si>
-    <t>SA003739330101</t>
-  </si>
-  <si>
-    <t>PDX3119SA00373933</t>
-  </si>
-  <si>
-    <t>RFCU4046915</t>
-  </si>
-  <si>
-    <t>COSCO ISTANBUL</t>
-  </si>
-  <si>
-    <t>036E</t>
-  </si>
-  <si>
-    <t>9074905638-01</t>
-  </si>
-  <si>
-    <t>COSU6207256870</t>
-  </si>
-  <si>
-    <t>TCLU9341897</t>
-  </si>
-  <si>
-    <t>CHI1199794-CHI8141496</t>
-  </si>
-  <si>
-    <t>LEHV11181300</t>
-  </si>
-  <si>
-    <t>XINU8154575</t>
-  </si>
-  <si>
-    <t>CHI1227891-CHI8373636</t>
-  </si>
-  <si>
-    <t>GOTV02836600</t>
-  </si>
-  <si>
-    <t>TCKU1709033</t>
-  </si>
-  <si>
-    <t>CHI1224131-CHI8141540</t>
-  </si>
-  <si>
-    <t>TRHU3212851</t>
-  </si>
-  <si>
-    <t>CHI1224155-CHI8141528</t>
-  </si>
-  <si>
-    <t>TRHU1932868</t>
-  </si>
-  <si>
-    <t>CHI1219149-CHI8141534</t>
-  </si>
-  <si>
-    <t>MOAU0794110</t>
-  </si>
-  <si>
-    <t>CHI1223950-CHI8141519</t>
-  </si>
-  <si>
-    <t>DRYU4133684</t>
-  </si>
-  <si>
-    <t>0119</t>
-  </si>
-  <si>
-    <t>CHI1227144-CHI8368648</t>
-  </si>
-  <si>
-    <t>LIVV28038500</t>
-  </si>
-  <si>
-    <t>TRLU9685530</t>
-  </si>
-  <si>
-    <t>CHI1224155-CHI8141527</t>
-  </si>
-  <si>
-    <t>TRHU2365861</t>
-  </si>
-  <si>
-    <t>CHI1223950-CHI8141520</t>
-  </si>
-  <si>
-    <t>TCKU1353549</t>
-  </si>
-  <si>
-    <t>CHI1223963-CHI8141545</t>
-  </si>
-  <si>
-    <t>TRHU2663465</t>
-  </si>
-  <si>
-    <t>CHI1223950-CHI8141522</t>
-  </si>
-  <si>
-    <t>MOAU0771109</t>
-  </si>
-  <si>
-    <t>CHI1223950-CHI8141521</t>
-  </si>
-  <si>
-    <t>TCLU6956141</t>
-  </si>
-  <si>
-    <t>CHI1235746-CHI8431308</t>
-  </si>
-  <si>
-    <t>BMOU2150357</t>
-  </si>
-  <si>
-    <t>SA003763260101</t>
-  </si>
-  <si>
-    <t>SLX3219SA00376326</t>
-  </si>
-  <si>
-    <t>TCKU1546595</t>
-  </si>
-  <si>
-    <t>CHI1219149-CHI8141533</t>
-  </si>
-  <si>
-    <t>LNXU9658271</t>
-  </si>
-  <si>
-    <t>9075905484-01</t>
-  </si>
-  <si>
-    <t>TCNU1889428</t>
-  </si>
-  <si>
-    <t>9074905599-01</t>
-  </si>
-  <si>
-    <t>YMLUT936034004</t>
-  </si>
-  <si>
-    <t>TGBU6455928</t>
-  </si>
-  <si>
-    <t>9074905598-01</t>
-  </si>
-  <si>
-    <t>TGBU6151479</t>
-  </si>
-  <si>
-    <t>9074905619-01</t>
-  </si>
-  <si>
-    <t>YMLUT936033979</t>
-  </si>
-  <si>
-    <t>HJMU2133319</t>
-  </si>
-  <si>
-    <t>CHI1224155-CHI8141526</t>
-  </si>
-  <si>
-    <t>TCLU4524030</t>
-  </si>
-  <si>
-    <t>CHI1232958-CHI8141547</t>
+    <t>CHI1244610-CHI8141589</t>
+  </si>
+  <si>
+    <t>HAMV27781400</t>
+  </si>
+  <si>
+    <t>MOAU5812108</t>
+  </si>
+  <si>
+    <t>CHI1244610-CHI8141593</t>
+  </si>
+  <si>
+    <t>FCIU3947209</t>
+  </si>
+  <si>
+    <t>CHI1244479-CHI8141566</t>
+  </si>
+  <si>
+    <t>CCLU5261117</t>
+  </si>
+  <si>
+    <t>COSCO SANTOS</t>
+  </si>
+  <si>
+    <t>048E</t>
+  </si>
+  <si>
+    <t>9078905066-01</t>
+  </si>
+  <si>
+    <t>COSU6199214030</t>
+  </si>
+  <si>
+    <t>GCNU4685364</t>
+  </si>
+  <si>
+    <t>CHARLESTON EXPRESS</t>
+  </si>
+  <si>
+    <t>CLX3219</t>
+  </si>
+  <si>
+    <t>SA003729540102</t>
+  </si>
+  <si>
+    <t>CLX3219SA00372954</t>
+  </si>
+  <si>
+    <t>TCNU6021644</t>
+  </si>
+  <si>
+    <t>CHI1267241-CHI8647925</t>
+  </si>
+  <si>
+    <t>MAGU5516951</t>
+  </si>
+  <si>
+    <t>9077905746-01</t>
+  </si>
+  <si>
+    <t>COSU6178994460</t>
+  </si>
+  <si>
+    <t>NYKU3314262</t>
+  </si>
+  <si>
+    <t>CHI1268557-CHI8658510</t>
+  </si>
+  <si>
+    <t>CBHU9008529</t>
+  </si>
+  <si>
+    <t>9077905130-01</t>
+  </si>
+  <si>
+    <t>COSU6207302380</t>
+  </si>
+  <si>
+    <t>TCLU9516830</t>
+  </si>
+  <si>
+    <t>066W</t>
+  </si>
+  <si>
+    <t>9071906581-01</t>
+  </si>
+  <si>
+    <t>HLCUHAM190415957</t>
+  </si>
+  <si>
+    <t>NYKU9800390</t>
+  </si>
+  <si>
+    <t>CHI1236091-CHI8432759</t>
+  </si>
+  <si>
+    <t>LIVV19830500</t>
+  </si>
+  <si>
+    <t>TCLU3534923</t>
+  </si>
+  <si>
+    <t>CHI1244554-CHI8141558</t>
+  </si>
+  <si>
+    <t>NYKU4830432</t>
+  </si>
+  <si>
+    <t>CHI1236219-CHI8433195</t>
+  </si>
+  <si>
+    <t>ANRV10925500</t>
+  </si>
+  <si>
+    <t>NYKU9802665</t>
+  </si>
+  <si>
+    <t>CHI1244474-CHI8141574</t>
+  </si>
+  <si>
+    <t>HAMV26704500</t>
+  </si>
+  <si>
+    <t>MOAU0673099</t>
+  </si>
+  <si>
+    <t>CHI1236199-CHI8432790</t>
+  </si>
+  <si>
+    <t>LIVV27021300</t>
+  </si>
+  <si>
+    <t>TRHU3127913</t>
+  </si>
+  <si>
+    <t>CHI1244479-CHI8141564</t>
+  </si>
+  <si>
+    <t>NYKU9884880</t>
+  </si>
+  <si>
+    <t>CHI1268669-CHI8659618</t>
+  </si>
+  <si>
+    <t>TRHU1271670</t>
+  </si>
+  <si>
+    <t>CHI1268672-CHI8659643</t>
+  </si>
+  <si>
+    <t>NYKU3811891</t>
+  </si>
+  <si>
+    <t>CHI1268660-CHI8659590</t>
+  </si>
+  <si>
+    <t>ONEU0235758</t>
+  </si>
+  <si>
+    <t>CHI1267241-CHI8647931</t>
+  </si>
+  <si>
+    <t>NYKU3291830</t>
+  </si>
+  <si>
+    <t>CHI1268653-CHI8659561</t>
+  </si>
+  <si>
+    <t>NYKU3653369</t>
+  </si>
+  <si>
+    <t>CHI1268645-CHI8659542</t>
+  </si>
+  <si>
+    <t>HAMV41567900</t>
+  </si>
+  <si>
+    <t>FBIU0327584</t>
+  </si>
+  <si>
+    <t>CHI1268645-CHI8659541</t>
+  </si>
+  <si>
+    <t>TCLU2541384</t>
+  </si>
+  <si>
+    <t>CHI1268645-CHI8659544</t>
+  </si>
+  <si>
+    <t>TRHU3893837</t>
+  </si>
+  <si>
+    <t>CHI1268645-CHI8659543</t>
+  </si>
+  <si>
+    <t>NYKU3759704</t>
+  </si>
+  <si>
+    <t>CHI1268663-CHI8659610</t>
+  </si>
+  <si>
+    <t>TCLU3904946</t>
+  </si>
+  <si>
+    <t>CHI1268653-CHI8659559</t>
+  </si>
+  <si>
+    <t>NYKU3121772</t>
+  </si>
+  <si>
+    <t>CHI1268669-CHI8659616</t>
+  </si>
+  <si>
+    <t>TRHU3130727</t>
+  </si>
+  <si>
+    <t>CHI1244479-CHI8141567</t>
+  </si>
+  <si>
+    <t>CSLU6042182</t>
+  </si>
+  <si>
+    <t>9077905158-01</t>
+  </si>
+  <si>
+    <t>COSU6207302390</t>
+  </si>
+  <si>
+    <t>TEMU4823229</t>
+  </si>
+  <si>
+    <t>CHI1244554-CHI8141560</t>
+  </si>
+  <si>
+    <t>NYKU3880418</t>
+  </si>
+  <si>
+    <t>CHI1244474-CHI8141575</t>
+  </si>
+  <si>
+    <t>MOAU0632274</t>
+  </si>
+  <si>
+    <t>CHI1244474-CHI8141572</t>
+  </si>
+  <si>
+    <t>GESU6370590</t>
+  </si>
+  <si>
+    <t>SA003840460101</t>
+  </si>
+  <si>
+    <t>CLX3219SA00384046</t>
+  </si>
+  <si>
+    <t>KKFU7755434</t>
+  </si>
+  <si>
+    <t>CHI1267241-CHI8647930</t>
+  </si>
+  <si>
+    <t>LIVV30964600</t>
+  </si>
+  <si>
+    <t>TRLU7610954</t>
+  </si>
+  <si>
+    <t>CHI1267241-CHI8647923</t>
+  </si>
+  <si>
+    <t>GCNU4699590</t>
+  </si>
+  <si>
+    <t>SA003803460101</t>
+  </si>
+  <si>
+    <t>CLX3219SA00380346</t>
+  </si>
+  <si>
+    <t>GCNU1253412</t>
+  </si>
+  <si>
+    <t>SA003815820101</t>
+  </si>
+  <si>
+    <t>CLX3219SA00381582</t>
+  </si>
+  <si>
+    <t>DFSU1054936</t>
+  </si>
+  <si>
+    <t>CHI1244474-CHI8141573</t>
+  </si>
+  <si>
+    <t>AKLU6021982</t>
+  </si>
+  <si>
+    <t>CHI1244474-CHI8141576</t>
+  </si>
+  <si>
+    <t>BMOU2696179</t>
+  </si>
+  <si>
+    <t>CHI1244598-CHI8141583</t>
+  </si>
+  <si>
+    <t>TCKU3963746</t>
+  </si>
+  <si>
+    <t>CHI1244554-CHI8141559</t>
+  </si>
+  <si>
+    <t>TCNU4904212</t>
+  </si>
+  <si>
+    <t>CHI1240747-CHI8141556</t>
+  </si>
+  <si>
+    <t>LEHV11187900</t>
+  </si>
+  <si>
+    <t>CAIU2080814</t>
+  </si>
+  <si>
+    <t>CHI1244479-CHI8141565</t>
+  </si>
+  <si>
+    <t>SEGU1917014</t>
+  </si>
+  <si>
+    <t>CHI1244598-CHI8141582</t>
+  </si>
+  <si>
+    <t>BSIU2468981</t>
+  </si>
+  <si>
+    <t>CHI1244602-CHI8141568</t>
+  </si>
+  <si>
+    <t>HLXU8268054</t>
+  </si>
+  <si>
+    <t>9071906583-01</t>
+  </si>
+  <si>
+    <t>DFSU6638790</t>
+  </si>
+  <si>
+    <t>9071906582-01</t>
+  </si>
+  <si>
+    <t>TCLU1458594</t>
+  </si>
+  <si>
+    <t>9071906580-01</t>
+  </si>
+  <si>
+    <t>HLCUHAM190415980</t>
+  </si>
+  <si>
+    <t>KKTU7753056</t>
+  </si>
+  <si>
+    <t>CHI1244566-CHI8141577</t>
+  </si>
+  <si>
+    <t>HAMV35968300</t>
+  </si>
+  <si>
+    <t>SEGU2313929</t>
+  </si>
+  <si>
+    <t>CHI1244566-CHI8141579</t>
+  </si>
+  <si>
+    <t>KKTU7986042</t>
+  </si>
+  <si>
+    <t>CHI1244602-CHI8141570</t>
+  </si>
+  <si>
+    <t>DFSU1024778</t>
+  </si>
+  <si>
+    <t>CHI1244610-CHI8141590</t>
+  </si>
+  <si>
+    <t>NYKU3265194</t>
+  </si>
+  <si>
+    <t>CHI1244566-CHI8141580</t>
+  </si>
+  <si>
+    <t>TCLU3792105</t>
+  </si>
+  <si>
+    <t>CHI1244566-CHI8141578</t>
+  </si>
+  <si>
+    <t>NYKU3746796</t>
+  </si>
+  <si>
+    <t>CHI1244610-CHI8141591</t>
+  </si>
+  <si>
+    <t>TCKU3465379</t>
+  </si>
+  <si>
+    <t>CHI1244610-CHI8141592</t>
+  </si>
+  <si>
+    <t>NYKU8412744</t>
+  </si>
+  <si>
+    <t>CHI1240768-CHI8141549</t>
   </si>
   <si>
     <t>ANRV10399300</t>
   </si>
   <si>
-    <t>TGBU5561972</t>
-  </si>
-  <si>
-    <t>9074905617-01</t>
-  </si>
-  <si>
-    <t>MOAU0790412</t>
-  </si>
-  <si>
-    <t>CHI1219149-CHI8141532</t>
-  </si>
-  <si>
-    <t>MOFU5825787</t>
-  </si>
-  <si>
-    <t>CHI1232958-CHI8141550</t>
-  </si>
-  <si>
-    <t>GIPU4408291</t>
-  </si>
-  <si>
-    <t>CHI1211205-CHI8141497</t>
-  </si>
-  <si>
-    <t>LIVV24603600</t>
-  </si>
-  <si>
-    <t>NYKU9733970</t>
-  </si>
-  <si>
-    <t>CHI1224155-CHI8141525</t>
-  </si>
-  <si>
-    <t>BSIU2620841</t>
-  </si>
-  <si>
-    <t>CHI1244554-CHI8141562</t>
-  </si>
-  <si>
-    <t>HAMV26765500</t>
-  </si>
-  <si>
-    <t>TCKU3974967</t>
-  </si>
-  <si>
-    <t>CHI1244479-CHI8141563</t>
-  </si>
-  <si>
-    <t>HAMV26748600</t>
-  </si>
-  <si>
-    <t>KKFU1860535</t>
-  </si>
-  <si>
-    <t>CHI1247276-CHI8141587</t>
-  </si>
-  <si>
-    <t>ANRV12746800</t>
-  </si>
-  <si>
-    <t>NYKU8053670</t>
-  </si>
-  <si>
-    <t>00010</t>
-  </si>
-  <si>
-    <t>DJLRDA4146699</t>
-  </si>
-  <si>
-    <t>711096138</t>
-  </si>
-  <si>
-    <t>ONEYLIVV23629600</t>
-  </si>
-  <si>
-    <t>NYKU3380726</t>
-  </si>
-  <si>
-    <t>CHI1244554-CHI8141561</t>
-  </si>
-  <si>
-    <t>TRHU3783470</t>
-  </si>
-  <si>
-    <t>CHI1244598-CHI8141584</t>
-  </si>
-  <si>
-    <t>HAMV36726300</t>
-  </si>
-  <si>
-    <t>KKTU8039784</t>
-  </si>
-  <si>
-    <t>CHI1244602-CHI8141569</t>
-  </si>
-  <si>
-    <t>HAMV39034500</t>
-  </si>
-  <si>
-    <t>ACLU2779619</t>
-  </si>
-  <si>
-    <t>WSX3219</t>
-  </si>
-  <si>
-    <t>SA003794040101</t>
-  </si>
-  <si>
-    <t>WSX3219SA00379404</t>
-  </si>
-  <si>
-    <t>KKFU7648591</t>
-  </si>
-  <si>
-    <t>CHARLESTON EXPRESS</t>
-  </si>
-  <si>
-    <t>0068</t>
-  </si>
-  <si>
-    <t>CHI1247070-CHI8510217</t>
-  </si>
-  <si>
-    <t>LIVV28290500</t>
-  </si>
-  <si>
-    <t>GLDU9381090</t>
-  </si>
-  <si>
-    <t>CHI1244598-CHI8141581</t>
-  </si>
-  <si>
-    <t>NYKU3630928</t>
-  </si>
-  <si>
-    <t>CHI1244602-CHI8141571</t>
-  </si>
-  <si>
-    <t>NYKU3724734</t>
-  </si>
-  <si>
-    <t>CHI1244610-CHI8141589</t>
-  </si>
-  <si>
-    <t>HAMV27781400</t>
-  </si>
-  <si>
-    <t>MOAU5812108</t>
-  </si>
-  <si>
-    <t>CHI1244610-CHI8141593</t>
-  </si>
-  <si>
-    <t>FCIU3947209</t>
-  </si>
-  <si>
-    <t>CHI1244479-CHI8141566</t>
-  </si>
-  <si>
-    <t>GCNU4685364</t>
-  </si>
-  <si>
-    <t>CLX3219</t>
-  </si>
-  <si>
-    <t>SA003729540102</t>
-  </si>
-  <si>
-    <t>CLX3219SA00372954</t>
-  </si>
-  <si>
-    <t>SEGU5077004</t>
-  </si>
-  <si>
-    <t>DJLRDA4146706</t>
-  </si>
-  <si>
-    <t>MAGU5516951</t>
-  </si>
-  <si>
-    <t>COSCO SANTOS</t>
-  </si>
-  <si>
-    <t>048E</t>
-  </si>
-  <si>
-    <t>9077905746-01</t>
-  </si>
-  <si>
-    <t>COSU6178994460</t>
-  </si>
-  <si>
-    <t>TCLU4689004</t>
-  </si>
-  <si>
-    <t>CHI1247071-CHI8510219</t>
-  </si>
-  <si>
-    <t>LIVV30247700</t>
-  </si>
-  <si>
-    <t>FDCU0357390</t>
-  </si>
-  <si>
-    <t>CHI1247070-CHI8510221</t>
-  </si>
-  <si>
-    <t>NYKU5745654</t>
-  </si>
-  <si>
-    <t>CHI1247070-CHI8510216</t>
-  </si>
-  <si>
-    <t>CBHU9008529</t>
-  </si>
-  <si>
-    <t>9077905130-01</t>
-  </si>
-  <si>
-    <t>COSU6207302380</t>
-  </si>
-  <si>
-    <t>NYKU9800390</t>
-  </si>
-  <si>
-    <t>CHI1236091-CHI8432759</t>
-  </si>
-  <si>
-    <t>LIVV19830500</t>
-  </si>
-  <si>
-    <t>TCLU3534923</t>
-  </si>
-  <si>
-    <t>CHI1244554-CHI8141558</t>
-  </si>
-  <si>
-    <t>NYKU4830432</t>
-  </si>
-  <si>
-    <t>CHI1236219-CHI8433195</t>
-  </si>
-  <si>
-    <t>ANRV10925500</t>
-  </si>
-  <si>
-    <t>NYKU9802665</t>
-  </si>
-  <si>
-    <t>CHI1244474-CHI8141574</t>
-  </si>
-  <si>
-    <t>HAMV26704500</t>
-  </si>
-  <si>
-    <t>NYKU4754013</t>
-  </si>
-  <si>
-    <t>CHI1247070-CHI8510218</t>
-  </si>
-  <si>
-    <t>TCNU3026323</t>
-  </si>
-  <si>
-    <t>CHI1247070-CHI8510223</t>
-  </si>
-  <si>
-    <t>MOAU0673099</t>
-  </si>
-  <si>
-    <t>CHI1236199-CHI8432790</t>
-  </si>
-  <si>
-    <t>LIVV27021300</t>
-  </si>
-  <si>
-    <t>TRHU3127913</t>
-  </si>
-  <si>
-    <t>CHI1244479-CHI8141564</t>
-  </si>
-  <si>
-    <t>MOFU1414540</t>
-  </si>
-  <si>
-    <t>CHI1247276-CHI8141586</t>
-  </si>
-  <si>
-    <t>TRHU3130727</t>
-  </si>
-  <si>
-    <t>CHI1244479-CHI8141567</t>
-  </si>
-  <si>
-    <t>CSLU6042182</t>
-  </si>
-  <si>
-    <t>9077905158-01</t>
-  </si>
-  <si>
-    <t>COSU6207302390</t>
-  </si>
-  <si>
-    <t>TEMU4823229</t>
-  </si>
-  <si>
-    <t>CHI1244554-CHI8141560</t>
-  </si>
-  <si>
-    <t>NYKU3880418</t>
-  </si>
-  <si>
-    <t>CHI1244474-CHI8141575</t>
-  </si>
-  <si>
-    <t>MOAU0632274</t>
-  </si>
-  <si>
-    <t>CHI1244474-CHI8141572</t>
-  </si>
-  <si>
-    <t>GESU6370590</t>
-  </si>
-  <si>
-    <t>SA003840460101</t>
-  </si>
-  <si>
-    <t>CLX3219SA00384046</t>
-  </si>
-  <si>
-    <t>DFSU4377280</t>
-  </si>
-  <si>
-    <t>CHI1247276-CHI8141585</t>
-  </si>
-  <si>
-    <t>DFSU1054936</t>
-  </si>
-  <si>
-    <t>CHI1244474-CHI8141573</t>
-  </si>
-  <si>
-    <t>AKLU6021982</t>
-  </si>
-  <si>
-    <t>CHI1244474-CHI8141576</t>
-  </si>
-  <si>
-    <t>BMOU2696179</t>
-  </si>
-  <si>
-    <t>CHI1244598-CHI8141583</t>
-  </si>
-  <si>
-    <t>TCKU3963746</t>
-  </si>
-  <si>
-    <t>CHI1244554-CHI8141559</t>
-  </si>
-  <si>
-    <t>TCNU4904212</t>
-  </si>
-  <si>
-    <t>CHI1240747-CHI8141556</t>
-  </si>
-  <si>
-    <t>LEHV11187900</t>
-  </si>
-  <si>
-    <t>CAIU2080814</t>
-  </si>
-  <si>
-    <t>CHI1244479-CHI8141565</t>
-  </si>
-  <si>
-    <t>SEGU1917014</t>
-  </si>
-  <si>
-    <t>CHI1244598-CHI8141582</t>
-  </si>
-  <si>
-    <t>BSIU2468981</t>
-  </si>
-  <si>
-    <t>CHI1244602-CHI8141568</t>
-  </si>
-  <si>
-    <t>KKTU7753056</t>
-  </si>
-  <si>
-    <t>CHI1244566-CHI8141577</t>
-  </si>
-  <si>
-    <t>HAMV35968300</t>
-  </si>
-  <si>
-    <t>KKTU7884380</t>
-  </si>
-  <si>
-    <t>CHI1236200-CHI8432996</t>
-  </si>
-  <si>
-    <t>HAMV35341900</t>
-  </si>
-  <si>
-    <t>SEGU2313929</t>
-  </si>
-  <si>
-    <t>CHI1244566-CHI8141579</t>
-  </si>
-  <si>
-    <t>KKTU7986042</t>
-  </si>
-  <si>
-    <t>CHI1244602-CHI8141570</t>
-  </si>
-  <si>
-    <t>DFSU1024778</t>
-  </si>
-  <si>
-    <t>CHI1244610-CHI8141590</t>
-  </si>
-  <si>
-    <t>NYKU3265194</t>
-  </si>
-  <si>
-    <t>CHI1244566-CHI8141580</t>
-  </si>
-  <si>
-    <t>TCLU3792105</t>
-  </si>
-  <si>
-    <t>CHI1244566-CHI8141578</t>
-  </si>
-  <si>
-    <t>NYKU3746796</t>
-  </si>
-  <si>
-    <t>CHI1244610-CHI8141591</t>
-  </si>
-  <si>
-    <t>TCKU3465379</t>
-  </si>
-  <si>
-    <t>CHI1244610-CHI8141592</t>
-  </si>
-  <si>
-    <t>NYKU8412744</t>
-  </si>
-  <si>
-    <t>CHI1240768-CHI8141549</t>
-  </si>
-  <si>
     <t>GCNU4768622</t>
   </si>
   <si>
@@ -1013,18 +1028,6 @@
     <t>WSX3219SA00378016</t>
   </si>
   <si>
-    <t>CAIU9322165</t>
-  </si>
-  <si>
-    <t>CHI1247070-CHI8510222</t>
-  </si>
-  <si>
-    <t>NYKU4246239</t>
-  </si>
-  <si>
-    <t>CHI1247070-CHI8510215</t>
-  </si>
-  <si>
     <t>DRYU9620052</t>
   </si>
   <si>
@@ -1034,30 +1037,9 @@
     <t>WSX3219SA00375716</t>
   </si>
   <si>
-    <t>CAIU4132671</t>
-  </si>
-  <si>
-    <t>CHI1247276-CHI8141588</t>
-  </si>
-  <si>
-    <t>TCLU1840483</t>
-  </si>
-  <si>
-    <t>0TY39E1MA</t>
-  </si>
-  <si>
-    <t>9077905270-01</t>
-  </si>
-  <si>
-    <t>CNKN521886</t>
-  </si>
-  <si>
     <t>TCKU2251500</t>
   </si>
   <si>
-    <t>RIO BLACKWATER</t>
-  </si>
-  <si>
     <t>009W</t>
   </si>
   <si>
@@ -1067,16 +1049,67 @@
     <t>HLCUVIE190414287</t>
   </si>
   <si>
-    <t>GESU6228970</t>
-  </si>
-  <si>
-    <t>CHI1247070-CHI8510220</t>
-  </si>
-  <si>
-    <t>TCNU5601083</t>
-  </si>
-  <si>
-    <t>CHI1247070-CHI8510214</t>
+    <t>KKTU8059857</t>
+  </si>
+  <si>
+    <t>CHI1275232-CHI8708681</t>
+  </si>
+  <si>
+    <t>TCKU2037669</t>
+  </si>
+  <si>
+    <t>CHI1275245-CHI8708748</t>
+  </si>
+  <si>
+    <t>KKTU8219791</t>
+  </si>
+  <si>
+    <t>CHI1275245-CHI8708747</t>
+  </si>
+  <si>
+    <t>TCLU4678801</t>
+  </si>
+  <si>
+    <t>CHI1276066-CHI8628048</t>
+  </si>
+  <si>
+    <t>LEHV13203700</t>
+  </si>
+  <si>
+    <t>CXDU1576748</t>
+  </si>
+  <si>
+    <t>CHI1275232-CHI8708683</t>
+  </si>
+  <si>
+    <t>TCLU7290810</t>
+  </si>
+  <si>
+    <t>CHI1275232-CHI8708684</t>
+  </si>
+  <si>
+    <t>TEMU2511094</t>
+  </si>
+  <si>
+    <t>CHI1275245-CHI8708745</t>
+  </si>
+  <si>
+    <t>TRLU9473450</t>
+  </si>
+  <si>
+    <t>0123</t>
+  </si>
+  <si>
+    <t>CHI1275875-CHI8712376</t>
+  </si>
+  <si>
+    <t>ANRV13443300</t>
+  </si>
+  <si>
+    <t>TGHU5032780</t>
+  </si>
+  <si>
+    <t>CHI1276066-CHI8628049</t>
   </si>
 </sst>
 </file>
@@ -1121,7 +1154,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G129"/>
+  <dimension ref="A1:G133"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1188,10 +1221,10 @@
         <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
@@ -1224,359 +1257,359 @@
         <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E6"/>
       <c r="F6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E7"/>
       <c r="F7" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E8"/>
       <c r="F8" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E9"/>
       <c r="F9" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E10"/>
       <c r="F10" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="D11" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E11"/>
       <c r="F11" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="D12" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E12"/>
       <c r="F12" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E13"/>
       <c r="F13" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="D14" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E14"/>
       <c r="F14" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="D15" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E15"/>
       <c r="F15" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B16" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E16"/>
       <c r="F16" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B17" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E17"/>
       <c r="F17" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B18" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C18" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D18" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E18"/>
       <c r="F18" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E19"/>
       <c r="F19" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B20" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E20"/>
       <c r="F20" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B21" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E21"/>
       <c r="F21" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B22" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E22"/>
       <c r="F22" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B23" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="D23" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E23"/>
       <c r="F23" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B24" t="s">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E24"/>
       <c r="F24" t="s">
-        <v>80</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B25" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="D25" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E25"/>
       <c r="F25" t="s">
-        <v>83</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26">
@@ -1584,10 +1617,10 @@
         <v>84</v>
       </c>
       <c r="B26" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="C26" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="D26" t="s">
         <v>85</v>
@@ -1602,35 +1635,35 @@
         <v>87</v>
       </c>
       <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
         <v>88</v>
-      </c>
-      <c r="C27" t="s">
-        <v>89</v>
-      </c>
-      <c r="D27" t="s">
-        <v>90</v>
       </c>
       <c r="E27"/>
       <c r="F27" t="s">
-        <v>91</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>89</v>
+      </c>
+      <c r="B28" t="s">
+        <v>90</v>
+      </c>
+      <c r="C28" t="s">
+        <v>91</v>
+      </c>
+      <c r="D28" t="s">
         <v>92</v>
-      </c>
-      <c r="B28" t="s">
-        <v>45</v>
-      </c>
-      <c r="C28" t="s">
-        <v>8</v>
-      </c>
-      <c r="D28" t="s">
-        <v>93</v>
       </c>
       <c r="E28"/>
       <c r="F28" t="s">
-        <v>47</v>
+        <v>93</v>
       </c>
     </row>
     <row r="29">
@@ -1638,46 +1671,46 @@
         <v>94</v>
       </c>
       <c r="B29" t="s">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="D29" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E29"/>
       <c r="F29" t="s">
-        <v>50</v>
+        <v>97</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B30" t="s">
-        <v>33</v>
+        <v>90</v>
       </c>
       <c r="C30" t="s">
-        <v>34</v>
+        <v>91</v>
       </c>
       <c r="D30" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E30"/>
       <c r="F30" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B31" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="C31" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="D31" t="s">
         <v>102</v>
@@ -1692,100 +1725,100 @@
         <v>104</v>
       </c>
       <c r="B32" t="s">
-        <v>33</v>
+        <v>90</v>
       </c>
       <c r="C32" t="s">
-        <v>34</v>
+        <v>91</v>
       </c>
       <c r="D32" t="s">
         <v>105</v>
       </c>
       <c r="E32"/>
       <c r="F32" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B33" t="s">
-        <v>33</v>
+        <v>95</v>
       </c>
       <c r="C33" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D33" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E33"/>
       <c r="F33" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B34" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>91</v>
       </c>
       <c r="D34" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E34"/>
       <c r="F34" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B35" t="s">
-        <v>33</v>
+        <v>95</v>
       </c>
       <c r="C35" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D35" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E35"/>
       <c r="F35" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B36" t="s">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="D36" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E36"/>
       <c r="F36" t="s">
-        <v>50</v>
+        <v>116</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B37" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="C37" t="s">
-        <v>117</v>
+        <v>26</v>
       </c>
       <c r="D37" t="s">
         <v>118</v>
@@ -1803,43 +1836,43 @@
         <v>121</v>
       </c>
       <c r="C38" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="D38" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E38"/>
       <c r="F38" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B39" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C39" t="s">
+        <v>122</v>
+      </c>
+      <c r="D39" t="s">
         <v>126</v>
-      </c>
-      <c r="D39" t="s">
-        <v>127</v>
       </c>
       <c r="E39"/>
       <c r="F39" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
+        <v>128</v>
+      </c>
+      <c r="B40" t="s">
+        <v>121</v>
+      </c>
+      <c r="C40" t="s">
         <v>129</v>
-      </c>
-      <c r="B40" t="s">
-        <v>20</v>
-      </c>
-      <c r="C40" t="s">
-        <v>21</v>
       </c>
       <c r="D40" t="s">
         <v>130</v>
@@ -1854,903 +1887,899 @@
         <v>132</v>
       </c>
       <c r="B41" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>133</v>
       </c>
       <c r="D41" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E41"/>
       <c r="F41" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B42" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>91</v>
       </c>
       <c r="D42" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E42"/>
       <c r="F42" t="s">
-        <v>47</v>
+        <v>93</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B43" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>91</v>
       </c>
       <c r="D43" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E43"/>
       <c r="F43" t="s">
-        <v>75</v>
+        <v>100</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B44" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>91</v>
       </c>
       <c r="D44" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E44"/>
       <c r="F44" t="s">
-        <v>56</v>
+        <v>142</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B45" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>91</v>
       </c>
       <c r="D45" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E45"/>
       <c r="F45" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B46" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C46" t="s">
-        <v>144</v>
+        <v>91</v>
       </c>
       <c r="D46" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E46"/>
       <c r="F46" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B47" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>91</v>
       </c>
       <c r="D47" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E47"/>
       <c r="F47" t="s">
-        <v>75</v>
+        <v>106</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B48" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>91</v>
       </c>
       <c r="D48" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E48"/>
       <c r="F48" t="s">
-        <v>83</v>
+        <v>142</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B49" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>91</v>
       </c>
       <c r="D49" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E49"/>
       <c r="F49" t="s">
-        <v>50</v>
+        <v>142</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B50" t="s">
-        <v>45</v>
+        <v>155</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>156</v>
       </c>
       <c r="D50" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="E50"/>
       <c r="F50" t="s">
-        <v>83</v>
+        <v>158</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B51" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>91</v>
       </c>
       <c r="D51" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="E51"/>
       <c r="F51" t="s">
-        <v>83</v>
+        <v>106</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>91</v>
       </c>
       <c r="D52" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E52"/>
       <c r="F52" t="s">
-        <v>68</v>
+        <v>163</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="B53" t="s">
-        <v>62</v>
+        <v>121</v>
       </c>
       <c r="C53" t="s">
-        <v>63</v>
+        <v>129</v>
       </c>
       <c r="D53" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="E53"/>
       <c r="F53" t="s">
-        <v>161</v>
+        <v>131</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B54" t="s">
-        <v>45</v>
+        <v>121</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>129</v>
       </c>
       <c r="D54" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="E54"/>
       <c r="F54" t="s">
-        <v>56</v>
+        <v>131</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B55" t="s">
-        <v>116</v>
+        <v>169</v>
       </c>
       <c r="C55" t="s">
-        <v>117</v>
+        <v>170</v>
       </c>
       <c r="D55" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="E55"/>
       <c r="F55" t="s">
-        <v>119</v>
+        <v>172</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>121</v>
       </c>
       <c r="C56" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="D56" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="E56"/>
       <c r="F56" t="s">
-        <v>168</v>
+        <v>131</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
       <c r="C57" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="D57" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="E57"/>
       <c r="F57" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
       <c r="C58" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="D58" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="E58"/>
       <c r="F58" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="B59" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>91</v>
       </c>
       <c r="D59" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="E59"/>
       <c r="F59" t="s">
-        <v>75</v>
+        <v>103</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="B60" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>91</v>
       </c>
       <c r="D60" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="E60"/>
       <c r="F60" t="s">
-        <v>178</v>
+        <v>147</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C61" t="s">
-        <v>117</v>
+        <v>186</v>
       </c>
       <c r="D61" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="E61"/>
       <c r="F61" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="B62" t="s">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="D62" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="E62"/>
       <c r="F62" t="s">
-        <v>56</v>
+        <v>116</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="B63" t="s">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="D63" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="E63"/>
       <c r="F63" t="s">
-        <v>178</v>
+        <v>119</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="B64" t="s">
-        <v>20</v>
+        <v>194</v>
       </c>
       <c r="C64" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D64" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="E64"/>
       <c r="F64" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="B65" t="s">
-        <v>45</v>
+        <v>194</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="D65" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="E65"/>
       <c r="F65" t="s">
-        <v>75</v>
+        <v>196</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>95</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="D66" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="E66"/>
       <c r="F66" t="s">
-        <v>192</v>
+        <v>109</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>202</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>203</v>
       </c>
       <c r="D67" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="E67"/>
       <c r="F67" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="B68" t="s">
-        <v>116</v>
+        <v>207</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>208</v>
       </c>
       <c r="D68" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="E68"/>
       <c r="F68" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>121</v>
       </c>
       <c r="C69" t="s">
-        <v>200</v>
+        <v>129</v>
       </c>
       <c r="D69" t="s">
-        <v>201</v>
-      </c>
-      <c r="E69" t="s">
-        <v>202</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="E69"/>
       <c r="F69" t="s">
-        <v>203</v>
+        <v>131</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>202</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>203</v>
       </c>
       <c r="D70" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="E70"/>
       <c r="F70" t="s">
-        <v>192</v>
+        <v>215</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>91</v>
       </c>
       <c r="D71" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="E71"/>
       <c r="F71" t="s">
-        <v>208</v>
+        <v>142</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>202</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>203</v>
       </c>
       <c r="D72" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="E72"/>
       <c r="F72" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="B73" t="s">
-        <v>88</v>
+        <v>121</v>
       </c>
       <c r="C73" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="D73" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="E73"/>
       <c r="F73" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="B74" t="s">
-        <v>217</v>
+        <v>65</v>
       </c>
       <c r="C74" t="s">
-        <v>218</v>
+        <v>66</v>
       </c>
       <c r="D74" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="E74"/>
       <c r="F74" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>95</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="D75" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="E75"/>
       <c r="F75" t="s">
-        <v>208</v>
+        <v>97</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>95</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="D76" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="E76"/>
       <c r="F76" t="s">
-        <v>211</v>
+        <v>232</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="B77" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="D77" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="E77"/>
       <c r="F77" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="B78" t="s">
-        <v>116</v>
+        <v>65</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>66</v>
       </c>
       <c r="D78" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="E78"/>
       <c r="F78" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>95</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="D79" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="E79"/>
       <c r="F79" t="s">
-        <v>195</v>
+        <v>109</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="B80" t="s">
-        <v>217</v>
+        <v>90</v>
       </c>
       <c r="C80" t="s">
-        <v>233</v>
+        <v>91</v>
       </c>
       <c r="D80" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="E80"/>
       <c r="F80" t="s">
-        <v>235</v>
+        <v>147</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
       <c r="C81" t="s">
-        <v>200</v>
+        <v>91</v>
       </c>
       <c r="D81" t="s">
-        <v>237</v>
-      </c>
-      <c r="E81" t="s">
-        <v>202</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="E81"/>
       <c r="F81" t="s">
-        <v>203</v>
+        <v>106</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="B82" t="s">
-        <v>239</v>
+        <v>90</v>
       </c>
       <c r="C82" t="s">
-        <v>240</v>
+        <v>91</v>
       </c>
       <c r="D82" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="E82"/>
       <c r="F82" t="s">
-        <v>242</v>
+        <v>100</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="B83" t="s">
-        <v>217</v>
+        <v>121</v>
       </c>
       <c r="C83" t="s">
-        <v>218</v>
+        <v>129</v>
       </c>
       <c r="D83" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="E83"/>
       <c r="F83" t="s">
-        <v>245</v>
+        <v>131</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B84" t="s">
-        <v>217</v>
+        <v>90</v>
       </c>
       <c r="C84" t="s">
-        <v>218</v>
+        <v>91</v>
       </c>
       <c r="D84" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="E84"/>
       <c r="F84" t="s">
-        <v>220</v>
+        <v>93</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B85" t="s">
-        <v>217</v>
+        <v>90</v>
       </c>
       <c r="C85" t="s">
-        <v>218</v>
+        <v>91</v>
       </c>
       <c r="D85" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="E85"/>
       <c r="F85" t="s">
-        <v>220</v>
+        <v>253</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="B86" t="s">
-        <v>239</v>
+        <v>90</v>
       </c>
       <c r="C86" t="s">
-        <v>240</v>
+        <v>91</v>
       </c>
       <c r="D86" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="E86"/>
       <c r="F86" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="B87" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C87" t="s">
-        <v>144</v>
+        <v>91</v>
       </c>
       <c r="D87" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="E87"/>
       <c r="F87" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>91</v>
       </c>
       <c r="D88" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E88"/>
       <c r="F88" t="s">
-        <v>192</v>
+        <v>253</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>91</v>
       </c>
       <c r="D89" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E89"/>
       <c r="F89" t="s">
-        <v>260</v>
+        <v>103</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>91</v>
       </c>
       <c r="D90" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E90"/>
       <c r="F90" t="s">
-        <v>263</v>
+        <v>93</v>
       </c>
     </row>
     <row r="91">
@@ -2758,17 +2787,17 @@
         <v>264</v>
       </c>
       <c r="B91" t="s">
-        <v>217</v>
+        <v>90</v>
       </c>
       <c r="C91" t="s">
-        <v>218</v>
+        <v>91</v>
       </c>
       <c r="D91" t="s">
         <v>265</v>
       </c>
       <c r="E91"/>
       <c r="F91" t="s">
-        <v>220</v>
+        <v>147</v>
       </c>
     </row>
     <row r="92">
@@ -2776,17 +2805,17 @@
         <v>266</v>
       </c>
       <c r="B92" t="s">
-        <v>217</v>
+        <v>95</v>
       </c>
       <c r="C92" t="s">
-        <v>218</v>
+        <v>26</v>
       </c>
       <c r="D92" t="s">
         <v>267</v>
       </c>
       <c r="E92"/>
       <c r="F92" t="s">
-        <v>220</v>
+        <v>109</v>
       </c>
     </row>
     <row r="93">
@@ -2794,10 +2823,10 @@
         <v>268</v>
       </c>
       <c r="B93" t="s">
-        <v>88</v>
+        <v>202</v>
       </c>
       <c r="C93" t="s">
-        <v>144</v>
+        <v>203</v>
       </c>
       <c r="D93" t="s">
         <v>269</v>
@@ -2812,17 +2841,17 @@
         <v>271</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>95</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="D94" t="s">
         <v>272</v>
       </c>
       <c r="E94"/>
       <c r="F94" t="s">
-        <v>195</v>
+        <v>97</v>
       </c>
     </row>
     <row r="95">
@@ -2830,17 +2859,17 @@
         <v>273</v>
       </c>
       <c r="B95" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="D95" t="s">
         <v>274</v>
       </c>
       <c r="E95"/>
       <c r="F95" t="s">
-        <v>198</v>
+        <v>235</v>
       </c>
     </row>
     <row r="96">
@@ -2848,17 +2877,17 @@
         <v>275</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>95</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="D96" t="s">
         <v>276</v>
       </c>
       <c r="E96"/>
       <c r="F96" t="s">
-        <v>195</v>
+        <v>235</v>
       </c>
     </row>
     <row r="97">
@@ -2866,10 +2895,10 @@
         <v>277</v>
       </c>
       <c r="B97" t="s">
-        <v>239</v>
+        <v>207</v>
       </c>
       <c r="C97" t="s">
-        <v>240</v>
+        <v>208</v>
       </c>
       <c r="D97" t="s">
         <v>278</v>
@@ -2884,539 +2913,539 @@
         <v>280</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>121</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>129</v>
       </c>
       <c r="D98" t="s">
         <v>281</v>
       </c>
       <c r="E98"/>
       <c r="F98" t="s">
-        <v>192</v>
+        <v>282</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>121</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>129</v>
       </c>
       <c r="D99" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E99"/>
       <c r="F99" t="s">
-        <v>263</v>
+        <v>131</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>207</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>208</v>
       </c>
       <c r="D100" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E100"/>
       <c r="F100" t="s">
-        <v>263</v>
+        <v>287</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B101" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="C101" t="s">
-        <v>233</v>
+        <v>208</v>
       </c>
       <c r="D101" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="E101"/>
       <c r="F101" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B102" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="D102" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="E102"/>
       <c r="F102" t="s">
-        <v>198</v>
+        <v>235</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>95</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="D103" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="E103"/>
       <c r="F103" t="s">
-        <v>263</v>
+        <v>235</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>95</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="D104" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="E104"/>
       <c r="F104" t="s">
-        <v>263</v>
+        <v>116</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>95</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="D105" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E105"/>
       <c r="F105" t="s">
-        <v>208</v>
+        <v>97</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>95</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="D106" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="E106"/>
       <c r="F106" t="s">
-        <v>192</v>
+        <v>301</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>95</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="D107" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="E107"/>
       <c r="F107" t="s">
-        <v>301</v>
+        <v>109</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>95</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="D108" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="E108"/>
       <c r="F108" t="s">
-        <v>195</v>
+        <v>116</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>95</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="D109" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="E109"/>
       <c r="F109" t="s">
-        <v>208</v>
+        <v>119</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>121</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>222</v>
       </c>
       <c r="D110" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="E110"/>
       <c r="F110" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>121</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>222</v>
       </c>
       <c r="D111" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="E111"/>
       <c r="F111" t="s">
-        <v>310</v>
+        <v>224</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>121</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>222</v>
       </c>
       <c r="D112" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E112"/>
       <c r="F112" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>95</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="D113" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E113"/>
       <c r="F113" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>95</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="D114" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E114"/>
       <c r="F114" t="s">
-        <v>211</v>
+        <v>317</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B115" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="D115" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="E115"/>
       <c r="F115" t="s">
-        <v>227</v>
+        <v>119</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>194</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="D116" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="E116"/>
       <c r="F116" t="s">
-        <v>310</v>
+        <v>196</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>95</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="D117" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="E117"/>
       <c r="F117" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B118" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="D118" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="E118"/>
       <c r="F118" t="s">
-        <v>227</v>
+        <v>317</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B119" t="s">
-        <v>116</v>
+        <v>194</v>
       </c>
       <c r="C119" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="D119" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="E119"/>
       <c r="F119" t="s">
-        <v>227</v>
+        <v>196</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B120" t="s">
-        <v>45</v>
+        <v>194</v>
       </c>
       <c r="C120" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="D120" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="E120"/>
       <c r="F120" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B121" t="s">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="C121" t="s">
-        <v>213</v>
+        <v>26</v>
       </c>
       <c r="D121" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="E121"/>
       <c r="F121" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B122" t="s">
-        <v>217</v>
+        <v>65</v>
       </c>
       <c r="C122" t="s">
-        <v>218</v>
+        <v>133</v>
       </c>
       <c r="D122" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="E122"/>
       <c r="F122" t="s">
-        <v>220</v>
+        <v>337</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="B123" t="s">
-        <v>217</v>
+        <v>65</v>
       </c>
       <c r="C123" t="s">
-        <v>218</v>
+        <v>133</v>
       </c>
       <c r="D123" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="E123"/>
       <c r="F123" t="s">
-        <v>220</v>
+        <v>340</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="B124" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C124" t="s">
-        <v>213</v>
+        <v>342</v>
       </c>
       <c r="D124" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="E124"/>
       <c r="F124" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="B125" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="C125" t="s">
-        <v>8</v>
+        <v>91</v>
       </c>
       <c r="D125" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="E125"/>
       <c r="F125" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="B126" t="s">
-        <v>239</v>
+        <v>90</v>
       </c>
       <c r="C126" t="s">
-        <v>343</v>
+        <v>91</v>
       </c>
       <c r="D126" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="E126"/>
       <c r="F126" t="s">
-        <v>345</v>
+        <v>180</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="B127" t="s">
-        <v>347</v>
+        <v>90</v>
       </c>
       <c r="C127" t="s">
-        <v>348</v>
+        <v>91</v>
       </c>
       <c r="D127" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E127"/>
       <c r="F127" t="s">
-        <v>350</v>
+        <v>180</v>
       </c>
     </row>
     <row r="128">
@@ -3424,35 +3453,107 @@
         <v>351</v>
       </c>
       <c r="B128" t="s">
-        <v>217</v>
+        <v>194</v>
       </c>
       <c r="C128" t="s">
-        <v>218</v>
+        <v>26</v>
       </c>
       <c r="D128" t="s">
         <v>352</v>
       </c>
       <c r="E128"/>
       <c r="F128" t="s">
-        <v>220</v>
+        <v>353</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B129" t="s">
-        <v>217</v>
+        <v>90</v>
       </c>
       <c r="C129" t="s">
-        <v>218</v>
+        <v>91</v>
       </c>
       <c r="D129" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E129"/>
       <c r="F129" t="s">
-        <v>220</v>
+        <v>177</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>356</v>
+      </c>
+      <c r="B130" t="s">
+        <v>90</v>
+      </c>
+      <c r="C130" t="s">
+        <v>91</v>
+      </c>
+      <c r="D130" t="s">
+        <v>357</v>
+      </c>
+      <c r="E130"/>
+      <c r="F130" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>358</v>
+      </c>
+      <c r="B131" t="s">
+        <v>90</v>
+      </c>
+      <c r="C131" t="s">
+        <v>91</v>
+      </c>
+      <c r="D131" t="s">
+        <v>359</v>
+      </c>
+      <c r="E131"/>
+      <c r="F131" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>360</v>
+      </c>
+      <c r="B132" t="s">
+        <v>7</v>
+      </c>
+      <c r="C132" t="s">
+        <v>361</v>
+      </c>
+      <c r="D132" t="s">
+        <v>362</v>
+      </c>
+      <c r="E132"/>
+      <c r="F132" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>364</v>
+      </c>
+      <c r="B133" t="s">
+        <v>194</v>
+      </c>
+      <c r="C133" t="s">
+        <v>26</v>
+      </c>
+      <c r="D133" t="s">
+        <v>365</v>
+      </c>
+      <c r="E133"/>
+      <c r="F133" t="s">
+        <v>353</v>
       </c>
     </row>
   </sheetData>
